--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CARES\16Oct2024\CARES---Selenium-Automation-master (12)\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6DC2A-33D2-4DA1-BDD5-D95E371E4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932266C7-B33F-42CC-AAA9-ACEA2423AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="482">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7465,10 +7465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7735,15 +7735,43 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13366,6 +13394,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -13582,15 +13619,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
@@ -13602,6 +13630,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13618,12 +13654,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CARES\16Oct2024\CARES---Selenium-Automation-master (12)\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932266C7-B33F-42CC-AAA9-ACEA2423AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C888645-1867-40A8-A72D-7B6745A338FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="482">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -7467,8 +7467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9652,7 +9652,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9810,10 +9810,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10025,6 +10025,98 @@
         <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\newData\Latestfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241817AA-7772-4392-A1C0-EC8C95863A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA926F-A91A-4B6B-897E-B37720769969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="628">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1614,12 +1614,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>UPDATE STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD NEW VERSION</t>
-  </si>
-  <si>
     <t>UPLOAD</t>
   </si>
   <si>
@@ -1788,12 +1782,6 @@
     <t>Folio</t>
   </si>
   <si>
-    <t>ERRDOC_BTN</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral Document has been generated.</t>
-  </si>
-  <si>
     <t>SUBMIT_BTN</t>
   </si>
   <si>
@@ -1848,19 +1836,125 @@
     <t>SCP_ID4</t>
   </si>
   <si>
-    <t>METHOD_LIST</t>
-  </si>
-  <si>
     <t>ROLE_LIST</t>
   </si>
   <si>
     <t>Alleged Perpetrator,Alleged Victim,Collateral,Safety Surrendered Baby</t>
   </si>
   <si>
-    <t>CONTACT_PURPOSE_LIST</t>
-  </si>
-  <si>
     <t>E-mail,In-Person,Phone,Text,Video Chat,Written</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral (ERRD)</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>UPLOAD_PATH</t>
+  </si>
+  <si>
+    <t>Success, Document was generated. Please Click on Documents tab to view your document.</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS_UPDATE</t>
+  </si>
+  <si>
+    <t>In draft</t>
+  </si>
+  <si>
+    <t>Current Task Assignments</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Related To</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Service Type Name</t>
+  </si>
+  <si>
+    <t>Service Type Description</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Last Modified Date</t>
+  </si>
+  <si>
+    <t>New Providers created in past 120 days</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FOCUSED_SEARCH_TAB</t>
+  </si>
+  <si>
+    <t>Service Types</t>
+  </si>
+  <si>
+    <t>CONTACT_TOPIC</t>
+  </si>
+  <si>
+    <t>SCHEDULED_NEXT_IN_PERSON_CONTACT_VISIT</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>CONTACT_PURPOSE_PICKLIST</t>
+  </si>
+  <si>
+    <t>METHOD_PICKLIST</t>
+  </si>
+  <si>
+    <t>LOCATION_PICKLIST</t>
+  </si>
+  <si>
+    <t>Consult with Tribe</t>
+  </si>
+  <si>
+    <t>Hotline Supervisor2 Contra Costa</t>
+  </si>
+  <si>
+    <t>Court,Other,Placement,Office</t>
+  </si>
+  <si>
+    <t>Potential Interview Questions for a Tribal Inquiry:
+(1) Is the child a member or citizen of one or more federally recognized Indian tribes or Alaska Native villages? If yes, then which tribe or tribes may the child be a member/citizen of?
+(2) Is either biological parent of the child a member of one or more federally recognized tribes? If yes, then which tribe or tribes?
+(3) Is the domicile or residence of the child, the child’s parent, or the child’s Indian custodian on a reservation or in an Alaska Native village?
+(4) Does the child’s biological family identify as having ancestry or heritage with one or more federally recognized Indian tribes or Alaska Native villages?
+(5) Does the child, or any of the child’s relatives, receive services or benefits from a tribe or tribes? If yes, which tribe or tribes?
+(6) Does the child or any of the child’s relatives receive services or benefits available to Indians from the federal government?
+(7) Is there any family member or close friend who may have information about the child’s status as an Indian child? If so, to the extent possible, get the names and contact information for that person or persons and interview them as well.</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +2062,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,6 +2072,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,7 +2110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2032,8 +2132,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2042,6 +2140,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2375,169 +2490,169 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AP1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AS1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AT1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AV1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AW1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AX1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AY1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BA1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BC1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BD1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BE1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BF1" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2596,10 +2711,10 @@
       <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="20" t="s">
         <v>66</v>
       </c>
       <c r="U2" t="s">
@@ -2608,64 +2723,64 @@
       <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="22" t="s">
         <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="Y2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
         <v>74</v>
       </c>
       <c r="AK2" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AN2" s="19" t="s">
         <v>74</v>
       </c>
       <c r="AO2" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AP2" s="19" t="s">
         <v>74</v>
       </c>
       <c r="AQ2" t="s">
@@ -2718,83 +2833,83 @@
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AR3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AR3" s="20"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D4" s="23"/>
-      <c r="H4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AR4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AR4" s="21"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AR5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AR5" s="20"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AR6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AR6" s="20"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AR7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AR7" s="20"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="AR8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="AR8" s="20"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="AR9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="AR9" s="20"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H10" s="22"/>
-      <c r="S10" s="22"/>
+      <c r="H10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="H11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H12" s="22"/>
-      <c r="S12" s="23"/>
+      <c r="H12" s="20"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S13" s="22"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S14" s="22"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S15" s="23"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S16" s="22"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S17" s="22"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S18" s="23"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S19" s="22"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S20" s="22"/>
+      <c r="S20" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2810,7 +2925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3200,7 +3315,7 @@
         <v>338</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="CU1" s="8" t="s">
         <v>271</v>
@@ -3385,310 +3500,310 @@
       </c>
       <c r="CV2" s="16"/>
     </row>
-    <row r="3" spans="1:111" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:111" s="29" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF3" s="18" t="s">
+      <c r="I3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="AG3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="CD3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="CP3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ3" s="18"/>
-      <c r="CR3" s="18"/>
-      <c r="CS3" s="18"/>
-      <c r="CT3" s="18"/>
-      <c r="CU3" s="18" t="s">
+      <c r="AG3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ3" s="27"/>
+      <c r="CR3" s="27"/>
+      <c r="CS3" s="27"/>
+      <c r="CT3" s="27"/>
+      <c r="CU3" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="CV3" s="18" t="s">
+      <c r="CV3" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="CW3" s="19"/>
-      <c r="CX3" s="19"/>
-      <c r="CY3" s="19"/>
-      <c r="CZ3" s="19"/>
-      <c r="DA3" s="19"/>
-      <c r="DB3" s="19"/>
-      <c r="DC3" s="19"/>
-      <c r="DD3" s="19"/>
-      <c r="DE3" s="19"/>
-      <c r="DF3" s="19"/>
-      <c r="DG3" s="19"/>
+      <c r="CW3" s="28"/>
+      <c r="CX3" s="28"/>
+      <c r="CY3" s="28"/>
+      <c r="CZ3" s="28"/>
+      <c r="DA3" s="28"/>
+      <c r="DB3" s="28"/>
+      <c r="DC3" s="28"/>
+      <c r="DD3" s="28"/>
+      <c r="DE3" s="28"/>
+      <c r="DF3" s="28"/>
+      <c r="DG3" s="28"/>
     </row>
     <row r="4" spans="1:111" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -5769,8 +5884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="N11" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5838,7 +5953,7 @@
         <v>295</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
@@ -6126,67 +6241,67 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="G13" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6766,10 +6881,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6821,7 +6936,7 @@
         <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -6856,10 +6971,10 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -6894,7 +7009,7 @@
         <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -6929,7 +7044,7 @@
         <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -6964,7 +7079,7 @@
         <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -6999,10 +7114,10 @@
         <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L6" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -7037,7 +7152,7 @@
         <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -7072,7 +7187,7 @@
         <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -7107,7 +7222,7 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -7298,7 +7413,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -7326,7 +7441,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -7359,7 +7474,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -7390,6 +7505,79 @@
       </c>
       <c r="K19" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="32">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32">
+        <v>2</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -8538,7 +8726,7 @@
   <dimension ref="A1:BN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8554,148 +8742,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="7" t="s">
         <v>271</v>
       </c>
       <c r="AW1" t="s">
@@ -8754,1089 +8942,1228 @@
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
+      <c r="P2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1" t="s">
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1" t="s">
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1" t="s">
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="P3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AW3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1" t="s">
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1" t="s">
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1" t="s">
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BD3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BE3" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1" t="s">
+      <c r="P4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AW4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1" t="s">
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1" t="s">
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1" t="s">
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BD4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BE4" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1" t="s">
+      <c r="P5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AW5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1" t="s">
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1" t="s">
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1" t="s">
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BD5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BE5" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>627</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L8" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="L9" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O9" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P9" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV6" s="1" t="s">
+      <c r="Q9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AW9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1" t="s">
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1" t="s">
+      <c r="BD9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BE9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:66" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="BF6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1" t="s">
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1" t="s">
+      <c r="BD10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BE10" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="BE7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
+      <c r="BF10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="30" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -10808,25 +11135,25 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10840,10 +11167,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
@@ -10858,27 +11185,27 @@
       <c r="I2">
         <v>21</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="23"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="22"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="22"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="22"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="22"/>
+      <c r="D8" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10887,10 +11214,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
-  <dimension ref="A1:AN22"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10936,7 +11263,7 @@
     <col min="40" max="40" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10953,112 +11280,121 @@
         <v>429</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="R1" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AM1" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -11070,40 +11406,46 @@
       <c r="E2" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>496</v>
+      </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="6"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="W2" s="6"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -11120,11 +11462,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -11138,51 +11483,53 @@
         <v>123</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="K3" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7" t="s">
-        <v>124</v>
+        <v>592</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>124</v>
+        <v>626</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>124</v>
@@ -11238,11 +11585,20 @@
       <c r="AM3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -11256,49 +11612,49 @@
         <v>123</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="K4" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="P4" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>124</v>
@@ -11354,11 +11710,20 @@
       <c r="AM4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AN4" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -11372,49 +11737,49 @@
         <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="K5" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="P5" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>124</v>
@@ -11470,11 +11835,20 @@
       <c r="AM5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AN5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -11488,221 +11862,239 @@
         <v>123</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="12" t="s">
+      <c r="V7" s="7"/>
+      <c r="W7" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Y7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Z7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AA7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AB7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AC7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AD7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AE7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AF7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AG7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AH7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AI7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AK7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AL7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AM7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AN7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AO7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="8" t="s">
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -11715,43 +12107,49 @@
       <c r="D8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="P8" s="7" t="s">
+        <v>496</v>
+      </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -11768,11 +12166,14 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
-      <c r="AN8" s="8" t="s">
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -11785,49 +12186,55 @@
       <c r="D9" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="P9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="6"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -11844,57 +12251,143 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AN9" s="8" t="s">
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ10" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -11936,7 +12429,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -11978,7 +12471,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -12020,7 +12513,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -12062,7 +12555,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -12104,7 +12597,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -12408,8 +12901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12466,43 +12959,43 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="G2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -12542,27 +13035,27 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12632,10 +13125,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12653,10 +13146,11 @@
     <col min="14" max="14" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12688,31 +13182,46 @@
         <v>515</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T1" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -12739,14 +13248,16 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -12760,7 +13271,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>123</v>
@@ -12786,49 +13297,103 @@
       <c r="M3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="N3" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>602</v>
+      </c>
       <c r="Q3" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="R3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="S3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12842,7 +13407,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -12860,7 +13425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -12876,8 +13441,145 @@
         <v>123</v>
       </c>
     </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12911,58 +13613,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1" t="s">
         <v>526</v>
-      </c>
-      <c r="G1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H1" t="s">
-        <v>528</v>
       </c>
       <c r="I1" t="s">
         <v>349</v>
       </c>
       <c r="J1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K1" t="s">
+        <v>528</v>
+      </c>
+      <c r="L1" t="s">
         <v>529</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>530</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>531</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>532</v>
-      </c>
-      <c r="N1" t="s">
-        <v>533</v>
-      </c>
-      <c r="O1" t="s">
-        <v>534</v>
       </c>
       <c r="P1" t="s">
         <v>504</v>
       </c>
       <c r="Q1" t="s">
+        <v>533</v>
+      </c>
+      <c r="R1" t="s">
+        <v>534</v>
+      </c>
+      <c r="S1" t="s">
         <v>535</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>536</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>537</v>
-      </c>
-      <c r="T1" t="s">
-        <v>538</v>
-      </c>
-      <c r="U1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -13045,46 +13747,46 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" t="s">
         <v>540</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>541</v>
-      </c>
-      <c r="F1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G1" t="s">
-        <v>543</v>
       </c>
       <c r="H1" t="s">
         <v>396</v>
       </c>
       <c r="I1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K1" t="s">
         <v>544</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>545</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>546</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>547</v>
-      </c>
-      <c r="M1" t="s">
-        <v>548</v>
-      </c>
-      <c r="N1" t="s">
-        <v>549</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13151,7 +13853,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -13198,7 +13900,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -13298,7 +14000,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13348,7 +14050,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13426,19 +14128,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1" t="s">
         <v>553</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>554</v>
-      </c>
-      <c r="G1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H1" t="s">
-        <v>556</v>
       </c>
       <c r="I1" t="s">
         <v>350</v>
@@ -13470,7 +14172,7 @@
         <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -13503,34 +14205,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" t="s">
         <v>558</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>559</v>
-      </c>
-      <c r="F1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G1" t="s">
-        <v>561</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K1" t="s">
         <v>562</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>563</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>564</v>
-      </c>
-      <c r="L1" t="s">
-        <v>565</v>
-      </c>
-      <c r="M1" t="s">
-        <v>566</v>
       </c>
       <c r="N1" t="s">
         <v>367</v>
@@ -13539,19 +14241,19 @@
         <v>368</v>
       </c>
       <c r="P1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>566</v>
+      </c>
+      <c r="R1" t="s">
         <v>567</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>568</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>569</v>
-      </c>
-      <c r="S1" t="s">
-        <v>570</v>
-      </c>
-      <c r="T1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -13568,7 +14270,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>121</v>
@@ -13630,7 +14332,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>121</v>
@@ -13685,22 +14387,22 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13711,36 +14413,42 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>574</v>
-      </c>
-      <c r="E1" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -13753,11 +14461,14 @@
       <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -13771,10 +14482,13 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -13784,14 +14498,17 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -13801,14 +14518,17 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -13818,14 +14538,17 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -13835,11 +14558,14 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>575</v>
+        <v>594</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -13880,19 +14606,19 @@
         <v>350</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -14007,7 +14733,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14036,16 +14762,16 @@
         <v>350</v>
       </c>
       <c r="E1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -14209,22 +14935,22 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -14238,39 +14964,39 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="23"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="22"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="23"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="22"/>
+      <c r="D7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14307,19 +15033,19 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>99</v>
       </c>
     </row>
@@ -14350,19 +15076,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D3" s="22"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="23"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D6" s="22"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D7" s="22"/>
+      <c r="D7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14373,7 +15099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A98DFFD-1A2A-41CC-AFEE-7D055D33FA0E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -14618,10 +15344,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14647,21 +15373,24 @@
     <col min="19" max="19" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.26953125" customWidth="1"/>
+    <col min="23" max="23" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14716,65 +15445,68 @@
       <c r="R1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AC1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AD1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AF1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>154</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>155</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>156</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -14796,9 +15528,9 @@
       <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="AC2" s="22"/>
-    </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD2" s="20"/>
+    </row>
+    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14820,10 +15552,10 @@
       <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="AC3" s="27"/>
-    </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W3" s="20"/>
+      <c r="AD3" s="25"/>
+    </row>
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -14845,10 +15577,10 @@
       <c r="G4" t="s">
         <v>123</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="AC4" s="22"/>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W4" s="25"/>
+      <c r="AD4" s="20"/>
+    </row>
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -14870,10 +15602,10 @@
       <c r="G5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V5" s="22"/>
-      <c r="AC5" s="23"/>
-    </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="20"/>
+      <c r="AD5" s="21"/>
+    </row>
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -14892,10 +15624,10 @@
       <c r="F6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="AC6" s="22"/>
-    </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="21"/>
+      <c r="AD6" s="20"/>
+    </row>
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -14917,56 +15649,59 @@
       <c r="U7" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="W7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="X7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" s="22" t="s">
+      <c r="V7" t="s">
         <v>66</v>
       </c>
-      <c r="AI7" s="22" t="s">
+      <c r="W7" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AJ7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK7" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AJ7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -14988,10 +15723,10 @@
       <c r="G8" t="s">
         <v>123</v>
       </c>
-      <c r="V8" s="23"/>
-    </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V9" s="22"/>
+      <c r="W8" s="21"/>
+    </row>
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W9" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15458,7 +16193,7 @@
       <c r="S5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="26" t="s">
         <v>186</v>
       </c>
       <c r="U5" s="1"/>
@@ -15537,7 +16272,7 @@
       <c r="S6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="26" t="s">
         <v>186</v>
       </c>
       <c r="U6" s="1"/>
@@ -15570,25 +16305,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -15805,25 +16521,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15840,4 +16557,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA926F-A91A-4B6B-897E-B37720769969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C734F7C-758B-4BE8-9697-4E35E5124B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="633">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1614,9 +1614,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>UPLOAD</t>
-  </si>
-  <si>
     <t>DOCUMENT_CATEGORY</t>
   </si>
   <si>
@@ -1821,9 +1818,6 @@
     <t>DOCUMENT_SUBTAB_VERIFY</t>
   </si>
   <si>
-    <t>County Assigned to Screening</t>
-  </si>
-  <si>
     <t>SCP_ID1</t>
   </si>
   <si>
@@ -1852,9 +1846,6 @@
   </si>
   <si>
     <t>SCAR</t>
-  </si>
-  <si>
-    <t>UPLOAD_PATH</t>
   </si>
   <si>
     <t>Success, Document was generated. Please Click on Documents tab to view your document.</t>
@@ -1955,6 +1946,30 @@
 (5) Does the child, or any of the child’s relatives, receive services or benefits from a tribe or tribes? If yes, which tribe or tribes?
 (6) Does the child or any of the child’s relatives receive services or benefits available to Indians from the federal government?
 (7) Is there any family member or close friend who may have information about the child’s status as an Indian child? If so, to the extent possible, get the names and contact information for that person or persons and interview them as well.</t>
+  </si>
+  <si>
+    <t>Hotline Staff1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>SCR_TRIBAL_ID</t>
+  </si>
+  <si>
+    <t>SCR_TRIBAL_ID1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2077,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2078,6 +2093,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,7 +2131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2123,7 +2144,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2157,6 +2177,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2490,169 +2515,169 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AP1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AS1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AT1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="AU1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="AV1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="AW1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="AX1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AY1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BA1" s="18" t="s">
         <v>60</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BC1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BD1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BE1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BF1" s="18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2711,10 +2736,10 @@
       <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="U2" t="s">
@@ -2723,64 +2748,64 @@
       <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="21" t="s">
         <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="Y2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="23" t="s">
         <v>74</v>
       </c>
       <c r="AK2" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AN2" s="19" t="s">
+      <c r="AN2" s="18" t="s">
         <v>74</v>
       </c>
       <c r="AO2" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="18" t="s">
         <v>74</v>
       </c>
       <c r="AQ2" t="s">
@@ -2833,83 +2858,83 @@
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AR3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AR3" s="19"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AR4" s="21"/>
+      <c r="D4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AR4" s="20"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AR5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AR5" s="19"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AR6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AR6" s="19"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AR7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AR7" s="19"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="AR8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="AR8" s="19"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="AR9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="AR9" s="19"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H12" s="20"/>
-      <c r="S12" s="21"/>
+      <c r="H12" s="19"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S14" s="20"/>
+      <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S15" s="21"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S16" s="20"/>
+      <c r="S16" s="19"/>
     </row>
     <row r="17" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S17" s="20"/>
+      <c r="S17" s="19"/>
     </row>
     <row r="18" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S18" s="21"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S19" s="20"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S20" s="20"/>
+      <c r="S20" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2925,7 +2950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3035,37 +3060,37 @@
       <c r="D1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="40" t="s">
         <v>198</v>
       </c>
       <c r="P1" s="8" t="s">
@@ -3116,7 +3141,7 @@
       <c r="AE1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="40" t="s">
         <v>212</v>
       </c>
       <c r="AG1" s="8" t="s">
@@ -3125,10 +3150,10 @@
       <c r="AH1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>214</v>
       </c>
       <c r="AK1" s="8" t="s">
@@ -3315,7 +3340,7 @@
         <v>338</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="CU1" s="8" t="s">
         <v>271</v>
@@ -3324,791 +3349,791 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:111" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:111" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="16" t="s">
+      <c r="I2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="AG2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
-      <c r="CU2" s="18" t="s">
+      <c r="AG2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="CV2" s="16"/>
-    </row>
-    <row r="3" spans="1:111" s="29" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="CV2" s="15"/>
+    </row>
+    <row r="3" spans="1:111" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF3" s="27" t="s">
+      <c r="I3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="AG3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI3" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="CD3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="CP3" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ3" s="27"/>
-      <c r="CR3" s="27"/>
-      <c r="CS3" s="27"/>
-      <c r="CT3" s="27"/>
-      <c r="CU3" s="27" t="s">
+      <c r="AG3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="26"/>
+      <c r="CS3" s="26"/>
+      <c r="CT3" s="26"/>
+      <c r="CU3" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="CV3" s="27" t="s">
+      <c r="CV3" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="CW3" s="28"/>
-      <c r="CX3" s="28"/>
-      <c r="CY3" s="28"/>
-      <c r="CZ3" s="28"/>
-      <c r="DA3" s="28"/>
-      <c r="DB3" s="28"/>
-      <c r="DC3" s="28"/>
-      <c r="DD3" s="28"/>
-      <c r="DE3" s="28"/>
-      <c r="DF3" s="28"/>
-      <c r="DG3" s="28"/>
-    </row>
-    <row r="4" spans="1:111" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="CW3" s="27"/>
+      <c r="CX3" s="27"/>
+      <c r="CY3" s="27"/>
+      <c r="CZ3" s="27"/>
+      <c r="DA3" s="27"/>
+      <c r="DB3" s="27"/>
+      <c r="DC3" s="27"/>
+      <c r="DD3" s="27"/>
+      <c r="DE3" s="27"/>
+      <c r="DF3" s="27"/>
+      <c r="DG3" s="27"/>
+    </row>
+    <row r="4" spans="1:111" s="29" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF4" s="8" t="s">
+      <c r="I4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AG4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="CP4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ4" s="8"/>
-      <c r="CR4" s="8"/>
-      <c r="CS4" s="8"/>
-      <c r="CT4" s="8"/>
-      <c r="CU4" s="8" t="s">
+      <c r="AG4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ4" s="30"/>
+      <c r="CR4" s="30"/>
+      <c r="CS4" s="30"/>
+      <c r="CT4" s="30"/>
+      <c r="CU4" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="CV4" s="8" t="s">
+      <c r="CV4" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="CW4" s="1"/>
-      <c r="CX4" s="1"/>
-      <c r="CY4" s="1"/>
-      <c r="CZ4" s="1"/>
-      <c r="DA4" s="1"/>
-      <c r="DB4" s="1"/>
-      <c r="DC4" s="1"/>
-      <c r="DD4" s="1"/>
-      <c r="DE4" s="1"/>
-      <c r="DF4" s="1"/>
-      <c r="DG4" s="1"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
     </row>
     <row r="5" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -4723,7 +4748,7 @@
         <v>121</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>123</v>
@@ -4917,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>74</v>
@@ -4956,7 +4981,7 @@
         <v>124</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>124</v>
@@ -5257,7 +5282,7 @@
         <v>121</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>123</v>
@@ -5451,7 +5476,7 @@
         <v>74</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>74</v>
@@ -5490,7 +5515,7 @@
         <v>124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>124</v>
@@ -5885,7 +5910,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5919,19 +5944,19 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="41" t="s">
         <v>290</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -5953,7 +5978,7 @@
         <v>295</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
@@ -6241,131 +6266,131 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="30">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30">
-        <v>1</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="31" t="s">
+      <c r="G12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="30">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="31" t="s">
+      <c r="G13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="G14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="30" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>4</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="G15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6881,10 +6906,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6911,32 +6936,32 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="39" t="s">
         <v>316</v>
       </c>
       <c r="H1" t="s">
         <v>317</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -6959,7 +6984,7 @@
         <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>321</v>
@@ -6971,10 +6996,10 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -6997,7 +7022,7 @@
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>322</v>
@@ -7009,7 +7034,7 @@
         <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -7032,7 +7057,7 @@
         <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
         <v>321</v>
@@ -7044,7 +7069,7 @@
         <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -7067,7 +7092,7 @@
         <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
         <v>322</v>
@@ -7079,7 +7104,7 @@
         <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -7102,7 +7127,7 @@
         <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
         <v>321</v>
@@ -7114,10 +7139,10 @@
         <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -7140,7 +7165,7 @@
         <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>322</v>
@@ -7152,7 +7177,7 @@
         <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -7175,7 +7200,7 @@
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
         <v>321</v>
@@ -7187,12 +7212,12 @@
         <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
@@ -7210,7 +7235,7 @@
         <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
         <v>322</v>
@@ -7222,7 +7247,7 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -7376,7 +7401,7 @@
         <v>321</v>
       </c>
       <c r="H15" t="s">
-        <v>321</v>
+        <v>630</v>
       </c>
       <c r="I15" t="s">
         <v>123</v>
@@ -7507,77 +7532,150 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="32">
-        <v>1</v>
-      </c>
-      <c r="C20" s="32">
-        <v>1</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="B20" s="31">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="I20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="32">
-        <v>1</v>
-      </c>
-      <c r="C21" s="32">
+      <c r="B21" s="31">
+        <v>1</v>
+      </c>
+      <c r="C21" s="31">
         <v>2</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>587</v>
+      <c r="I21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="31">
+        <v>1</v>
+      </c>
+      <c r="C22" s="31">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="31">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31">
+        <v>4</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -7874,9 +7972,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7887,9 +7987,9 @@
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7904,26 +8004,26 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="39" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" t="s">
-        <v>349</v>
       </c>
       <c r="K1" t="s">
         <v>350</v>
@@ -7996,7 +8096,96 @@
       <c r="E2" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8725,8 +8914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8751,49 +8940,49 @@
       <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="42" t="s">
         <v>436</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="42" t="s">
         <v>438</v>
       </c>
       <c r="S1" s="7" t="s">
@@ -9393,7 +9582,7 @@
         <v>485</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>74</v>
@@ -9413,8 +9602,8 @@
       <c r="Q6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="36" t="s">
-        <v>627</v>
+      <c r="R6" s="35" t="s">
+        <v>624</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>124</v>
@@ -9589,7 +9778,7 @@
         <v>485</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>74</v>
@@ -9969,199 +10158,199 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:66" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="32">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="32" t="s">
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="32" t="s">
+      <c r="K10" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="U10" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV10" s="32" t="s">
+      <c r="P10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>624</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="AW10" s="32" t="s">
+      <c r="AW10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AX10" s="32" t="s">
+      <c r="AX10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AY10" s="32" t="s">
+      <c r="AY10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AZ10" s="32"/>
-      <c r="BA10" s="32" t="s">
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BB10" s="32"/>
-      <c r="BC10" s="32" t="s">
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BD10" s="32" t="s">
+      <c r="BD10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BE10" s="32" t="s">
+      <c r="BE10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BF10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN10" s="30" t="s">
+      <c r="BF10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="29" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10190,7 +10379,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -10214,7 +10403,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="12"/>
+      <c r="AW11" s="11"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -10249,7 +10438,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="10"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -10273,7 +10462,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="11"/>
+      <c r="AW12" s="10"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -10308,7 +10497,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="12"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -10332,7 +10521,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="12"/>
+      <c r="AW13" s="11"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -10367,7 +10556,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -10426,7 +10615,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="10"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -10485,7 +10674,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="12"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -10544,7 +10733,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -10603,7 +10792,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="11"/>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -10662,7 +10851,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="12"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -10721,7 +10910,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="12"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -10780,7 +10969,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="10"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -10839,7 +11028,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="12"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -10898,7 +11087,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -10957,7 +11146,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -11016,7 +11205,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -11075,7 +11264,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -11135,25 +11324,25 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -11167,10 +11356,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
@@ -11185,27 +11374,27 @@
       <c r="I2">
         <v>21</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="21"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="20"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11216,8 +11405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11273,56 +11462,56 @@
       <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>623</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>426</v>
@@ -11388,7 +11577,7 @@
         <v>342</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ1" s="8" t="s">
         <v>271</v>
@@ -11483,7 +11672,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>483</v>
@@ -11501,7 +11690,7 @@
         <v>495</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>279</v>
@@ -11523,10 +11712,10 @@
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>123</v>
@@ -11612,7 +11801,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>483</v>
@@ -11630,7 +11819,7 @@
         <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>279</v>
@@ -11720,7 +11909,7 @@
         <v>124</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -11737,7 +11926,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>483</v>
@@ -11755,7 +11944,7 @@
         <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>279</v>
@@ -11862,7 +12051,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>483</v>
@@ -11880,7 +12069,7 @@
         <v>495</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>279</v>
@@ -11970,7 +12159,7 @@
         <v>124</v>
       </c>
       <c r="AQ6" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -12258,132 +12447,132 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="32">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>624</v>
-      </c>
-      <c r="F10" s="32" t="s">
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="L10" s="32" t="s">
+      <c r="K10" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="L10" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="N10" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="31" t="s">
+      <c r="N10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="Q10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>626</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ10" s="31" t="s">
+      <c r="Q10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ10" s="30" t="s">
         <v>275</v>
       </c>
     </row>
@@ -12959,103 +13148,103 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="32">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="G2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="G3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>302</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13093,7 +13282,7 @@
       <c r="D6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>123</v>
       </c>
       <c r="F6" t="s">
@@ -13105,13 +13294,13 @@
       <c r="H6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="I6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>302</v>
       </c>
       <c r="L6" t="s">
@@ -13125,10 +13314,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13148,9 +13337,10 @@
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.54296875" customWidth="1"/>
     <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13160,68 +13350,71 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q1" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="T1" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="V1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W1" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -13256,144 +13449,154 @@
         <v>123</v>
       </c>
       <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="U2" s="12"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="R3" s="13" t="s">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="S3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30">
-        <v>1</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="R4" s="30" t="s">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="R4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="V4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="W4" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13407,7 +13610,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -13424,158 +13627,185 @@
       <c r="J5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="R7" s="13" t="s">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="R6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>124</v>
-      </c>
+      <c r="S6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13613,58 +13843,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G1" t="s">
         <v>524</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>525</v>
-      </c>
-      <c r="H1" t="s">
-        <v>526</v>
       </c>
       <c r="I1" t="s">
         <v>349</v>
       </c>
       <c r="J1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K1" t="s">
         <v>527</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>528</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>529</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>530</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>531</v>
-      </c>
-      <c r="O1" t="s">
-        <v>532</v>
       </c>
       <c r="P1" t="s">
         <v>504</v>
       </c>
       <c r="Q1" t="s">
+        <v>532</v>
+      </c>
+      <c r="R1" t="s">
         <v>533</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>534</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>535</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>536</v>
-      </c>
-      <c r="U1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -13715,7 +13945,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13746,96 +13976,96 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>540</v>
-      </c>
-      <c r="G1" t="s">
-        <v>541</v>
       </c>
       <c r="H1" t="s">
         <v>396</v>
       </c>
       <c r="I1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J1" t="s">
         <v>542</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>543</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>544</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>545</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>546</v>
-      </c>
-      <c r="N1" t="s">
-        <v>547</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q1" t="s">
         <v>548</v>
       </c>
-      <c r="Q1" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13852,8 +14082,11 @@
       <c r="D3" t="s">
         <v>123</v>
       </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -13899,8 +14132,11 @@
       <c r="D4" t="s">
         <v>123</v>
       </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -13966,11 +14202,14 @@
       <c r="D6" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>74</v>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>124</v>
@@ -14000,7 +14239,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>585</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14016,11 +14255,14 @@
       <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>74</v>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>124</v>
@@ -14050,7 +14292,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>585</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14128,19 +14370,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" t="s">
         <v>551</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>552</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>553</v>
-      </c>
-      <c r="H1" t="s">
-        <v>554</v>
       </c>
       <c r="I1" t="s">
         <v>350</v>
@@ -14172,7 +14414,7 @@
         <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -14205,34 +14447,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" t="s">
         <v>556</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>557</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>558</v>
-      </c>
-      <c r="G1" t="s">
-        <v>559</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" t="s">
         <v>560</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>561</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>562</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>563</v>
-      </c>
-      <c r="M1" t="s">
-        <v>564</v>
       </c>
       <c r="N1" t="s">
         <v>367</v>
@@ -14241,142 +14483,142 @@
         <v>368</v>
       </c>
       <c r="P1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q1" t="s">
         <v>565</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>566</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>567</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>568</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="F2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="F3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -14390,7 +14632,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14398,7 +14640,7 @@
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" customWidth="1"/>
     <col min="6" max="6" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14413,10 +14655,10 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
@@ -14428,44 +14670,44 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30">
-        <v>1</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>594</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -14475,17 +14717,17 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>630</v>
       </c>
       <c r="D4" t="s">
         <v>123</v>
       </c>
       <c r="E4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -14502,10 +14744,10 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -14522,10 +14764,10 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -14542,10 +14784,10 @@
         <v>123</v>
       </c>
       <c r="E7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -14562,10 +14804,10 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
+        <v>592</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -14578,7 +14820,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14606,80 +14848,80 @@
         <v>350</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="E3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -14733,7 +14975,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14762,67 +15004,67 @@
         <v>350</v>
       </c>
       <c r="E1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" t="s">
         <v>577</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>578</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>579</v>
       </c>
-      <c r="H1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>74</v>
       </c>
     </row>
@@ -14935,22 +15177,22 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -14964,39 +15206,39 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="21"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="20"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15033,19 +15275,19 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -15076,19 +15318,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D3" s="20"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="21"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15445,52 +15687,52 @@
       <c r="R1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AE1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="19" t="s">
         <v>153</v>
       </c>
       <c r="AI1" t="s">
@@ -15502,7 +15744,7 @@
       <c r="AK1" t="s">
         <v>156</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -15528,7 +15770,7 @@
       <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="AD2" s="20"/>
+      <c r="AD2" s="19"/>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -15552,8 +15794,8 @@
       <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="AD3" s="25"/>
+      <c r="W3" s="19"/>
+      <c r="AD3" s="24"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -15577,8 +15819,8 @@
       <c r="G4" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="AD4" s="20"/>
+      <c r="W4" s="24"/>
+      <c r="AD4" s="19"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -15602,8 +15844,8 @@
       <c r="G5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="AD5" s="21"/>
+      <c r="W5" s="19"/>
+      <c r="AD5" s="20"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -15624,8 +15866,8 @@
       <c r="F6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="W6" s="21"/>
-      <c r="AD6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="AD6" s="19"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -15653,52 +15895,52 @@
         <v>66</v>
       </c>
       <c r="W7" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="Z7" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="AC7" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AD7" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE7" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AF7" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AG7" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="AD7" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AH7" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AI7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK7" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AL7" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15723,10 +15965,10 @@
       <c r="G8" t="s">
         <v>123</v>
       </c>
-      <c r="W8" s="21"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="W9" s="20"/>
+      <c r="W9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15737,8 +15979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16193,7 +16435,7 @@
       <c r="S5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="25" t="s">
         <v>186</v>
       </c>
       <c r="U5" s="1"/>
@@ -16233,9 +16475,7 @@
       <c r="F6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>121</v>
       </c>
@@ -16272,7 +16512,7 @@
       <c r="S6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="25" t="s">
         <v>186</v>
       </c>
       <c r="U6" s="1"/>
@@ -16305,6 +16545,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16521,16 +16771,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16541,6 +16781,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16559,16 +16809,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C734F7C-758B-4BE8-9697-4E35E5124B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DBE7D3-803D-4406-80BB-8D34EEE7A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -2950,7 +2950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6908,8 +6908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8914,8 +8914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13091,7 +13091,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13186,43 +13186,43 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="G3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
@@ -13316,7 +13316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -16555,6 +16555,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16771,15 +16780,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
@@ -16791,6 +16791,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16807,12 +16815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DBE7D3-803D-4406-80BB-8D34EEE7A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF0A96-5859-46ED-9ECA-4D4B4CC9947B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -2131,7 +2131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2182,6 +2182,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6908,8 +6910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14820,7 +14822,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14883,7 +14885,7 @@
         <v>123</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>123</v>
@@ -14974,8 +14976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15588,8 +15590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15748,54 +15750,54 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:38" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD2" s="19"/>
-    </row>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="44"/>
+    </row>
+    <row r="3" spans="1:38" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W3" s="19"/>
-      <c r="AD3" s="24"/>
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" s="44"/>
+      <c r="AD3" s="45"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -15960,7 +15962,7 @@
         <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>630</v>
       </c>
       <c r="G8" t="s">
         <v>123</v>
@@ -16545,25 +16547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16780,25 +16763,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16815,4 +16799,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE446B43-B2E0-4B7A-9437-8D159F21CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1980D8-0A91-403C-8FE2-51BC9CE8B156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="649">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -17739,8 +17739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18261,10 +18261,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18846,26 +18846,66 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="46" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
+      <c r="A8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="44">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44">
+        <v>1</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>186</v>
+      </c>
       <c r="U8" s="44"/>
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
@@ -18874,110 +18914,14 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
+      <c r="AC8" s="44" t="s">
+        <v>124</v>
+      </c>
       <c r="AD8" s="44"/>
       <c r="AE8" s="44"/>
       <c r="AF8" s="44"/>
-    </row>
-    <row r="9" spans="1:33" s="46" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="44">
-        <v>1</v>
-      </c>
-      <c r="C9" s="44">
-        <v>1</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="S9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="T9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG9" s="46" t="s">
-        <v>74</v>
+      <c r="AG8" s="46" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -18985,9 +18929,10 @@
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="T6" r:id="rId2" xr:uid="{D4040358-CAD9-46FD-9A0A-595D44CD46FF}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{3A66DA18-74D6-460E-8063-FE02D3C74FEC}"/>
+    <hyperlink ref="T8" r:id="rId4" xr:uid="{49BB0B9D-EE23-4302-AE9F-1F7B46936549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1980D8-0A91-403C-8FE2-51BC9CE8B156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793107E-664F-4DB6-89F9-255C0FFDA005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -18264,7 +18264,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18850,7 +18850,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="44">
         <v>1</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793107E-664F-4DB6-89F9-255C0FFDA005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552C6528-E4CD-4311-B7AE-16E632E3971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="648">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -907,9 +907,6 @@
   </si>
   <si>
     <t xml:space="preserve">tenDigitsNumber </t>
-  </si>
-  <si>
-    <t>test2901</t>
   </si>
   <si>
     <t>Information &amp; Referral - Social Worker Information Request</t>
@@ -3040,9 +3037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DH13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3250,7 +3247,7 @@
         <v>214</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>215</v>
@@ -3433,10 +3430,10 @@
         <v>181</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="CV1" s="8" t="s">
         <v>271</v>
@@ -4608,7 +4605,7 @@
     </row>
     <row r="7" spans="1:112" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="B7" s="29">
         <v>1</v>
@@ -4804,7 +4801,7 @@
         <v>78</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>121</v>
@@ -4954,14 +4951,14 @@
         <v>124</v>
       </c>
       <c r="CF8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG8" s="44"/>
       <c r="CH8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ8" s="44"/>
       <c r="CK8" s="44"/>
@@ -4973,19 +4970,19 @@
         <v>124</v>
       </c>
       <c r="CQ8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CR8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CS8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CT8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CU8" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CV8" s="47" t="s">
         <v>275</v>
@@ -5289,19 +5286,19 @@
         <v>124</v>
       </c>
       <c r="CQ9" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CR9" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CS9" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CT9" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CU9" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CV9" s="47" t="s">
         <v>275</v>
@@ -5344,7 +5341,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>121</v>
@@ -5494,14 +5491,14 @@
         <v>124</v>
       </c>
       <c r="CF10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG10" s="44"/>
       <c r="CH10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ10" s="44"/>
       <c r="CK10" s="44"/>
@@ -5513,19 +5510,19 @@
         <v>124</v>
       </c>
       <c r="CQ10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CR10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CS10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CT10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CU10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CV10" s="47" t="s">
         <v>275</v>
@@ -5829,19 +5826,19 @@
         <v>124</v>
       </c>
       <c r="CQ11" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CR11" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CS11" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CT11" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CU11" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CV11" s="47" t="s">
         <v>275</v>
@@ -5884,7 +5881,7 @@
         <v>78</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" s="52" t="s">
         <v>121</v>
@@ -6540,55 +6537,55 @@
         <v>10</v>
       </c>
       <c r="D1" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="O1" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>296</v>
-      </c>
       <c r="S1" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -6599,22 +6596,22 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
         <v>297</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>298</v>
       </c>
-      <c r="E2" t="s">
-        <v>299</v>
-      </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -6625,22 +6622,22 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
         <v>301</v>
       </c>
-      <c r="D3" t="s">
-        <v>302</v>
-      </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6654,25 +6651,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="F4" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="61" t="s">
         <v>299</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6686,25 +6683,25 @@
         <v>2</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="61" t="s">
         <v>299</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6718,25 +6715,25 @@
         <v>3</v>
       </c>
       <c r="D6" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="F6" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="61" t="s">
         <v>299</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6750,25 +6747,25 @@
         <v>4</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="61" t="s">
         <v>299</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6782,13 +6779,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>299</v>
-      </c>
       <c r="F8" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G8" s="59" t="s">
         <v>123</v>
@@ -6800,7 +6797,7 @@
         <v>124</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6814,13 +6811,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G9" s="59" t="s">
         <v>123</v>
@@ -6832,7 +6829,7 @@
         <v>124</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6846,13 +6843,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>299</v>
-      </c>
       <c r="F10" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G10" s="59" t="s">
         <v>123</v>
@@ -6864,7 +6861,7 @@
         <v>124</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6878,13 +6875,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G11" s="59" t="s">
         <v>123</v>
@@ -6896,7 +6893,7 @@
         <v>124</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6913,10 +6910,10 @@
         <v>74</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G12" s="59" t="s">
         <v>123</v>
@@ -6928,7 +6925,7 @@
         <v>124</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
@@ -6942,25 +6939,25 @@
         <v>1</v>
       </c>
       <c r="D13" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="F13" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="69" t="s">
         <v>299</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
@@ -6974,25 +6971,25 @@
         <v>2</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E14" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>299</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
@@ -7006,25 +7003,25 @@
         <v>3</v>
       </c>
       <c r="D15" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="F15" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="69" t="s">
         <v>299</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
@@ -7038,25 +7035,25 @@
         <v>4</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="69" t="s">
         <v>299</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
@@ -7070,25 +7067,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="F17" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
@@ -7112,25 +7109,25 @@
         <v>2</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E18" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
@@ -7154,25 +7151,25 @@
         <v>3</v>
       </c>
       <c r="D19" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="F19" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
@@ -7196,25 +7193,25 @@
         <v>4</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E20" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
@@ -7238,25 +7235,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="F21" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="K21" s="47" t="s">
         <v>124</v>
@@ -7294,25 +7291,25 @@
         <v>2</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E22" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="K22" s="47" t="s">
         <v>124</v>
@@ -7350,25 +7347,25 @@
         <v>3</v>
       </c>
       <c r="D23" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="F23" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7382,25 +7379,25 @@
         <v>4</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="47" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7414,25 +7411,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="F25" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="K25" s="47" t="s">
         <v>124</v>
@@ -7470,25 +7467,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="K26" s="47" t="s">
         <v>124</v>
@@ -7526,25 +7523,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="F27" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" s="47" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7558,25 +7555,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="47" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
@@ -7590,25 +7587,25 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" t="s">
         <v>298</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F29" t="s">
-        <v>299</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
@@ -7622,25 +7619,25 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F30" t="s">
-        <v>299</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7654,25 +7651,25 @@
         <v>1</v>
       </c>
       <c r="D31" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="F31" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="K31" s="47" t="s">
         <v>124</v>
@@ -7710,25 +7707,25 @@
         <v>2</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E32" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="K32" s="47" t="s">
         <v>124</v>
@@ -7788,31 +7785,31 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" t="s">
-        <v>306</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>309</v>
-      </c>
-      <c r="L1" t="s">
-        <v>310</v>
       </c>
       <c r="M1" t="s">
         <v>209</v>
@@ -7832,10 +7829,10 @@
         <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M2" t="s">
         <v>280</v>
@@ -7883,34 +7880,34 @@
         <v>10</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" t="s">
         <v>314</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="37" t="s">
-        <v>318</v>
-      </c>
       <c r="L1" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7936,7 +7933,7 @@
         <v>74</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>123</v>
@@ -7945,13 +7942,13 @@
         <v>123</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L2" s="46" t="s">
         <v>123</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7977,7 +7974,7 @@
         <v>74</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I3" s="46" t="s">
         <v>123</v>
@@ -7986,7 +7983,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L3" s="46" t="s">
         <v>123</v>
@@ -8015,7 +8012,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I4" s="46" t="s">
         <v>123</v>
@@ -8024,7 +8021,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>123</v>
@@ -8053,7 +8050,7 @@
         <v>74</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I5" s="46" t="s">
         <v>123</v>
@@ -8062,7 +8059,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>123</v>
@@ -8091,7 +8088,7 @@
         <v>74</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I6" s="46" t="s">
         <v>123</v>
@@ -8100,13 +8097,13 @@
         <v>123</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L6" s="46" t="s">
         <v>123</v>
       </c>
       <c r="M6" s="46" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -8132,7 +8129,7 @@
         <v>74</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I7" s="46" t="s">
         <v>123</v>
@@ -8141,7 +8138,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L7" s="46" t="s">
         <v>123</v>
@@ -8170,7 +8167,7 @@
         <v>74</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I8" s="46" t="s">
         <v>123</v>
@@ -8179,7 +8176,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L8" s="46" t="s">
         <v>123</v>
@@ -8208,7 +8205,7 @@
         <v>74</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>123</v>
@@ -8217,7 +8214,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L9" s="46" t="s">
         <v>123</v>
@@ -8246,7 +8243,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I10" s="58" t="s">
         <v>123</v>
@@ -8255,7 +8252,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L10" s="46" t="s">
         <v>123</v>
@@ -8284,7 +8281,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I11" s="58" t="s">
         <v>123</v>
@@ -8293,7 +8290,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L11" s="46" t="s">
         <v>123</v>
@@ -8322,7 +8319,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I12" s="58" t="s">
         <v>123</v>
@@ -8331,7 +8328,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L12" s="46" t="s">
         <v>123</v>
@@ -8360,7 +8357,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I13" s="58" t="s">
         <v>123</v>
@@ -8369,7 +8366,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L13" s="46" t="s">
         <v>123</v>
@@ -8398,7 +8395,7 @@
         <v>74</v>
       </c>
       <c r="H14" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I14" s="58" t="s">
         <v>123</v>
@@ -8407,7 +8404,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L14" s="46" t="s">
         <v>123</v>
@@ -8436,7 +8433,7 @@
         <v>74</v>
       </c>
       <c r="H15" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I15" s="58" t="s">
         <v>74</v>
@@ -8445,7 +8442,7 @@
         <v>74</v>
       </c>
       <c r="K15" s="58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L15" s="46" t="s">
         <v>123</v>
@@ -8467,10 +8464,10 @@
         <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
         <v>123</v>
@@ -8495,10 +8492,10 @@
         <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I17" t="s">
         <v>123</v>
@@ -8523,10 +8520,10 @@
         <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I18" t="s">
         <v>123</v>
@@ -8551,10 +8548,10 @@
         <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I19" t="s">
         <v>123</v>
@@ -8581,19 +8578,19 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I20" t="s">
         <v>123</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K20" t="s">
         <v>322</v>
-      </c>
-      <c r="K20" t="s">
-        <v>323</v>
       </c>
       <c r="L20" s="46" t="s">
         <v>123</v>
@@ -8617,19 +8614,19 @@
         <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" t="s">
         <v>123</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K21" t="s">
         <v>324</v>
-      </c>
-      <c r="K21" t="s">
-        <v>325</v>
       </c>
       <c r="L21" s="46" t="s">
         <v>123</v>
@@ -8658,7 +8655,7 @@
         <v>74</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>123</v>
@@ -8667,13 +8664,13 @@
         <v>123</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L22" s="46" t="s">
         <v>123</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -8699,7 +8696,7 @@
         <v>74</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>123</v>
@@ -8708,7 +8705,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L23" s="46" t="s">
         <v>123</v>
@@ -8737,7 +8734,7 @@
         <v>74</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>123</v>
@@ -8746,13 +8743,13 @@
         <v>123</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L24" s="46" t="s">
         <v>123</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -8778,7 +8775,7 @@
         <v>74</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>123</v>
@@ -8787,7 +8784,7 @@
         <v>123</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L25" s="46" t="s">
         <v>123</v>
@@ -8816,7 +8813,7 @@
         <v>74</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I26" s="46" t="s">
         <v>123</v>
@@ -8825,13 +8822,13 @@
         <v>123</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L26" s="46" t="s">
         <v>123</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -8857,7 +8854,7 @@
         <v>74</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I27" s="46" t="s">
         <v>123</v>
@@ -8866,7 +8863,7 @@
         <v>123</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L27" s="46" t="s">
         <v>123</v>
@@ -8902,7 +8899,7 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -8917,7 +8914,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -8929,19 +8926,19 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O1" t="s">
         <v>328</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>329</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>330</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>331</v>
-      </c>
-      <c r="R1" t="s">
-        <v>332</v>
       </c>
       <c r="S1" t="s">
         <v>264</v>
@@ -8959,16 +8956,16 @@
         <v>224</v>
       </c>
       <c r="X1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z1" t="s">
         <v>333</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>334</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>335</v>
       </c>
       <c r="AB1" t="s">
         <v>181</v>
@@ -8977,19 +8974,19 @@
         <v>185</v>
       </c>
       <c r="AD1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE1" t="s">
         <v>336</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>337</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>338</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>339</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>340</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>271</v>
@@ -9045,7 +9042,7 @@
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>68</v>
@@ -9055,7 +9052,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L4" s="31">
         <v>97818</v>
@@ -9091,7 +9088,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>68</v>
@@ -9109,7 +9106,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L5" s="1">
         <v>97818</v>
@@ -9132,7 +9129,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>68</v>
@@ -9150,7 +9147,7 @@
         <v>123</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L6" s="1">
         <v>97818</v>
@@ -9202,82 +9199,82 @@
         <v>105</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>344</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>345</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>107</v>
       </c>
       <c r="K1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" t="s">
         <v>347</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -9288,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -9306,16 +9303,16 @@
         <v>123</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>279</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I3" s="46" t="s">
         <v>74</v>
@@ -9398,16 +9395,16 @@
         <v>123</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>279</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I4" s="46" t="s">
         <v>74</v>
@@ -9519,28 +9516,28 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" t="s">
         <v>364</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>365</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>366</v>
-      </c>
-      <c r="H1" t="s">
-        <v>367</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K1" t="s">
         <v>271</v>
       </c>
       <c r="L1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -9557,16 +9554,16 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" t="s">
         <v>370</v>
       </c>
-      <c r="F2" t="s">
-        <v>371</v>
-      </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I2" t="s">
         <v>123</v>
@@ -9575,7 +9572,7 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -9588,10 +9585,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" t="s">
         <v>370</v>
-      </c>
-      <c r="F3" t="s">
-        <v>371</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -9601,7 +9598,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="K3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -9618,16 +9615,16 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" t="s">
         <v>370</v>
       </c>
-      <c r="F4" t="s">
-        <v>371</v>
-      </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
         <v>123</v>
@@ -9636,7 +9633,7 @@
         <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -9689,46 +9686,46 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F1" t="s">
         <v>107</v>
       </c>
       <c r="G1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S1" t="s">
         <v>271</v>
@@ -9743,15 +9740,15 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9761,7 +9758,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="S3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -9774,7 +9771,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9790,7 +9787,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T4" s="7"/>
     </row>
@@ -9808,7 +9805,7 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -9818,7 +9815,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="S5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -9835,7 +9832,7 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F6" t="s">
         <v>123</v>
@@ -9845,7 +9842,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="S6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
@@ -9912,178 +9909,178 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>422</v>
-      </c>
       <c r="BJ1" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -10230,193 +10227,193 @@
         <v>10</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>431</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>432</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>433</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>434</v>
       </c>
       <c r="Q1" s="40" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="AT1" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AV1" s="7" t="s">
         <v>271</v>
       </c>
       <c r="AW1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AX1" t="s">
         <v>462</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>463</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>464</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>465</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>466</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>467</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>468</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>469</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>470</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>471</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>472</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>473</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>474</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>475</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>476</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>477</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>478</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -10437,16 +10434,16 @@
         <v>121</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>102</v>
@@ -10455,13 +10452,13 @@
         <v>74</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>121</v>
@@ -10542,31 +10539,31 @@
         <v>78</v>
       </c>
       <c r="G3" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>480</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>481</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>279</v>
       </c>
       <c r="J3" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="K3" s="53" t="s">
-        <v>619</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="53" t="s">
+      <c r="N3" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="O3" s="53" t="s">
         <v>484</v>
-      </c>
-      <c r="O3" s="53" t="s">
-        <v>485</v>
       </c>
       <c r="P3" s="53" t="s">
         <v>121</v>
@@ -10649,31 +10646,31 @@
         <v>78</v>
       </c>
       <c r="G4" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" s="53" t="s">
         <v>480</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>481</v>
       </c>
       <c r="I4" s="53" t="s">
         <v>279</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>74</v>
       </c>
       <c r="M4" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="N4" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="O4" s="53" t="s">
         <v>484</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>485</v>
       </c>
       <c r="P4" s="53" t="s">
         <v>121</v>
@@ -10756,31 +10753,31 @@
         <v>78</v>
       </c>
       <c r="G5" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>480</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>481</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>279</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>74</v>
       </c>
       <c r="M5" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="N5" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="O5" s="53" t="s">
         <v>484</v>
-      </c>
-      <c r="O5" s="53" t="s">
-        <v>485</v>
       </c>
       <c r="P5" s="53" t="s">
         <v>121</v>
@@ -10863,31 +10860,31 @@
         <v>78</v>
       </c>
       <c r="G6" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="H6" s="53" t="s">
         <v>480</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>481</v>
       </c>
       <c r="I6" s="53" t="s">
         <v>279</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L6" s="53" t="s">
         <v>74</v>
       </c>
       <c r="M6" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="N6" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="O6" s="53" t="s">
         <v>484</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>485</v>
       </c>
       <c r="P6" s="53" t="s">
         <v>121</v>
@@ -10968,16 +10965,16 @@
         <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>102</v>
@@ -10986,13 +10983,13 @@
         <v>74</v>
       </c>
       <c r="M7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>121</v>
@@ -11073,32 +11070,32 @@
         <v>78</v>
       </c>
       <c r="G8" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>279</v>
       </c>
       <c r="J8" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="K8" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="44" t="s">
+      <c r="N8" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="O8" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="O8" s="44" t="s">
-        <v>485</v>
-      </c>
       <c r="P8" s="44" t="s">
         <v>121</v>
       </c>
@@ -11106,7 +11103,7 @@
         <v>123</v>
       </c>
       <c r="R8" s="48" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S8" s="44" t="s">
         <v>124</v>
@@ -11269,32 +11266,32 @@
         <v>78</v>
       </c>
       <c r="G9" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="I9" s="44" t="s">
         <v>279</v>
       </c>
       <c r="J9" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="K9" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="44" t="s">
+      <c r="N9" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="O9" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="O9" s="44" t="s">
-        <v>485</v>
-      </c>
       <c r="P9" s="44" t="s">
         <v>121</v>
       </c>
@@ -11302,7 +11299,7 @@
         <v>123</v>
       </c>
       <c r="R9" s="48" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S9" s="44" t="s">
         <v>124</v>
@@ -11465,34 +11462,34 @@
         <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>123</v>
@@ -11574,34 +11571,34 @@
         <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>123</v>
@@ -11683,32 +11680,32 @@
         <v>78</v>
       </c>
       <c r="G12" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>480</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>481</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>279</v>
       </c>
       <c r="J12" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="K12" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="30" t="s">
+      <c r="N12" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="O12" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="O12" s="30" t="s">
-        <v>485</v>
-      </c>
       <c r="P12" s="30" t="s">
         <v>121</v>
       </c>
@@ -11716,7 +11713,7 @@
         <v>123</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S12" s="30" t="s">
         <v>124</v>
@@ -12971,118 +12968,118 @@
         <v>105</v>
       </c>
       <c r="E1" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>427</v>
-      </c>
       <c r="H1" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>430</v>
-      </c>
       <c r="L1" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="O1" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="O1" s="38" t="s">
-        <v>614</v>
-      </c>
       <c r="P1" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q1" s="38" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>617</v>
-      </c>
       <c r="U1" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V1" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="AH1" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>181</v>
       </c>
       <c r="AK1" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="AM1" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ1" s="8" t="s">
         <v>271</v>
@@ -13098,22 +13095,22 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>102</v>
@@ -13122,16 +13119,16 @@
         <v>279</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -13177,50 +13174,50 @@
         <v>123</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F3" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L3" s="44" t="s">
         <v>279</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N3" s="47" t="s">
         <v>123</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q3" s="44" t="s">
         <v>123</v>
       </c>
       <c r="R3" s="44"/>
       <c r="S3" s="44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T3" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U3" s="44" t="s">
         <v>123</v>
@@ -13306,40 +13303,40 @@
         <v>123</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F4" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>78</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>279</v>
       </c>
       <c r="M4" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N4" s="47" t="s">
         <v>123</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="44" t="s">
         <v>123</v>
@@ -13414,7 +13411,7 @@
         <v>124</v>
       </c>
       <c r="AQ4" s="47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="46" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -13431,40 +13428,40 @@
         <v>123</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F5" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>279</v>
       </c>
       <c r="M5" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N5" s="47" t="s">
         <v>123</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P5" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="44" t="s">
         <v>123</v>
@@ -13556,40 +13553,40 @@
         <v>123</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F6" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>78</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L6" s="44" t="s">
         <v>279</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N6" s="47" t="s">
         <v>123</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q6" s="44" t="s">
         <v>123</v>
@@ -13664,7 +13661,7 @@
         <v>124</v>
       </c>
       <c r="AQ6" s="47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
@@ -13681,22 +13678,22 @@
         <v>123</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>102</v>
@@ -13705,83 +13702,83 @@
         <v>279</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AK7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AL7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AM7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="8" t="s">
@@ -13802,22 +13799,22 @@
         <v>123</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F8" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="59" t="s">
         <v>480</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>481</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K8" s="59" t="s">
         <v>102</v>
@@ -13826,16 +13823,16 @@
         <v>279</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N8" s="64" t="s">
         <v>123</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P8" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q8" s="59" t="s">
         <v>123</v>
@@ -13883,22 +13880,22 @@
         <v>123</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F9" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="59" t="s">
         <v>480</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>481</v>
       </c>
       <c r="H9" s="59" t="s">
         <v>78</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K9" s="59" t="s">
         <v>102</v>
@@ -13907,16 +13904,16 @@
         <v>279</v>
       </c>
       <c r="M9" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N9" s="64" t="s">
         <v>123</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P9" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q9" s="59" t="s">
         <v>123</v>
@@ -13967,22 +13964,22 @@
         <v>123</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>102</v>
@@ -13991,16 +13988,16 @@
         <v>279</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>123</v>
@@ -14052,50 +14049,50 @@
         <v>123</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F11" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>480</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>481</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>279</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="30" t="s">
         <v>123</v>
       </c>
       <c r="R11" s="30"/>
       <c r="S11" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U11" s="30" t="s">
         <v>123</v>
@@ -14188,50 +14185,50 @@
         <v>123</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F12" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G12" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L12" s="44" t="s">
         <v>279</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N12" s="47" t="s">
         <v>123</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P12" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q12" s="44" t="s">
         <v>123</v>
       </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T12" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U12" s="44" t="s">
         <v>123</v>
@@ -14806,31 +14803,31 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" t="s">
         <v>497</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>498</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>499</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>500</v>
-      </c>
-      <c r="H1" t="s">
-        <v>501</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -14850,7 +14847,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>74</v>
@@ -14865,7 +14862,7 @@
         <v>123</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -14888,7 +14885,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>74</v>
@@ -14903,7 +14900,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
@@ -14926,7 +14923,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>74</v>
@@ -14941,7 +14938,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
@@ -14964,7 +14961,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>74</v>
@@ -14979,7 +14976,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -14999,7 +14996,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>74</v>
@@ -15014,7 +15011,7 @@
         <v>123</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -15029,10 +15026,10 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" t="s">
         <v>504</v>
-      </c>
-      <c r="G7" t="s">
-        <v>505</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>103</v>
@@ -15055,10 +15052,10 @@
         <v>123</v>
       </c>
       <c r="F8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" t="s">
         <v>504</v>
-      </c>
-      <c r="G8" t="s">
-        <v>505</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>103</v>
@@ -15070,7 +15067,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -15117,67 +15114,67 @@
         <v>10</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="K1" s="40" t="s">
-        <v>593</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>592</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="R1" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="Q1" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="S1" s="40" t="s">
-        <v>517</v>
-      </c>
       <c r="T1" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -15232,7 +15229,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>123</v>
@@ -15259,16 +15256,16 @@
         <v>123</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q3" s="59" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R3" s="59" t="s">
         <v>68</v>
@@ -15280,7 +15277,7 @@
         <v>124</v>
       </c>
       <c r="U3" s="59" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V3" s="59" t="s">
         <v>124</v>
@@ -15304,7 +15301,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>123</v>
@@ -15331,16 +15328,16 @@
         <v>123</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R4" s="28" t="s">
         <v>68</v>
@@ -15352,7 +15349,7 @@
         <v>124</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V4" s="28" t="s">
         <v>124</v>
@@ -15376,7 +15373,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -15409,7 +15406,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>123</v>
@@ -15436,16 +15433,16 @@
         <v>123</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R6" s="44" t="s">
         <v>68</v>
@@ -15457,7 +15454,7 @@
         <v>124</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V6" s="44" t="s">
         <v>124</v>
@@ -15466,7 +15463,7 @@
         <v>124</v>
       </c>
       <c r="X6" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -15483,7 +15480,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>123</v>
@@ -15510,16 +15507,16 @@
         <v>123</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R7" s="44" t="s">
         <v>68</v>
@@ -15531,7 +15528,7 @@
         <v>124</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V7" s="44" t="s">
         <v>124</v>
@@ -15540,7 +15537,7 @@
         <v>124</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -15557,7 +15554,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>123</v>
@@ -15584,16 +15581,16 @@
         <v>123</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P8" s="44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R8" s="44" t="s">
         <v>68</v>
@@ -15605,7 +15602,7 @@
         <v>124</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V8" s="44" t="s">
         <v>124</v>
@@ -15614,7 +15611,7 @@
         <v>124</v>
       </c>
       <c r="X8" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -15631,7 +15628,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>123</v>
@@ -15658,16 +15655,16 @@
         <v>123</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R9" s="44" t="s">
         <v>68</v>
@@ -15679,7 +15676,7 @@
         <v>124</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V9" s="44" t="s">
         <v>124</v>
@@ -15688,7 +15685,7 @@
         <v>124</v>
       </c>
       <c r="X9" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -15778,58 +15775,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1" t="s">
         <v>520</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>521</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" t="s">
         <v>522</v>
       </c>
-      <c r="I1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>523</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>524</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>525</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>526</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>527</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q1" t="s">
         <v>528</v>
       </c>
-      <c r="P1" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>529</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>530</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>531</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>532</v>
-      </c>
-      <c r="U1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -15912,46 +15909,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" t="s">
         <v>536</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" t="s">
         <v>537</v>
       </c>
-      <c r="H1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>538</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>539</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>540</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>541</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>542</v>
-      </c>
-      <c r="N1" t="s">
-        <v>543</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>544</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16021,7 +16018,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -16071,7 +16068,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -16141,7 +16138,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>74</v>
@@ -16174,7 +16171,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16194,7 +16191,7 @@
         <v>123</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>74</v>
@@ -16227,7 +16224,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16291,7 +16288,7 @@
         <v>123</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>74</v>
@@ -16324,7 +16321,7 @@
         <v>121</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -16359,28 +16356,28 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1" t="s">
         <v>547</v>
       </c>
-      <c r="F1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>548</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>549</v>
       </c>
-      <c r="I1" t="s">
-        <v>550</v>
-      </c>
       <c r="J1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -16415,7 +16412,7 @@
         <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -16448,55 +16445,55 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" t="s">
         <v>552</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>553</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>554</v>
-      </c>
-      <c r="G1" t="s">
-        <v>555</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J1" t="s">
         <v>556</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>557</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>558</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>559</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" t="s">
         <v>560</v>
       </c>
-      <c r="N1" t="s">
-        <v>364</v>
-      </c>
-      <c r="O1" t="s">
-        <v>365</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>561</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>562</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>563</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>564</v>
-      </c>
-      <c r="T1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -16513,7 +16510,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>121</v>
@@ -16575,7 +16572,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>121</v>
@@ -16656,10 +16653,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
@@ -16685,10 +16682,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -16705,10 +16702,10 @@
         <v>123</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -16725,10 +16722,10 @@
         <v>123</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -16745,10 +16742,10 @@
         <v>123</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -16765,10 +16762,10 @@
         <v>123</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -16785,10 +16782,10 @@
         <v>123</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -16805,10 +16802,10 @@
         <v>123</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -16825,10 +16822,10 @@
         <v>123</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -16845,10 +16842,10 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -16886,22 +16883,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -17100,19 +17097,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" t="s">
         <v>573</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>574</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>575</v>
-      </c>
-      <c r="H1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -17848,7 +17845,7 @@
         <v>141</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>142</v>
@@ -17976,7 +17973,7 @@
         <v>124</v>
       </c>
       <c r="AN4" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18007,7 +18004,7 @@
         <v>124</v>
       </c>
       <c r="AN5" s="58" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18086,40 +18083,40 @@
         <v>66</v>
       </c>
       <c r="W8" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="X8" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="Y8" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Z8" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="AA8" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AB8" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AC8" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AD8" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AD8" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AH8" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="AI8" s="19" t="s">
         <v>66</v>
@@ -18128,10 +18125,10 @@
         <v>66</v>
       </c>
       <c r="AK8" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AL8" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18263,8 +18260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18478,7 +18475,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -18880,7 +18877,7 @@
         <v>121</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M8" s="44" t="s">
         <v>123</v>
@@ -18937,15 +18934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -18953,6 +18941,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19173,19 +19170,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552C6528-E4CD-4311-B7AE-16E632E3971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1FD848-E792-40FD-9615-75BB4C0C805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="13" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="648">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2021,7 +2021,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2121,6 +2121,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2194,7 +2201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2271,6 +2278,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3037,9 +3045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3052,7 +3060,7 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52" customWidth="1"/>
-    <col min="9" max="9" width="43" customWidth="1"/>
+    <col min="9" max="9" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.1796875" customWidth="1"/>
@@ -4638,7 +4646,7 @@
         <v>74</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>74</v>
@@ -8879,8 +8887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8898,7 +8906,7 @@
       <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="70" t="s">
         <v>325</v>
       </c>
       <c r="F1" t="s">
@@ -9039,8 +9047,12 @@
       <c r="B4" s="31">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="E4" s="31" t="s">
         <v>340</v>
       </c>
@@ -9158,6 +9170,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18944,15 +18957,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -19169,6 +19173,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
@@ -19180,14 +19193,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19204,4 +19209,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1FD848-E792-40FD-9615-75BB4C0C805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA111DD-98E6-4561-A9FD-FAC07197063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="13" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="650">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2016,12 +2016,18 @@
   <si>
     <t>SCP_ID7</t>
   </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>SCR_ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2120,13 +2126,6 @@
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2275,10 +2274,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3046,8 +3045,8 @@
   <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ15" sqref="AJ15"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3060,7 +3059,7 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52" customWidth="1"/>
-    <col min="9" max="9" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.1796875" customWidth="1"/>
@@ -6507,15 +6506,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
@@ -6904,165 +6903,175 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="59">
-        <v>1</v>
-      </c>
-      <c r="C12" s="61">
-        <v>9</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="59" t="s">
+    <row r="12" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="68">
+        <v>1</v>
+      </c>
+      <c r="C12" s="68">
+        <v>1</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+      <c r="G12" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="67">
-        <v>1</v>
-      </c>
-      <c r="C13" s="67">
-        <v>1</v>
-      </c>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="68">
+        <v>1</v>
+      </c>
+      <c r="C13" s="68">
+        <v>2</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="68">
+        <v>1</v>
+      </c>
+      <c r="C14" s="68">
+        <v>3</v>
+      </c>
+      <c r="D14" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E14" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F14" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="69" t="s">
+      <c r="G14" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="70" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="67" t="s">
+    <row r="15" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="67">
-        <v>1</v>
-      </c>
-      <c r="C14" s="67">
-        <v>2</v>
-      </c>
-      <c r="D14" s="67" t="s">
+      <c r="B15" s="68">
+        <v>1</v>
+      </c>
+      <c r="C15" s="68">
+        <v>4</v>
+      </c>
+      <c r="D15" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E15" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F15" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="69" t="s">
+      <c r="G15" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="70" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="67">
-        <v>1</v>
-      </c>
-      <c r="C15" s="67">
-        <v>3</v>
-      </c>
-      <c r="D15" s="67" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E16" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F16" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G15" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="69" t="s">
+      <c r="G16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="67">
-        <v>1</v>
-      </c>
-      <c r="C16" s="67">
-        <v>4</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>299</v>
-      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
@@ -7072,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>298</v>
@@ -7114,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>298</v>
@@ -7156,10 +7165,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>298</v>
@@ -7190,47 +7199,61 @@
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="28">
-        <v>1</v>
-      </c>
-      <c r="C20" s="28">
-        <v>4</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E20" s="28" t="s">
+    <row r="20" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="47">
+        <v>1</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="G20" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="K20" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
@@ -7240,10 +7263,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>298</v>
@@ -7255,7 +7278,7 @@
         <v>123</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>124</v>
@@ -7266,25 +7289,25 @@
       <c r="K21" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R21" s="46" t="s">
+      <c r="L21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" s="47" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7296,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>298</v>
@@ -7318,30 +7341,6 @@
       </c>
       <c r="J22" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R22" s="47" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7352,10 +7351,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>298</v>
@@ -7381,13 +7380,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>298</v>
@@ -7399,13 +7398,37 @@
         <v>123</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I24" s="47" t="s">
         <v>124</v>
       </c>
       <c r="J24" s="47" t="s">
         <v>299</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7416,10 +7439,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>298</v>
@@ -7431,7 +7454,7 @@
         <v>123</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I25" s="47" t="s">
         <v>124</v>
@@ -7442,25 +7465,25 @@
       <c r="K25" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="N25" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R25" s="46" t="s">
+      <c r="L25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R25" s="47" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7472,10 +7495,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>298</v>
@@ -7494,30 +7517,6 @@
       </c>
       <c r="J26" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="O26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R26" s="47" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7528,10 +7527,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>298</v>
@@ -7552,35 +7551,35 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="47">
-        <v>2</v>
-      </c>
-      <c r="C28" s="47">
-        <v>4</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" s="47" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="47" t="s">
+      <c r="G28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7592,10 +7591,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E29" t="s">
         <v>298</v>
@@ -7616,36 +7615,60 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="30" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="47">
+        <v>1</v>
+      </c>
+      <c r="C30" s="47">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="G30" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="47" t="s">
         <v>299</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R30" s="46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -7656,10 +7679,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>298</v>
@@ -7671,7 +7694,7 @@
         <v>123</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I31" s="47" t="s">
         <v>124</v>
@@ -7682,81 +7705,25 @@
       <c r="K31" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="L31" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="N31" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="O31" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q31" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R31" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="47">
-        <v>1</v>
-      </c>
-      <c r="C32" s="47">
-        <v>2</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="K32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="O32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q32" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R32" s="47" t="s">
+      <c r="L31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R31" s="47" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7856,10 +7823,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7873,11 +7840,11 @@
     <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.81640625" customWidth="1"/>
-    <col min="13" max="13" width="23.6328125" customWidth="1"/>
+    <col min="12" max="13" width="23.81640625" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7899,7 +7866,7 @@
       <c r="G1" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="37" t="s">
         <v>314</v>
       </c>
       <c r="I1" s="37" t="s">
@@ -7914,11 +7881,14 @@
       <c r="L1" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
@@ -7955,11 +7925,11 @@
       <c r="L2" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="46" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
@@ -7997,7 +7967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
@@ -8035,7 +8005,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
@@ -8073,7 +8043,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
@@ -8110,11 +8080,11 @@
       <c r="L6" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="N6" s="46" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
@@ -8152,7 +8122,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
@@ -8190,7 +8160,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
@@ -8228,7 +8198,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
         <v>6</v>
       </c>
@@ -8265,8 +8235,9 @@
       <c r="L10" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
         <v>6</v>
       </c>
@@ -8303,8 +8274,9 @@
       <c r="L11" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
         <v>6</v>
       </c>
@@ -8341,8 +8313,9 @@
       <c r="L12" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>6</v>
       </c>
@@ -8379,8 +8352,9 @@
       <c r="L13" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
         <v>6</v>
       </c>
@@ -8417,8 +8391,9 @@
       <c r="L14" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
         <v>6</v>
       </c>
@@ -8441,7 +8416,7 @@
         <v>74</v>
       </c>
       <c r="H15" s="58" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I15" s="58" t="s">
         <v>74</v>
@@ -8455,36 +8430,50 @@
       <c r="L15" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="58">
+        <v>1</v>
+      </c>
+      <c r="C16" s="59">
+        <v>9</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I16" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>582</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -8503,7 +8492,7 @@
         <v>318</v>
       </c>
       <c r="H17" t="s">
-        <v>626</v>
+        <v>318</v>
       </c>
       <c r="I17" t="s">
         <v>123</v>
@@ -8512,7 +8501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -8531,7 +8520,7 @@
         <v>318</v>
       </c>
       <c r="H18" t="s">
-        <v>318</v>
+        <v>626</v>
       </c>
       <c r="I18" t="s">
         <v>123</v>
@@ -8540,7 +8529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -8568,16 +8557,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" t="s">
         <v>123</v>
@@ -8594,17 +8581,11 @@
       <c r="I20" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K20" t="s">
-        <v>322</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8612,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" t="s">
@@ -8622,66 +8603,63 @@
         <v>123</v>
       </c>
       <c r="G21" t="s">
+        <v>318</v>
+      </c>
+      <c r="H21" t="s">
+        <v>318</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K21" t="s">
+        <v>322</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
         <v>319</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>319</v>
       </c>
-      <c r="I21" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>324</v>
       </c>
-      <c r="L21" s="46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="30">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30">
-        <v>1</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>580</v>
-      </c>
       <c r="L22" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>4</v>
       </c>
@@ -8689,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>123</v>
@@ -8704,7 +8682,7 @@
         <v>74</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>123</v>
@@ -8713,13 +8691,17 @@
         <v>123</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L23" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="46"/>
+      <c r="N23" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -8727,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>123</v>
@@ -8742,7 +8724,7 @@
         <v>74</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>123</v>
@@ -8751,16 +8733,14 @@
         <v>123</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L24" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="46"/>
+    </row>
+    <row r="25" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>4</v>
       </c>
@@ -8768,78 +8748,80 @@
         <v>1</v>
       </c>
       <c r="C25" s="30">
+        <v>3</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="28" t="s">
+      <c r="B26" s="30">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30">
+        <v>4</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="I25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="28" t="s">
+      <c r="I26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="L25" s="46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="44">
-        <v>1</v>
-      </c>
-      <c r="C26" s="44">
-        <v>1</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>580</v>
-      </c>
       <c r="L26" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="M26" s="46" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
         <v>104</v>
       </c>
@@ -8847,39 +8829,81 @@
         <v>1</v>
       </c>
       <c r="C27" s="44">
+        <v>1</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>580</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="44">
+        <v>1</v>
+      </c>
+      <c r="C28" s="44">
         <v>2</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="46" t="s">
+      <c r="D28" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="I27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="46" t="s">
+      <c r="I28" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L28" s="46" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8888,7 +8912,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8906,7 +8930,7 @@
       <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" t="s">
         <v>325</v>
       </c>
       <c r="F1" t="s">
@@ -9041,47 +9065,47 @@
       </c>
     </row>
     <row r="4" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <v>97818</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
       <c r="AI4" s="32" t="s">
         <v>275</v>
       </c>
@@ -9170,7 +9194,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10213,7 +10236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A5" activeCellId="1" sqref="A4:XFD4 A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -14786,7 +14809,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15090,10 +15113,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15300,191 +15323,137 @@
       </c>
       <c r="X3" s="59"/>
     </row>
-    <row r="4" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:24" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+    </row>
+    <row r="5" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" s="28" t="s">
+      <c r="F5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P5" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q5" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="S5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="V4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="W4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="V5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" t="s">
-        <v>124</v>
-      </c>
-      <c r="X5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="44">
-        <v>1</v>
-      </c>
-      <c r="C6" s="44">
-        <v>1</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>593</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="V6" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="F6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="44">
         <v>1</v>
@@ -15555,10 +15524,10 @@
     </row>
     <row r="8" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B8" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="44">
         <v>1</v>
@@ -15632,7 +15601,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="44">
         <v>1</v>
@@ -15701,11 +15670,82 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X10" s="34"/>
+    <row r="10" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="44">
+        <v>2</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="R10" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="48" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X11" s="1"/>
+      <c r="X11" s="34"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X12" s="1"/>
@@ -15751,6 +15791,9 @@
     </row>
     <row r="26" spans="24:24" x14ac:dyDescent="0.35">
       <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16871,7 +16914,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17065,7 +17108,7 @@
         <v>123</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="H7" s="59" t="s">
         <v>123</v>
@@ -17084,7 +17127,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17177,29 +17220,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="58">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>121</v>
       </c>
     </row>
@@ -17747,10 +17790,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17773,27 +17816,29 @@
     <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.26953125" customWidth="1"/>
-    <col min="23" max="23" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" customWidth="1"/>
+    <col min="20" max="20" width="14.6328125" customWidth="1"/>
+    <col min="21" max="21" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.26953125" customWidth="1"/>
+    <col min="25" max="25" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17848,68 +17893,74 @@
       <c r="R1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AI1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>155</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>156</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
@@ -17931,9 +17982,9 @@
       <c r="G2" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AD2" s="42"/>
-    </row>
-    <row r="3" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AF2" s="42"/>
+    </row>
+    <row r="3" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
@@ -17955,10 +18006,10 @@
       <c r="G3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="W3" s="42"/>
-      <c r="AD3" s="43"/>
-    </row>
-    <row r="4" spans="1:40" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y3" s="42"/>
+      <c r="AF3" s="43"/>
+    </row>
+    <row r="4" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
@@ -17980,16 +18031,16 @@
       <c r="G4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="AD4" s="63"/>
-      <c r="AM4" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN4" s="58" t="s">
+      <c r="Y4" s="62"/>
+      <c r="AF4" s="63"/>
+      <c r="AO4" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP4" s="58" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
@@ -18011,191 +18062,203 @@
       <c r="G5" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="W5" s="62"/>
-      <c r="AD5" s="63"/>
-      <c r="AM5" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN5" s="58" t="s">
+      <c r="Y5" s="62"/>
+      <c r="AF5" s="63"/>
+      <c r="AO5" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP5" s="58" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6" s="6"/>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="58">
+        <v>1</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y6" s="62"/>
+      <c r="AF6" s="63"/>
+      <c r="AO6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP6" s="58" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="W7" s="6"/>
-      <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="S8" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="U9" t="s">
         <v>66</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V9" t="s">
         <v>66</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W9" t="s">
         <v>66</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X9" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="Y9" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="Z9" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AC9" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AD9" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AE9" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AI9" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="AI8" s="19" t="s">
+      <c r="AK9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AJ8" s="19" t="s">
+      <c r="AL9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AM9" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="AL8" s="6" t="s">
+      <c r="AN9" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="W9" s="20"/>
-    </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W10" s="20"/>
-      <c r="AD10" s="19"/>
-    </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" s="20"/>
+    </row>
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -18207,62 +18270,87 @@
         <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="AD11" s="19"/>
-    </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y11" s="20"/>
+      <c r="AF11" s="19"/>
+    </row>
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y12" s="20"/>
+      <c r="AF12" s="19"/>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="20"/>
-      <c r="AD12" s="19"/>
-    </row>
-    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" s="20"/>
+      <c r="AF13" s="19"/>
+    </row>
+    <row r="14" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="28">
-        <v>1</v>
-      </c>
-      <c r="C13" s="28">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD13" s="42"/>
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD14" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18273,8 +18361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18855,82 +18943,82 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="46" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:33" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="44">
-        <v>1</v>
-      </c>
-      <c r="C8" s="44">
-        <v>1</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="44" t="s">
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="R8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="45" t="s">
+      <c r="H8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="46" t="s">
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18939,7 +19027,7 @@
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="T6" r:id="rId2" xr:uid="{D4040358-CAD9-46FD-9A0A-595D44CD46FF}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{3A66DA18-74D6-460E-8063-FE02D3C74FEC}"/>
-    <hyperlink ref="T8" r:id="rId4" xr:uid="{49BB0B9D-EE23-4302-AE9F-1F7B46936549}"/>
+    <hyperlink ref="T8" r:id="rId4" xr:uid="{2AE9C656-B651-4CEA-AD01-A89B7BB042CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -18947,13 +19035,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19174,20 +19261,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19212,9 +19298,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA111DD-98E6-4561-A9FD-FAC07197063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C0AC78-FB4E-4AC4-A551-2967205D039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="13" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="24" activeTab="27" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="649">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1949,9 +1949,6 @@
   </si>
   <si>
     <t>SCR_TRIBAL_ID1</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>UPLOAD_DOCUMENT</t>
@@ -3254,7 +3251,7 @@
         <v>214</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>215</v>
@@ -6589,10 +6586,10 @@
         <v>295</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -6804,7 +6801,7 @@
         <v>124</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6836,7 +6833,7 @@
         <v>124</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6868,7 +6865,7 @@
         <v>124</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -6900,7 +6897,7 @@
         <v>124</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
@@ -7825,8 +7822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7879,7 +7876,7 @@
         <v>317</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>107</v>
@@ -8308,7 +8305,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L12" s="46" t="s">
         <v>123</v>
@@ -8347,7 +8344,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L13" s="46" t="s">
         <v>123</v>
@@ -8386,7 +8383,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L14" s="46" t="s">
         <v>123</v>
@@ -8473,115 +8470,155 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="30">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30">
+        <v>2</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="I17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="I18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B19" s="30">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30">
+        <v>3</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="H18" t="s">
-        <v>626</v>
-      </c>
-      <c r="I18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="I19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B20" s="30">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="H19" t="s">
-        <v>318</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" t="s">
-        <v>318</v>
-      </c>
-      <c r="I20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8911,7 +8948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -9201,8 +9238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9235,7 +9272,7 @@
         <v>105</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>342</v>
@@ -9320,10 +9357,90 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="F2" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="46" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
@@ -9519,7 +9636,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9618,8 +9735,12 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E3" t="s">
         <v>369</v>
       </c>
@@ -9627,12 +9748,17 @@
         <v>370</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
       <c r="K3" t="s">
         <v>299</v>
       </c>
@@ -9682,7 +9808,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9804,13 +9930,21 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E4" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -9912,7 +10046,7 @@
   <dimension ref="A1:BJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10123,6 +10257,15 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="I3" s="6"/>
@@ -10236,8 +10379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A4:XFD4 A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10691,7 +10834,7 @@
         <v>279</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K4" s="53" t="s">
         <v>618</v>
@@ -10798,7 +10941,7 @@
         <v>279</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>618</v>
@@ -10905,7 +11048,7 @@
         <v>279</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K6" s="53" t="s">
         <v>618</v>
@@ -10983,107 +11126,200 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:66" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7" t="s">
+      <c r="P7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AW7" s="7" t="s">
+      <c r="AW7" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7" t="s">
+      <c r="AX7" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7" t="s">
+      <c r="AY7" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7" t="s">
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BD7" s="7" t="s">
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BE7" s="7" t="s">
+      <c r="BD7" s="30" t="s">
         <v>274</v>
+      </c>
+      <c r="BE7" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN7" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -12943,8 +13179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13121,78 +13357,132 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:50" s="46" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="L2" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8" t="s">
+      <c r="Q2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="T2" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ2" s="47" t="s">
         <v>275</v>
       </c>
     </row>
@@ -13847,10 +14137,10 @@
         <v>78</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K8" s="59" t="s">
         <v>102</v>
@@ -13928,10 +14218,10 @@
         <v>78</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K9" s="59" t="s">
         <v>102</v>
@@ -14806,10 +15096,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15106,6 +15396,44 @@
         <v>299</v>
       </c>
     </row>
+    <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="30">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15115,8 +15443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15201,7 +15529,7 @@
         <v>591</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>25</v>
@@ -15313,7 +15641,7 @@
         <v>124</v>
       </c>
       <c r="U3" s="59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V3" s="59" t="s">
         <v>124</v>
@@ -15405,7 +15733,7 @@
         <v>124</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V5" s="28" t="s">
         <v>124</v>
@@ -15510,7 +15838,7 @@
         <v>124</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V7" s="44" t="s">
         <v>124</v>
@@ -15584,7 +15912,7 @@
         <v>124</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V8" s="44" t="s">
         <v>124</v>
@@ -15658,7 +15986,7 @@
         <v>124</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V9" s="44" t="s">
         <v>124</v>
@@ -15732,7 +16060,7 @@
         <v>124</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V10" s="44" t="s">
         <v>124</v>
@@ -15744,8 +16072,79 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X11" s="34"/>
+    <row r="11" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1</v>
+      </c>
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" s="48" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X12" s="1"/>
@@ -15932,8 +16331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16157,24 +16556,57 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
+    <row r="5" spans="1:17" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46">
+        <v>1</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16182,7 +16614,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="46">
         <v>1</v>
@@ -16230,153 +16662,153 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="46">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="46">
-        <v>1</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="44" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="46">
+        <v>1</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="44" t="s">
+      <c r="G8" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="44" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="46">
-        <v>1</v>
-      </c>
-      <c r="C9" s="46">
-        <v>1</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="44" t="s">
+    <row r="9" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="P9" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q9" s="44" t="s">
+      <c r="G9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="30" t="s">
         <v>622</v>
       </c>
     </row>
@@ -16418,7 +16850,7 @@
         <v>546</v>
       </c>
       <c r="F1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G1" t="s">
         <v>547</v>
@@ -16433,7 +16865,7 @@
         <v>346</v>
       </c>
       <c r="K1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -16683,10 +17115,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16904,6 +17336,26 @@
         <v>590</v>
       </c>
     </row>
+    <row r="11" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1</v>
+      </c>
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>590</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16913,8 +17365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17024,9 +17476,26 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -17894,10 +18363,10 @@
         <v>139</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>649</v>
       </c>
       <c r="U1" s="18" t="s">
         <v>140</v>
@@ -18037,7 +18506,7 @@
         <v>124</v>
       </c>
       <c r="AP4" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18068,7 +18537,7 @@
         <v>124</v>
       </c>
       <c r="AP5" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18097,7 +18566,7 @@
         <v>123</v>
       </c>
       <c r="T6" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Y6" s="62"/>
       <c r="AF6" s="63"/>
@@ -18105,7 +18574,7 @@
         <v>124</v>
       </c>
       <c r="AP6" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18576,7 +19045,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C0AC78-FB4E-4AC4-A551-2967205D039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB47AC9-C2ED-43B7-AB74-53138783C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="24" activeTab="27" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="15" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -3042,7 +3042,7 @@
   <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -9635,8 +9635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9713,10 +9713,10 @@
         <v>370</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="I2" t="s">
         <v>123</v>
@@ -9728,38 +9728,38 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="G3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G3" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9783,10 +9783,10 @@
         <v>370</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="I4" t="s">
         <v>123</v>
@@ -17365,7 +17365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -19504,15 +19504,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -19729,7 +19720,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -19739,15 +19730,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19766,7 +19758,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19774,4 +19766,12 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB47AC9-C2ED-43B7-AB74-53138783C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43B458-583E-4052-ADE0-3D872A965929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="15" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="649">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -9635,7 +9635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15096,10 +15096,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15342,15 +15342,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="F7" t="s">
         <v>503</v>
       </c>
@@ -15360,79 +15365,53 @@
       <c r="H7" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="I7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="G8" t="s">
-        <v>504</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="G8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="33" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="30">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16332,7 +16311,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17366,7 +17345,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17469,32 +17448,32 @@
       </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="E4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17595,8 +17574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17715,24 +17694,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" t="s">
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43B458-583E-4052-ADE0-3D872A965929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793183DB-0933-414D-B01E-000090CE55FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="650">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2018,6 +2018,9 @@
   </si>
   <si>
     <t>SCR_ID</t>
+  </si>
+  <si>
+    <t>testT2902</t>
   </si>
 </sst>
 </file>
@@ -8949,7 +8952,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9239,7 +9242,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9636,7 +9639,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10377,10 +10380,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BN28"/>
+  <dimension ref="A1:BN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11322,200 +11325,111 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="44">
-        <v>1</v>
-      </c>
-      <c r="C8" s="44">
-        <v>1</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="44" t="s">
+    <row r="8" spans="1:66" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="J8" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="K8" s="44" t="s">
+      <c r="J8" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="L8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="44" t="s">
+      <c r="L8" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="P8" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="48" t="s">
-        <v>620</v>
-      </c>
-      <c r="S8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="T8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="U8" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="V8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="X8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z8" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV8" s="44" t="s">
+      <c r="P8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AW8" s="44" t="s">
+      <c r="AW8" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AX8" s="44" t="s">
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AY8" s="44" t="s">
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44" t="s">
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44" t="s">
+      <c r="BD8" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BD8" s="44" t="s">
+      <c r="BE8" s="30" t="s">
         <v>274</v>
-      </c>
-      <c r="BE8" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM8" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN8" s="46" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -11523,7 +11437,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="44">
         <v>1</v>
@@ -11714,118 +11628,205 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
+    <row r="10" spans="1:66" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="44">
+        <v>2</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7" t="s">
+      <c r="P10" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="S10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="AW10" s="7" t="s">
+      <c r="AW10" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7" t="s">
+      <c r="AX10" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7" t="s">
+      <c r="AY10" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7" t="s">
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="BD10" s="7" t="s">
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="BE10" s="7" t="s">
+      <c r="BD10" s="44" t="s">
         <v>274</v>
+      </c>
+      <c r="BE10" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -11852,7 +11853,7 @@
         <v>279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>102</v>
@@ -11876,21 +11877,21 @@
         <v>123</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="6"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
@@ -11932,260 +11933,310 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:66" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="30">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30">
-        <v>1</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G13" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H13" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I13" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J13" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K13" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="L12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="30" t="s">
+      <c r="L13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N13" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O13" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="P12" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="R12" s="34" t="s">
+      <c r="P13" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="S12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV12" s="30" t="s">
+      <c r="S13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV13" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AW12" s="30" t="s">
+      <c r="AW13" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AX12" s="30" t="s">
+      <c r="AX13" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AY12" s="30" t="s">
+      <c r="AY13" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="30" t="s">
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BB12" s="30"/>
-      <c r="BC12" s="30" t="s">
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BD12" s="30" t="s">
+      <c r="BD13" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BE12" s="30" t="s">
+      <c r="BE13" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BF12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG12" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH12" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI12" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ12" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK12" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL12" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM12" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN12" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
+      <c r="BF13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN13" s="28" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -12212,7 +12263,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -12236,7 +12287,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
-      <c r="AW14" s="10"/>
+      <c r="AW14" s="11"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
@@ -12271,7 +12322,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="10"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -12295,7 +12346,7 @@
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="11"/>
+      <c r="AW15" s="10"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
@@ -12354,7 +12405,7 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
+      <c r="AW16" s="11"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
@@ -12389,7 +12440,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -12448,7 +12499,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="11"/>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -12566,7 +12617,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -12625,7 +12676,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="10"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -12743,7 +12794,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -12802,7 +12853,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="11"/>
+      <c r="Y24" s="10"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -13072,6 +13123,65 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13180,7 +13290,7 @@
   <dimension ref="A1:AX23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13357,132 +13467,132 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="46" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:50" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44">
-        <v>1</v>
-      </c>
-      <c r="C2" s="44">
-        <v>1</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="N2" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" s="47" t="s">
+      <c r="N2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="Q2" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="Q2" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="U2" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="W2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="X2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ2" s="47" t="s">
+      <c r="U2" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
         <v>275</v>
       </c>
     </row>
@@ -17574,7 +17684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793183DB-0933-414D-B01E-000090CE55FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA731C62-E917-45E4-BD10-862DE0004035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -10382,7 +10382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -13290,7 +13290,7 @@
   <dimension ref="A1:AX23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15208,8 +15208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15504,8 +15504,8 @@
       <c r="F8" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>74</v>
+      <c r="G8" t="s">
+        <v>504</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>121</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA731C62-E917-45E4-BD10-862DE0004035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C72844-3495-4F03-AD29-F30E46AE43EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -15208,7 +15208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -18355,8 +18355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18908,7 +18908,7 @@
         <v>123</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>123</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C72844-3495-4F03-AD29-F30E46AE43EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8184A-DEB2-4D37-A2BF-BC3C3077EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="650">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -18353,10 +18353,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18913,7 +18913,38 @@
       <c r="G14" s="28" t="s">
         <v>123</v>
       </c>
+      <c r="T14" s="58"/>
       <c r="AD14" s="35"/>
+    </row>
+    <row r="15" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="28">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28">
+        <v>2</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="T15" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="AD15" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8184A-DEB2-4D37-A2BF-BC3C3077EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C580F40-3685-4BE6-B59F-75DC5F2056AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="650">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -18353,10 +18353,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18913,38 +18913,11 @@
       <c r="G14" s="28" t="s">
         <v>123</v>
       </c>
+      <c r="S14" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="T14" s="58"/>
       <c r="AD14" s="35"/>
-    </row>
-    <row r="15" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="28">
-        <v>1</v>
-      </c>
-      <c r="C15" s="28">
-        <v>2</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="T15" s="58" t="s">
-        <v>628</v>
-      </c>
-      <c r="AD15" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C580F40-3685-4BE6-B59F-75DC5F2056AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12675603-F09F-440F-8B67-CF32C9B51FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="655">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2021,6 +2021,21 @@
   </si>
   <si>
     <t>testT2902</t>
+  </si>
+  <si>
+    <t>abca1@gmail.com</t>
+  </si>
+  <si>
+    <t>Residential/Home</t>
+  </si>
+  <si>
+    <t>SAR_ADDRESS_ID</t>
+  </si>
+  <si>
+    <t>SAR_ID1</t>
+  </si>
+  <si>
+    <t>INNER SEARCH</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2276,8 +2291,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3042,11 +3058,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DH13"/>
+  <dimension ref="A1:DH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6497,19 +6513,338 @@
       <c r="DG13" s="52"/>
       <c r="DH13" s="52"/>
     </row>
+    <row r="14" spans="1:112" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="71" t="s">
+        <v>650</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK14" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX14" s="30"/>
+      <c r="CY14" s="30"/>
+      <c r="CZ14" s="30"/>
+      <c r="DA14" s="30"/>
+      <c r="DB14" s="30"/>
+      <c r="DC14" s="30"/>
+      <c r="DD14" s="30"/>
+      <c r="DE14" s="30"/>
+      <c r="DF14" s="30"/>
+      <c r="DG14" s="30"/>
+      <c r="DH14" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="U14" r:id="rId1" xr:uid="{27E96529-B229-4910-B111-D6E5DF19D0A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6903,359 +7238,295 @@
         <v>637</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="68">
-        <v>1</v>
-      </c>
-      <c r="C12" s="68">
-        <v>1</v>
-      </c>
-      <c r="D12" s="68" t="s">
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="70" t="s">
+      <c r="G12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+    <row r="13" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="68">
-        <v>1</v>
-      </c>
-      <c r="C13" s="68">
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="C13" s="28">
         <v>2</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="70" t="s">
+      <c r="G13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="68">
-        <v>1</v>
-      </c>
-      <c r="C14" s="68">
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
+      <c r="C14" s="28">
         <v>3</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="70" t="s">
+      <c r="G14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="68">
-        <v>1</v>
-      </c>
-      <c r="C15" s="68">
+      <c r="B15" s="28">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28">
         <v>4</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G15" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="70" t="s">
+      <c r="G15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="28">
         <v>1</v>
       </c>
       <c r="C16" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+    </row>
+    <row r="17" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="28">
-        <v>1</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="B17" s="68">
+        <v>1</v>
+      </c>
+      <c r="C17" s="68">
+        <v>1</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="68">
+        <v>1</v>
+      </c>
+      <c r="C18" s="68">
         <v>2</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D18" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E18" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F18" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="29" t="s">
+      <c r="G18" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="19" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="28">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="B19" s="68">
+        <v>1</v>
+      </c>
+      <c r="C19" s="68">
         <v>3</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D19" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E19" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F19" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="29" t="s">
+      <c r="G19" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
+    </row>
+    <row r="20" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="B20" s="68">
+        <v>1</v>
+      </c>
+      <c r="C20" s="68">
         <v>4</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D20" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E20" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F20" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="29" t="s">
+      <c r="G20" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-    </row>
-    <row r="20" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="47">
-        <v>1</v>
-      </c>
-      <c r="C20" s="47">
-        <v>1</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="K20" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R20" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
         <v>7</v>
       </c>
@@ -7263,10 +7534,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>298</v>
@@ -7278,7 +7549,7 @@
         <v>123</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>124</v>
@@ -7289,29 +7560,29 @@
       <c r="K21" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q21" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R21" s="47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
         <v>7</v>
       </c>
@@ -7319,10 +7590,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>298</v>
@@ -7342,8 +7613,32 @@
       <c r="J22" s="47" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R22" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="47" t="s">
         <v>7</v>
       </c>
@@ -7351,10 +7646,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>298</v>
@@ -7375,18 +7670,18 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>298</v>
@@ -7398,7 +7693,7 @@
         <v>123</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I24" s="47" t="s">
         <v>124</v>
@@ -7406,32 +7701,8 @@
       <c r="J24" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="K24" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R24" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
@@ -7439,10 +7710,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>298</v>
@@ -7454,7 +7725,7 @@
         <v>123</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I25" s="47" t="s">
         <v>124</v>
@@ -7465,29 +7736,29 @@
       <c r="K25" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N25" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R25" s="47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="47" t="s">
         <v>7</v>
       </c>
@@ -7495,10 +7766,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>298</v>
@@ -7518,8 +7789,32 @@
       <c r="J26" s="47" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="O26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="47" t="s">
         <v>7</v>
       </c>
@@ -7527,10 +7822,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>298</v>
@@ -7551,39 +7846,39 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>297</v>
-      </c>
-      <c r="E28" t="s">
+    <row r="28" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="47">
+        <v>2</v>
+      </c>
+      <c r="C28" s="47">
+        <v>4</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="G28" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="47" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -7591,10 +7886,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E29" t="s">
         <v>298</v>
@@ -7615,63 +7910,39 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="47">
-        <v>1</v>
-      </c>
-      <c r="C30" s="47">
-        <v>1</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="E30" s="47" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>301</v>
+      </c>
+      <c r="E30" t="s">
         <v>298</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" t="s">
         <v>298</v>
       </c>
-      <c r="G30" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="47" t="s">
+      <c r="G30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="N30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="O30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R30" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="47" t="s">
         <v>104</v>
       </c>
@@ -7679,10 +7950,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>298</v>
@@ -7694,7 +7965,7 @@
         <v>123</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I31" s="47" t="s">
         <v>124</v>
@@ -7705,25 +7976,81 @@
       <c r="K31" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="L31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="O31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R31" s="47" t="s">
+      <c r="L31" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R31" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="47">
+        <v>1</v>
+      </c>
+      <c r="C32" s="47">
+        <v>2</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="O32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R32" s="47" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7823,10 +8150,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8625,155 +8953,150 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="28">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30">
+        <v>6</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
         <v>318</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>318</v>
       </c>
-      <c r="I21" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K23" t="s">
         <v>322</v>
       </c>
-      <c r="L21" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="46"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="L23" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
         <v>319</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>319</v>
       </c>
-      <c r="I22" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K24" t="s">
         <v>324</v>
-      </c>
-      <c r="L22" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="30">
-        <v>1</v>
-      </c>
-      <c r="C23" s="30">
-        <v>1</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="L23" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="30">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30">
-        <v>2</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>581</v>
       </c>
       <c r="L24" s="46" t="s">
         <v>123</v>
@@ -8788,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>123</v>
@@ -8830,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>123</v>
@@ -8861,82 +9184,163 @@
       </c>
       <c r="M26" s="46"/>
     </row>
-    <row r="27" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="30">
+        <v>1</v>
+      </c>
+      <c r="C27" s="30">
+        <v>3</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" s="46"/>
+      <c r="N27" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="30">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30">
+        <v>4</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="44">
-        <v>1</v>
-      </c>
-      <c r="C27" s="44">
-        <v>1</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="46" t="s">
+      <c r="B29" s="44">
+        <v>1</v>
+      </c>
+      <c r="C29" s="44">
+        <v>1</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="I27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="46" t="s">
+      <c r="I29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="L27" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="N27" s="46" t="s">
+      <c r="L29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="46" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44" t="s">
+    <row r="30" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="44">
-        <v>1</v>
-      </c>
-      <c r="C28" s="44">
+      <c r="B30" s="44">
+        <v>1</v>
+      </c>
+      <c r="C30" s="44">
         <v>2</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="46" t="s">
+      <c r="D30" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="I28" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" s="46" t="s">
+      <c r="I30" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L30" s="46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8949,15 +9353,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8985,86 +9389,89 @@
       <c r="I1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>327</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>328</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>329</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>330</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>331</v>
-      </c>
-      <c r="S1" t="s">
-        <v>264</v>
       </c>
       <c r="T1" t="s">
         <v>264</v>
       </c>
       <c r="U1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" t="s">
         <v>223</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>265</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>224</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>293</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>332</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>333</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>334</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>185</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>335</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>336</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>337</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>338</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>339</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9080,11 +9487,11 @@
       <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9100,11 +9507,11 @@
       <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -9127,13 +9534,13 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="L4" s="30">
+      <c r="M4" s="30">
         <v>97818</v>
       </c>
-      <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
@@ -9146,52 +9553,69 @@
       <c r="W4" s="30"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
-      <c r="AI4" s="32" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AJ4" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L5" s="1">
-        <v>97818</v>
-      </c>
-      <c r="AI5" s="9" t="s">
+    <row r="5" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AJ5" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -9219,21 +9643,63 @@
       <c r="I6" t="s">
         <v>123</v>
       </c>
-      <c r="J6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>97818</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AJ6" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" s="1">
+        <v>97818</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
         <v>275</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15530,10 +15996,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15740,137 +16206,191 @@
       </c>
       <c r="X3" s="59"/>
     </row>
-    <row r="4" spans="1:24" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-    </row>
-    <row r="5" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+    <row r="4" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
-        <v>1</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="28" t="s">
+      <c r="F4" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O4" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P4" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q4" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="R4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" s="12" t="s">
+      <c r="S4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="V5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="W5" s="28" t="s">
+      <c r="V4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
         <v>124</v>
       </c>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="6" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1</v>
+      </c>
+      <c r="C6" s="44">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="7"/>
+      <c r="F6" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="V6" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="48" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="44">
         <v>1</v>
@@ -15941,10 +16461,10 @@
     </row>
     <row r="8" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B8" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="44">
         <v>1</v>
@@ -16018,7 +16538,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="44">
         <v>1</v>
@@ -16089,10 +16609,10 @@
     </row>
     <row r="10" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B10" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="44">
         <v>1</v>
@@ -16169,70 +16689,70 @@
         <v>1</v>
       </c>
       <c r="C11" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>517</v>
+        <v>121</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>124</v>
+      <c r="G11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>593</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="V11" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="44" t="s">
-        <v>124</v>
+      <c r="K11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="V11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="X11" s="48" t="s">
-        <v>625</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -16279,9 +16799,6 @@
     </row>
     <row r="26" spans="24:24" x14ac:dyDescent="0.35">
       <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16420,8 +16937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18353,10 +18870,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18380,28 +18897,28 @@
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.26953125" customWidth="1"/>
-    <col min="20" max="20" width="14.6328125" customWidth="1"/>
-    <col min="21" max="21" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.26953125" customWidth="1"/>
-    <col min="25" max="25" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.6328125" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
+    <col min="26" max="26" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18462,68 +18979,71 @@
       <c r="T1" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>154</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>156</v>
       </c>
-      <c r="AN1" s="18" t="s">
+      <c r="AO1" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
@@ -18545,9 +19065,9 @@
       <c r="G2" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="42"/>
-    </row>
-    <row r="3" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG2" s="42"/>
+    </row>
+    <row r="3" spans="1:43" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
@@ -18569,10 +19089,10 @@
       <c r="G3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="AF3" s="43"/>
-    </row>
-    <row r="4" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z3" s="42"/>
+      <c r="AG3" s="43"/>
+    </row>
+    <row r="4" spans="1:43" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
@@ -18594,16 +19114,16 @@
       <c r="G4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="Y4" s="62"/>
-      <c r="AF4" s="63"/>
-      <c r="AO4" s="58" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z4" s="62"/>
+      <c r="AG4" s="63"/>
       <c r="AP4" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ4" s="58" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
@@ -18625,16 +19145,16 @@
       <c r="G5" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="62"/>
-      <c r="AF5" s="63"/>
-      <c r="AO5" s="58" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z5" s="62"/>
+      <c r="AG5" s="63"/>
       <c r="AP5" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ5" s="58" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
@@ -18662,16 +19182,16 @@
       <c r="T6" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="Y6" s="62"/>
-      <c r="AF6" s="63"/>
-      <c r="AO6" s="58" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z6" s="62"/>
+      <c r="AG6" s="63"/>
       <c r="AP6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ6" s="58" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -18693,10 +19213,10 @@
       <c r="G7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z7" s="6"/>
+      <c r="AG7" s="5"/>
+    </row>
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -18718,10 +19238,10 @@
       <c r="G8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Y8" s="6"/>
-      <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z8" s="6"/>
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -18734,9 +19254,6 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="U9" t="s">
-        <v>66</v>
-      </c>
       <c r="V9" t="s">
         <v>66</v>
       </c>
@@ -18746,56 +19263,59 @@
       <c r="X9" t="s">
         <v>66</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z9" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AC9" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AD9" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AE9" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AI9" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AI9" s="6" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="AK9" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="AL9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AM9" s="6" t="s">
+      <c r="AM9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN9" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="AN9" s="6" t="s">
+      <c r="AO9" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -18814,9 +19334,9 @@
       <c r="G10" t="s">
         <v>123</v>
       </c>
-      <c r="Y10" s="20"/>
-    </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z10" s="20"/>
+    </row>
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -18838,10 +19358,10 @@
       <c r="G11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Y11" s="20"/>
-      <c r="AF11" s="19"/>
-    </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z11" s="20"/>
+      <c r="AG11" s="19"/>
+    </row>
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
@@ -18863,10 +19383,10 @@
       <c r="G12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="AF12" s="19"/>
-    </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z12" s="20"/>
+      <c r="AG12" s="19"/>
+    </row>
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -18888,10 +19408,10 @@
       <c r="G13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Y13" s="20"/>
-      <c r="AF13" s="19"/>
-    </row>
-    <row r="14" spans="1:42" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z13" s="20"/>
+      <c r="AG13" s="19"/>
+    </row>
+    <row r="14" spans="1:43" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
@@ -18917,7 +19437,10 @@
         <v>123</v>
       </c>
       <c r="T14" s="58"/>
-      <c r="AD14" s="35"/>
+      <c r="U14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE14" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18926,10 +19449,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19589,15 +20112,95 @@
         <v>124</v>
       </c>
     </row>
+    <row r="9" spans="1:33" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="30">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="T6" r:id="rId2" xr:uid="{D4040358-CAD9-46FD-9A0A-595D44CD46FF}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{3A66DA18-74D6-460E-8063-FE02D3C74FEC}"/>
     <hyperlink ref="T8" r:id="rId4" xr:uid="{2AE9C656-B651-4CEA-AD01-A89B7BB042CD}"/>
+    <hyperlink ref="T9" r:id="rId5" xr:uid="{85C02006-8A3E-44B4-9000-DFCCFC1C5FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -19819,6 +20422,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -19826,15 +20438,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19857,6 +20460,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19864,12 +20475,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12675603-F09F-440F-8B67-CF32C9B51FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8780FFE-6BED-4D9F-B869-9E0B2B33A1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="13" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="655">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -9353,15 +9353,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9402,76 +9402,79 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>327</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>328</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>329</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>330</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>331</v>
-      </c>
-      <c r="T1" t="s">
-        <v>264</v>
       </c>
       <c r="U1" t="s">
         <v>264</v>
       </c>
       <c r="V1" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" t="s">
         <v>223</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>265</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>293</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>332</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>333</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>334</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>335</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>336</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>337</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>338</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>339</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9487,11 +9490,11 @@
       <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9507,11 +9510,11 @@
       <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -9554,11 +9557,12 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
-      <c r="AJ4" s="32" t="s">
+      <c r="AA4" s="30"/>
+      <c r="AK4" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
@@ -9598,7 +9602,9 @@
       <c r="M5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="30"/>
+      <c r="N5" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
@@ -9611,11 +9617,12 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
-      <c r="AJ5" s="32" t="s">
+      <c r="AA5" s="30"/>
+      <c r="AK5" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -9652,11 +9659,12 @@
       <c r="M6" s="1">
         <v>97818</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="N6" s="1"/>
+      <c r="AK6" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -9693,7 +9701,8 @@
       <c r="M7" s="1">
         <v>97818</v>
       </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="N7" s="1"/>
+      <c r="AK7" s="9" t="s">
         <v>275</v>
       </c>
     </row>
@@ -15998,7 +16007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8780FFE-6BED-4D9F-B869-9E0B2B33A1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12647D4E-9AB4-449B-A3EC-E028D5509F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="13" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="655">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -9355,8 +9355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18208,10 +18208,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18356,55 +18356,55 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="52">
-        <v>1</v>
-      </c>
-      <c r="C7" s="52">
-        <v>1</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="46" t="s">
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -18416,7 +18416,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>68</v>
@@ -18431,6 +18431,32 @@
         <v>74</v>
       </c>
       <c r="H8" s="46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="52">
+        <v>1</v>
+      </c>
+      <c r="C9" s="52">
+        <v>2</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12647D4E-9AB4-449B-A3EC-E028D5509F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81937C24-A61E-495F-A09C-0C99C109BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="655">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -6843,8 +6843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8154,7 +8154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9008,7 +9008,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>74</v>
@@ -9017,7 +9017,7 @@
         <v>74</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>74</v>
@@ -17981,7 +17981,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18211,7 +18211,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18907,8 +18907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19471,7 +19471,9 @@
       <c r="S14" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="58"/>
+      <c r="T14" s="58" t="s">
+        <v>628</v>
+      </c>
       <c r="U14" t="s">
         <v>123</v>
       </c>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81937C24-A61E-495F-A09C-0C99C109BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C02125D-0978-464C-B5EA-EE3197CDF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="655">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -17434,18 +17434,25 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -17515,6 +17522,41 @@
         <v>121</v>
       </c>
       <c r="K2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>550</v>
+      </c>
+      <c r="K3" t="s">
         <v>550</v>
       </c>
     </row>
@@ -17981,7 +18023,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18210,7 +18252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -19488,8 +19530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20169,7 +20211,7 @@
         <v>121</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>121</v>
+        <v>630</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>121</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE949D0-88B0-4C54-9848-CB87EAC242B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D17FF-9A85-4111-BAC7-95E79F3FEF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="16" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="672">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2087,9 +2087,6 @@
   </si>
   <si>
     <t>testT2902</t>
-  </si>
-  <si>
-    <t>Firearms In Home</t>
   </si>
 </sst>
 </file>
@@ -10690,7 +10687,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10861,8 +10858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E73BAA-EFCF-4B3C-AD92-E36A2F3DC9FA}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10991,7 +10988,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>672</v>
+        <v>374</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>123</v>
@@ -11028,8 +11025,8 @@
       <c r="D5" t="s">
         <v>123</v>
       </c>
-      <c r="E5" t="s">
-        <v>672</v>
+      <c r="E5" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -11044,7 +11041,7 @@
     </row>
     <row r="6" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="78">
         <v>1</v>
@@ -11055,8 +11052,8 @@
       <c r="D6" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="E6" t="s">
-        <v>672</v>
+      <c r="E6" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="F6" s="78" t="s">
         <v>123</v>
@@ -11444,8 +11441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO28"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12258,13 +12255,13 @@
         <v>480</v>
       </c>
       <c r="N7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="P7" s="29" t="s">
         <v>482</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="Q7" s="29" t="s">
         <v>123</v>
@@ -12454,13 +12451,13 @@
         <v>480</v>
       </c>
       <c r="N8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="P8" s="29" t="s">
         <v>482</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="Q8" s="29" t="s">
         <v>123</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D17FF-9A85-4111-BAC7-95E79F3FEF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386DE353-AD26-4AB2-B0EE-AE23A5A85306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="673">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2087,6 +2087,9 @@
   </si>
   <si>
     <t>testT2902</t>
+  </si>
+  <si>
+    <t>N/a</t>
   </si>
 </sst>
 </file>
@@ -11441,8 +11444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12264,13 +12267,13 @@
         <v>482</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>617</v>
+        <v>123</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T7" s="29" t="s">
         <v>124</v>
@@ -12356,58 +12359,57 @@
       <c r="AU7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AV7" s="29" t="s">
+      <c r="AW7" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="AW7" s="29" t="s">
-        <v>274</v>
       </c>
       <c r="AX7" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AY7" s="29" t="s">
+      <c r="AZ7" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AZ7" s="29"/>
       <c r="BA7" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BB7" s="29"/>
-      <c r="BC7" s="29" t="s">
+      <c r="BB7" s="29" t="s">
         <v>274</v>
       </c>
+      <c r="BC7" s="29"/>
       <c r="BD7" s="29" t="s">
         <v>274</v>
       </c>
       <c r="BE7" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BF7" s="29" t="s">
-        <v>124</v>
+      <c r="BF7" s="27" t="s">
+        <v>672</v>
       </c>
       <c r="BG7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="BH7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="BI7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="BJ7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="BK7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="BL7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="BM7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="BN7" s="27" t="s">
-        <v>124</v>
+        <v>672</v>
+      </c>
+      <c r="BO7" s="27" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:67" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12460,10 +12462,14 @@
         <v>482</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="T8" s="29"/>
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
@@ -12492,29 +12498,57 @@
       <c r="AS8" s="29"/>
       <c r="AT8" s="29"/>
       <c r="AU8" s="29"/>
-      <c r="AV8" s="29" t="s">
+      <c r="AW8" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AW8" s="29" t="s">
+      <c r="AX8" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="29" t="s">
+      <c r="AZ8" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AZ8" s="29"/>
       <c r="BA8" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29" t="s">
+      <c r="BB8" s="29" t="s">
         <v>274</v>
       </c>
+      <c r="BC8" s="29"/>
       <c r="BD8" s="29" t="s">
         <v>274</v>
       </c>
       <c r="BE8" s="29" t="s">
         <v>274</v>
+      </c>
+      <c r="BF8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BG8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BH8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BI8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BJ8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BK8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BL8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BM8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BN8" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="BO8" s="27" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16968,8 +17002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386DE353-AD26-4AB2-B0EE-AE23A5A85306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3C26EC-17EE-4DBC-A661-78E58A2FE96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -8627,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9298,7 +9298,7 @@
         <v>74</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>123</v>
@@ -9336,7 +9336,7 @@
         <v>74</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I18" s="27" t="s">
         <v>123</v>
@@ -9374,7 +9374,7 @@
         <v>74</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I19" s="27" t="s">
         <v>123</v>
@@ -9412,7 +9412,7 @@
         <v>74</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I20" s="27" t="s">
         <v>123</v>
@@ -17002,8 +17002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3C26EC-17EE-4DBC-A661-78E58A2FE96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE258E4B-1C28-46F7-A1B7-4DF6A7496895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="671">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2084,12 +2084,6 @@
   </si>
   <si>
     <t>Residential/Home</t>
-  </si>
-  <si>
-    <t>testT2902</t>
-  </si>
-  <si>
-    <t>N/a</t>
   </si>
 </sst>
 </file>
@@ -8627,7 +8621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -11442,10 +11436,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BO28"/>
+  <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12217,1368 +12211,1258 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="29" t="s">
+    <row r="7" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43">
+        <v>2</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="L7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="29" t="s">
+      <c r="L7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="N7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="29" t="s">
+      <c r="N7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="Q7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW7" s="29" t="s">
+      <c r="Q7" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW7" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="AX7" s="29" t="s">
+      <c r="AX7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="AZ7" s="29" t="s">
+      <c r="AY7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BA7" s="29" t="s">
+      <c r="AZ7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BB7" s="29" t="s">
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BC7" s="29"/>
-      <c r="BD7" s="29" t="s">
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BE7" s="29" t="s">
+      <c r="BE7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BF7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BG7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BH7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BI7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BJ7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BK7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BL7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BM7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BN7" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BO7" s="27" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
-        <v>2</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="BF7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO7" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="29" t="s">
+      <c r="J8" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="N8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="29" t="s">
+      <c r="N8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="Q8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AW8" s="29" t="s">
+      <c r="Q8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AX8" s="29" t="s">
+      <c r="AX8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ8" s="29" t="s">
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BA8" s="29" t="s">
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB8" s="29" t="s">
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29" t="s">
+      <c r="BE8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE8" s="29" t="s">
+      <c r="BF8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BF8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BG8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BH8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BI8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BJ8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BK8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BL8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BM8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BN8" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="BO8" s="27" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="43">
-        <v>2</v>
-      </c>
-      <c r="C9" s="43">
-        <v>1</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="43" t="s">
+    </row>
+    <row r="9" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="78">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="78" t="s">
         <v>477</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="78" t="s">
         <v>478</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="78" t="s">
         <v>479</v>
       </c>
-      <c r="K9" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="43" t="s">
+      <c r="K9" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="M9" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="N9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="43" t="s">
+      <c r="N9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="78" t="s">
         <v>481</v>
       </c>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="78" t="s">
         <v>482</v>
       </c>
-      <c r="Q9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="43" t="s">
+      <c r="Q9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="78" t="s">
         <v>123</v>
       </c>
       <c r="S9" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="T9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="V9" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA9" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW9" s="43" t="s">
+      <c r="T9" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" s="78"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="AX9" s="43" t="s">
+      <c r="AX9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="AY9" s="43" t="s">
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="AZ9" s="43" t="s">
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43" t="s">
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43" t="s">
+      <c r="BE9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BE9" s="43" t="s">
+      <c r="BF9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BF9" s="43" t="s">
+    </row>
+    <row r="10" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW10" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX10" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BG9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO9" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="AY10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO10" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO11" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO12" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H13" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I13" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J13" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="K13" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="N13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P13" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7" t="s">
+      <c r="Q13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AX10" s="7" t="s">
+      <c r="AX13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7" t="s">
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7" t="s">
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7" t="s">
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BE10" s="7" t="s">
+      <c r="BE13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BF10" s="7" t="s">
+      <c r="BF13" s="29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="78">
-        <v>1</v>
-      </c>
-      <c r="C11" s="78">
-        <v>1</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="78" t="s">
+    <row r="14" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G14" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H14" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I14" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J11" s="78" t="s">
-        <v>479</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>483</v>
-      </c>
-      <c r="M11" s="78" t="s">
+      <c r="J14" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="N11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="78" t="s">
+      <c r="N14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="P11" s="78" t="s">
+      <c r="P14" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Q11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="47" t="s">
+      <c r="Q14" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="T11" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="78"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78" t="s">
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AX11" s="78" t="s">
+      <c r="AX14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78" t="s">
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="78" t="s">
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="78" t="s">
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BE11" s="78" t="s">
+      <c r="BE14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BF11" s="78" t="s">
+      <c r="BF14" s="29" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW12" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BG12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO12" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO13" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO14" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
@@ -13607,7 +13491,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="10"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -13631,7 +13515,7 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
@@ -13727,7 +13611,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="10"/>
+      <c r="Z17" s="11"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -13787,7 +13671,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="11"/>
+      <c r="Z18" s="10"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -13907,7 +13791,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="10"/>
+      <c r="Z20" s="11"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -13967,7 +13851,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="11"/>
+      <c r="Z21" s="10"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -14087,7 +13971,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="10"/>
+      <c r="Z23" s="11"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -14301,126 +14185,6 @@
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
-    <row r="27" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-    </row>
-    <row r="28" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14528,8 +14292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17000,10 +16764,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17210,211 +16974,265 @@
       </c>
       <c r="X3" s="57"/>
     </row>
-    <row r="4" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+    <row r="4" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="5" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="27" t="s">
+      <c r="F6" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O6" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P6" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q6" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R6" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" s="12" t="s">
+      <c r="S6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="V5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="X5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="V6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="43">
-        <v>1</v>
-      </c>
-      <c r="C7" s="43">
-        <v>1</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="R7" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="T7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="V7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="47" t="s">
-        <v>622</v>
-      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="7"/>
     </row>
     <row r="8" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="43">
         <v>1</v>
@@ -17485,10 +17303,10 @@
     </row>
     <row r="9" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B9" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="43">
         <v>1</v>
@@ -17562,7 +17380,7 @@
         <v>104</v>
       </c>
       <c r="B10" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="43">
         <v>1</v>
@@ -17631,198 +17449,79 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="29" t="s">
+    <row r="11" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="43">
+        <v>2</v>
+      </c>
+      <c r="C11" s="43">
+        <v>1</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="29" t="s">
+      <c r="F11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="43" t="s">
         <v>590</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="29" t="s">
+      <c r="S11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="V11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" s="33" t="s">
+      <c r="V11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" s="47" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>2</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="U12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="W12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="X12" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17962,7 +17661,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE258E4B-1C28-46F7-A1B7-4DF6A7496895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AFAFC-001A-42EB-BB7C-F43210671A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -11438,8 +11438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CA13" sqref="CA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14292,7 +14292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -16766,8 +16766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21066,6 +21066,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -21073,15 +21082,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21302,19 +21302,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AFAFC-001A-42EB-BB7C-F43210671A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C52DF-57F5-46E0-8AAC-81711724FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4420" uniqueCount="671">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -7058,8 +7058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7832,9 +7833,12 @@
         <v>123</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="J20" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8621,8 +8625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11438,8 +11443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CA13" sqref="CA13"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="BX11" sqref="BX11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21066,15 +21071,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -21082,6 +21078,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21302,19 +21307,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C52DF-57F5-46E0-8AAC-81711724FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF4EAF-C32A-4FA6-A4DE-FDF6CA1BB1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -8627,7 +8627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9449,7 +9449,7 @@
         <v>318</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>74</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF4EAF-C32A-4FA6-A4DE-FDF6CA1BB1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89048AC-C16B-428F-A9C6-F935CA4DB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -8625,9 +8625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11443,8 +11443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="BX11" sqref="BX11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12216,1258 +12216,1258 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC7" s="29"/>
+      <c r="BD7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF7" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX8" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE8" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF8" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B9" s="43">
         <v>2</v>
       </c>
-      <c r="C7" s="43">
-        <v>1</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="43" t="s">
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G9" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H9" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I9" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J9" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K9" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="L7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="43" t="s">
+      <c r="L9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="N7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="43" t="s">
+      <c r="N9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P9" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="Q7" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>617</v>
-      </c>
-      <c r="T7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="V7" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW7" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX7" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY7" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ7" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE7" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF7" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BG7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN7" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO7" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC8" s="7"/>
-      <c r="BD8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF8" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="78">
-        <v>1</v>
-      </c>
-      <c r="C9" s="78">
-        <v>1</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>477</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>478</v>
-      </c>
-      <c r="I9" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="78" t="s">
-        <v>479</v>
-      </c>
-      <c r="K9" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="78" t="s">
-        <v>483</v>
-      </c>
-      <c r="M9" s="78" t="s">
-        <v>480</v>
-      </c>
-      <c r="N9" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="P9" s="78" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q9" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="78" t="s">
+      <c r="Q9" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="43" t="s">
         <v>123</v>
       </c>
       <c r="S9" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="T9" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" s="78"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78" t="s">
+      <c r="T9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA9" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW9" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="AX9" s="78" t="s">
+      <c r="AX9" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="78" t="s">
+      <c r="AY9" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="78" t="s">
+      <c r="AZ9" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="78" t="s">
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BE9" s="78" t="s">
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BF9" s="78" t="s">
+      <c r="BE9" s="43" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="10" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="BF9" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO9" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF10" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="78">
+        <v>1</v>
+      </c>
+      <c r="C11" s="78">
+        <v>1</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>478</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>480</v>
+      </c>
+      <c r="N11" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="T11" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="78"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX11" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA11" s="78"/>
+      <c r="BB11" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC11" s="78"/>
+      <c r="BD11" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE11" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF11" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G12" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H12" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I12" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J12" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K12" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="29" t="s">
+      <c r="L12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="N10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="29" t="s">
+      <c r="N12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P12" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Q10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="33" t="s">
+      <c r="Q12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="T10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA10" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW10" s="29" t="s">
+      <c r="T12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW12" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AX10" s="29" t="s">
+      <c r="AX12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AY10" s="29" t="s">
+      <c r="AY12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AZ10" s="29" t="s">
+      <c r="AZ12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BA10" s="29"/>
-      <c r="BB10" s="29" t="s">
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BC10" s="29"/>
-      <c r="BD10" s="29" t="s">
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BE10" s="29" t="s">
+      <c r="BE12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BF10" s="29" t="s">
+      <c r="BF12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BG10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO10" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="BG12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO12" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW11" s="7" t="s">
+      <c r="Q13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW13" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AX11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO11" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="AX13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO13" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW12" s="7" t="s">
+      <c r="Q14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AX12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO12" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q13" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX13" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE13" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF13" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="29">
-        <v>2</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q14" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="29"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX14" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY14" s="29"/>
-      <c r="AZ14" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA14" s="29"/>
-      <c r="BB14" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC14" s="29"/>
-      <c r="BD14" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE14" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF14" s="29" t="s">
-        <v>274</v>
+      <c r="AX14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO14" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
@@ -14297,8 +14297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16771,8 +16771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21071,6 +21071,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -21078,15 +21087,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21307,19 +21307,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89048AC-C16B-428F-A9C6-F935CA4DB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0562D-0A9B-48CC-9506-DFF32C22760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4420" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="671">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3142,7 +3142,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:XFD6"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7047,7 +7047,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="U14" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
-    <hyperlink ref="U8" r:id="rId2" xr:uid="{B97B87C1-3515-44B3-BFBD-FBDBA976CC3B}"/>
+    <hyperlink ref="U8" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -7058,9 +7058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7627,50 +7626,37 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="27">
         <v>1</v>
       </c>
       <c r="C16" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>123</v>
+      <c r="H16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
@@ -7680,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>298</v>
@@ -7725,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>298</v>
@@ -7770,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>298</v>
@@ -7807,32 +7793,32 @@
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="27">
         <v>1</v>
       </c>
       <c r="C20" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="29" t="s">
+      <c r="H20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>123</v>
       </c>
       <c r="J20" s="28" t="s">
@@ -7841,6 +7827,16 @@
       <c r="K20" s="28" t="s">
         <v>299</v>
       </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
     </row>
     <row r="21" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
@@ -8625,9 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9865,7 +9860,7 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10689,7 +10684,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11027,7 +11022,7 @@
       <c r="D5" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" t="s">
         <v>374</v>
       </c>
       <c r="F5" t="s">
@@ -11054,7 +11049,7 @@
       <c r="D6" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="73" t="s">
         <v>374</v>
       </c>
       <c r="F6" s="78" t="s">
@@ -11443,8 +11438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12216,1258 +12211,1258 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="29" t="s">
+    <row r="7" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43">
+        <v>2</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="L7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="29" t="s">
+      <c r="L7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="N7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="29" t="s">
+      <c r="N7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="Q7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S7" s="33" t="s">
+      <c r="Q7" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29" t="s">
+      <c r="T7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW7" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="AX7" s="29" t="s">
+      <c r="AX7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="29" t="s">
+      <c r="AY7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BA7" s="29"/>
-      <c r="BB7" s="29" t="s">
+      <c r="AZ7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BC7" s="29"/>
-      <c r="BD7" s="29" t="s">
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BE7" s="29" t="s">
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="BF7" s="29" t="s">
+      <c r="BE7" s="43" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
-        <v>2</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="BF7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO7" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="29" t="s">
+      <c r="J8" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="N8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="29" t="s">
+      <c r="N8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="Q8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="29"/>
-      <c r="AW8" s="29" t="s">
+      <c r="Q8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AX8" s="29" t="s">
+      <c r="AX8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AY8" s="29"/>
-      <c r="AZ8" s="29" t="s">
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="29" t="s">
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29" t="s">
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE8" s="29" t="s">
+      <c r="BE8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BF8" s="29" t="s">
+      <c r="BF8" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="43">
-        <v>2</v>
-      </c>
-      <c r="C9" s="43">
-        <v>1</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="43" t="s">
+    <row r="9" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="78">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="78" t="s">
         <v>477</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="78" t="s">
         <v>478</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="78" t="s">
         <v>479</v>
       </c>
-      <c r="K9" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="43" t="s">
+      <c r="K9" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="M9" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="N9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="43" t="s">
+      <c r="N9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="78" t="s">
         <v>481</v>
       </c>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="78" t="s">
         <v>482</v>
       </c>
-      <c r="Q9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="43" t="s">
+      <c r="Q9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="78" t="s">
         <v>123</v>
       </c>
       <c r="S9" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="T9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="V9" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA9" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW9" s="43" t="s">
+      <c r="T9" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" s="78"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="AX9" s="43" t="s">
+      <c r="AX9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="AY9" s="43" t="s">
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="AZ9" s="43" t="s">
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43" t="s">
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43" t="s">
+      <c r="BE9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BE9" s="43" t="s">
+      <c r="BF9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="BF9" s="43" t="s">
+    </row>
+    <row r="10" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW10" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX10" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BG9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO9" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="AY10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO10" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO11" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO12" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H13" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I13" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J13" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="K13" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="N13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P13" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7" t="s">
+      <c r="Q13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AX10" s="7" t="s">
+      <c r="AX13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7" t="s">
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7" t="s">
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7" t="s">
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BE10" s="7" t="s">
+      <c r="BE13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BF10" s="7" t="s">
+      <c r="BF13" s="29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="78">
-        <v>1</v>
-      </c>
-      <c r="C11" s="78">
-        <v>1</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="78" t="s">
+    <row r="14" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G14" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H14" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I14" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J11" s="78" t="s">
-        <v>479</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>483</v>
-      </c>
-      <c r="M11" s="78" t="s">
+      <c r="J14" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="N11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="78" t="s">
+      <c r="N14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="P11" s="78" t="s">
+      <c r="P14" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Q11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="47" t="s">
+      <c r="Q14" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="T11" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="78"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78" t="s">
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AX11" s="78" t="s">
+      <c r="AX14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78" t="s">
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="78" t="s">
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="78" t="s">
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BE11" s="78" t="s">
+      <c r="BE14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BF11" s="78" t="s">
+      <c r="BF14" s="29" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW12" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BG12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO12" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO13" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO14" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
@@ -14297,8 +14292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16769,10 +16764,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16980,22 +16975,22 @@
       <c r="X3" s="57"/>
     </row>
     <row r="4" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="A4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>123</v>
       </c>
       <c r="G4" s="27" t="s">
@@ -17016,225 +17011,225 @@
       <c r="L4" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" s="29" t="s">
+      <c r="M4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U4" s="29" t="s">
+      <c r="S4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="V4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="V4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="V5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="27">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43">
+        <v>1</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="43" t="s">
         <v>590</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="43" t="s">
         <v>124</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="V6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
+      <c r="V6" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="7"/>
+      <c r="F7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="8" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B8" s="43">
         <v>1</v>
@@ -17308,7 +17303,7 @@
     </row>
     <row r="9" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B9" s="43">
         <v>2</v>
@@ -17380,153 +17375,198 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="43">
-        <v>1</v>
-      </c>
-      <c r="C10" s="43">
-        <v>1</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="43" t="s">
+    <row r="10" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="43" t="s">
+      <c r="F10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="O10" s="43" t="s">
+      <c r="O10" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U10" s="12" t="s">
+      <c r="S10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="V10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" s="47" t="s">
+      <c r="V10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="33" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="43">
+    <row r="11" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="C11" s="43">
-        <v>1</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="R11" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="V11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" s="47" t="s">
-        <v>622</v>
-      </c>
+      <c r="D11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17666,7 +17706,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18155,8 +18195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19737,7 +19777,7 @@
   <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20317,8 +20357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21062,8 +21102,8 @@
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="T6" r:id="rId2" xr:uid="{D4040358-CAD9-46FD-9A0A-595D44CD46FF}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{3A66DA18-74D6-460E-8063-FE02D3C74FEC}"/>
-    <hyperlink ref="T8" r:id="rId4" xr:uid="{D8BC7059-0931-49FF-A891-8663DB885327}"/>
-    <hyperlink ref="T9" r:id="rId5" xr:uid="{7B3ACD55-0963-49E8-9CA0-FA9CBF3D0968}"/>
+    <hyperlink ref="T8" r:id="rId4" xr:uid="{BAB2A804-5664-4AA4-BDBC-7044F3D835A4}"/>
+    <hyperlink ref="T9" r:id="rId5" xr:uid="{E46E3DF7-4CA2-46D2-BC7A-794B9D7BFD2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -21071,15 +21111,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -21087,6 +21118,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21307,19 +21347,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0562D-0A9B-48CC-9506-DFF32C22760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F95A6-87C1-4792-B0D8-58AC89F4AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="671">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1540,9 +1540,6 @@
   </si>
   <si>
     <t> </t>
-  </si>
-  <si>
-    <t>Background Check Appeal or Exemption</t>
   </si>
   <si>
     <t>APPROVAL_SUPERVISOR</t>
@@ -2084,6 +2081,9 @@
   </si>
   <si>
     <t>Residential/Home</t>
+  </si>
+  <si>
+    <t>testT2901_1</t>
   </si>
 </sst>
 </file>
@@ -3138,11 +3138,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DH15"/>
+  <dimension ref="A1:DH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3350,7 +3350,7 @@
         <v>214</v>
       </c>
       <c r="AK1" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>215</v>
@@ -3536,7 +3536,7 @@
         <v>333</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="CV1" s="8" t="s">
         <v>271</v>
@@ -4943,7 +4943,7 @@
         <v>74</v>
       </c>
       <c r="U8" s="72" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V8" s="29" t="s">
         <v>74</v>
@@ -5197,552 +5197,503 @@
       <c r="DG8" s="29"/>
       <c r="DH8" s="29"/>
     </row>
-    <row r="9" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="43">
-        <v>1</v>
-      </c>
-      <c r="C9" s="43">
-        <v>1</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="43" t="s">
+    <row r="9" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="43" t="s">
+      <c r="H9" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="T9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF9" s="43" t="s">
+      <c r="P9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="AG9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43"/>
-      <c r="BC9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="43"/>
-      <c r="BJ9" s="43"/>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="43"/>
-      <c r="BO9" s="43"/>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="43"/>
-      <c r="BR9" s="43"/>
-      <c r="BS9" s="43"/>
-      <c r="BT9" s="43"/>
-      <c r="BU9" s="43"/>
-      <c r="BV9" s="43"/>
-      <c r="BW9" s="43"/>
-      <c r="BX9" s="43"/>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43"/>
-      <c r="CA9" s="43"/>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43"/>
-      <c r="CD9" s="43"/>
-      <c r="CE9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CF9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG9" s="43"/>
-      <c r="CH9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CI9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ9" s="43"/>
-      <c r="CK9" s="43"/>
-      <c r="CL9" s="43"/>
-      <c r="CM9" s="43"/>
-      <c r="CN9" s="43"/>
-      <c r="CO9" s="43"/>
-      <c r="CP9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CR9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CS9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CT9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CU9" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CV9" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="CW9" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX9" s="43"/>
-      <c r="CY9" s="43"/>
-      <c r="CZ9" s="43"/>
-      <c r="DA9" s="43"/>
-      <c r="DB9" s="43"/>
-      <c r="DC9" s="43"/>
-      <c r="DD9" s="43"/>
-      <c r="DE9" s="43"/>
-      <c r="DF9" s="43"/>
-      <c r="DG9" s="43"/>
-      <c r="DH9" s="43"/>
-    </row>
-    <row r="10" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="43">
-        <v>1</v>
-      </c>
-      <c r="C10" s="43">
+      <c r="AG9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="28"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28"/>
+      <c r="BG9" s="28"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28"/>
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="28"/>
+      <c r="CH9" s="28"/>
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="28"/>
+      <c r="CQ9" s="28"/>
+      <c r="CR9" s="28"/>
+      <c r="CS9" s="28"/>
+      <c r="CT9" s="28"/>
+      <c r="CU9" s="28"/>
+    </row>
+    <row r="10" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
         <v>2</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="V10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="X10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF10" s="43" t="s">
+      <c r="D10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AG10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CP10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ10" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CR10" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CS10" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CT10" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CU10" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CV10" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="CW10" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX10" s="43"/>
-      <c r="CY10" s="43"/>
-      <c r="CZ10" s="43"/>
-      <c r="DA10" s="43"/>
-      <c r="DB10" s="43"/>
-      <c r="DC10" s="43"/>
-      <c r="DD10" s="43"/>
-      <c r="DE10" s="43"/>
-      <c r="DF10" s="43"/>
-      <c r="DG10" s="43"/>
-      <c r="DH10" s="43"/>
+      <c r="AG10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX10" s="29"/>
+      <c r="CY10" s="29"/>
+      <c r="CZ10" s="29"/>
+      <c r="DA10" s="29"/>
+      <c r="DB10" s="29"/>
+      <c r="DC10" s="29"/>
+      <c r="DD10" s="29"/>
+      <c r="DE10" s="29"/>
+      <c r="DF10" s="29"/>
+      <c r="DG10" s="29"/>
+      <c r="DH10" s="29"/>
     </row>
     <row r="11" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="43">
         <v>1</v>
@@ -5966,7 +5917,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="43">
         <v>2</v>
@@ -6278,302 +6229,210 @@
       <c r="DH12" s="43"/>
     </row>
     <row r="13" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="51">
-        <v>1</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="51" t="s">
+      <c r="A13" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="43">
+        <v>2</v>
+      </c>
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="51" t="s">
+      <c r="H13" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="P13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="U13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="51" t="s">
+      <c r="P13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="43" t="s">
         <v>74</v>
       </c>
       <c r="W13" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="X13" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y13" s="51">
-        <v>97818</v>
-      </c>
-      <c r="Z13" s="51" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC13" s="51">
-        <v>9808765674</v>
-      </c>
-      <c r="AD13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF13" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF13" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="AG13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI13" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ13" s="51" t="s">
-        <v>123</v>
-      </c>
+      <c r="AG13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ13" s="43"/>
       <c r="AK13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AL13" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU13" s="51" t="s">
-        <v>74</v>
+      <c r="AL13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="43"/>
+      <c r="BC13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="43"/>
+      <c r="BJ13" s="43"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="43"/>
+      <c r="BO13" s="43"/>
+      <c r="BP13" s="43"/>
+      <c r="BQ13" s="43"/>
+      <c r="BR13" s="43"/>
+      <c r="BS13" s="43"/>
+      <c r="BT13" s="43"/>
+      <c r="BU13" s="43"/>
+      <c r="BV13" s="43"/>
+      <c r="BW13" s="43"/>
+      <c r="BX13" s="43"/>
+      <c r="BY13" s="43"/>
+      <c r="BZ13" s="43"/>
+      <c r="CA13" s="43"/>
+      <c r="CB13" s="43"/>
+      <c r="CC13" s="43"/>
+      <c r="CD13" s="43"/>
+      <c r="CE13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF13" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CG13" s="43"/>
+      <c r="CH13" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CI13" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ13" s="43"/>
+      <c r="CK13" s="43"/>
+      <c r="CL13" s="43"/>
+      <c r="CM13" s="43"/>
+      <c r="CN13" s="43"/>
+      <c r="CO13" s="43"/>
+      <c r="CP13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ13" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CR13" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS13" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CT13" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CU13" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="CV13" s="46" t="s">
         <v>275</v>
@@ -6581,485 +6440,1118 @@
       <c r="CW13" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="CX13" s="51"/>
-      <c r="CY13" s="51"/>
-      <c r="CZ13" s="51"/>
-      <c r="DA13" s="51"/>
-      <c r="DB13" s="51"/>
-      <c r="DC13" s="51"/>
-      <c r="DD13" s="51"/>
-      <c r="DE13" s="51"/>
-      <c r="DF13" s="51"/>
-      <c r="DG13" s="51"/>
-      <c r="DH13" s="51"/>
-    </row>
-    <row r="14" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="CX13" s="43"/>
+      <c r="CY13" s="43"/>
+      <c r="CZ13" s="43"/>
+      <c r="DA13" s="43"/>
+      <c r="DB13" s="43"/>
+      <c r="DC13" s="43"/>
+      <c r="DD13" s="43"/>
+      <c r="DE13" s="43"/>
+      <c r="DF13" s="43"/>
+      <c r="DG13" s="43"/>
+      <c r="DH13" s="43"/>
+    </row>
+    <row r="14" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="43">
+        <v>2</v>
+      </c>
+      <c r="C14" s="43">
+        <v>2</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI14" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ14" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ14" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CR14" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS14" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CT14" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CU14" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CV14" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="CW14" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX14" s="43"/>
+      <c r="CY14" s="43"/>
+      <c r="CZ14" s="43"/>
+      <c r="DA14" s="43"/>
+      <c r="DB14" s="43"/>
+      <c r="DC14" s="43"/>
+      <c r="DD14" s="43"/>
+      <c r="DE14" s="43"/>
+      <c r="DF14" s="43"/>
+      <c r="DG14" s="43"/>
+      <c r="DH14" s="43"/>
+    </row>
+    <row r="15" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="51">
+        <v>1</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="51" t="s">
+        <v>663</v>
+      </c>
+      <c r="U15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="X15" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y15" s="51">
+        <v>97818</v>
+      </c>
+      <c r="Z15" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC15" s="51">
+        <v>9808765674</v>
+      </c>
+      <c r="AD15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG15" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI15" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ15" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL15" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV15" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="CW15" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX15" s="51"/>
+      <c r="CY15" s="51"/>
+      <c r="CZ15" s="51"/>
+      <c r="DA15" s="51"/>
+      <c r="DB15" s="51"/>
+      <c r="DC15" s="51"/>
+      <c r="DD15" s="51"/>
+      <c r="DE15" s="51"/>
+      <c r="DF15" s="51"/>
+      <c r="DG15" s="51"/>
+      <c r="DH15" s="51"/>
+    </row>
+    <row r="16" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="70" t="s">
+        <v>664</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="CV16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:72" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="75">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75">
+        <v>1</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F17" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G17" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="70" t="s">
-        <v>665</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE14" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU14" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="CV14" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:112" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="75">
-        <v>1</v>
-      </c>
-      <c r="C15" s="75">
-        <v>1</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="76" t="s">
+      <c r="H17" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="I15" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="76" t="s">
+      <c r="I17" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="P15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="U15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="V15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="X15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA15" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB15" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC15" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF15" s="76" t="s">
+      <c r="P17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA17" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB17" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC17" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="AG15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI15" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ15" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK15" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="76"/>
-      <c r="BA15" s="76"/>
-      <c r="BB15" s="76"/>
-      <c r="BC15" s="76"/>
-      <c r="BD15" s="76"/>
-      <c r="BE15" s="76"/>
-      <c r="BF15" s="76"/>
-      <c r="BG15" s="76"/>
-      <c r="BH15" s="76"/>
-      <c r="BI15" s="76"/>
-      <c r="BJ15" s="76"/>
-      <c r="BK15" s="76"/>
-      <c r="BL15" s="76"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="76"/>
-      <c r="BO15" s="76"/>
-      <c r="BP15" s="76"/>
-      <c r="BQ15" s="76"/>
-      <c r="BR15" s="76"/>
-      <c r="BS15" s="76"/>
-      <c r="BT15" s="76"/>
+      <c r="AG17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI17" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ17" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK17" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="76"/>
+      <c r="BB17" s="76"/>
+      <c r="BC17" s="76"/>
+      <c r="BD17" s="76"/>
+      <c r="BE17" s="76"/>
+      <c r="BF17" s="76"/>
+      <c r="BG17" s="76"/>
+      <c r="BH17" s="76"/>
+      <c r="BI17" s="76"/>
+      <c r="BJ17" s="76"/>
+      <c r="BK17" s="76"/>
+      <c r="BL17" s="76"/>
+      <c r="BM17" s="76"/>
+      <c r="BN17" s="76"/>
+      <c r="BO17" s="76"/>
+      <c r="BP17" s="76"/>
+      <c r="BQ17" s="76"/>
+      <c r="BR17" s="76"/>
+      <c r="BS17" s="76"/>
+      <c r="BT17" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U14" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
+    <hyperlink ref="U16" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
     <hyperlink ref="U8" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
+    <hyperlink ref="U10" r:id="rId3" xr:uid="{55DB2D90-B964-4ECD-AB26-EE4C08025079}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7103,7 +7595,7 @@
         <v>286</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>107</v>
@@ -7130,7 +7622,7 @@
         <v>292</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>225</v>
@@ -7142,10 +7634,10 @@
         <v>295</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7378,7 +7870,7 @@
         <v>124</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7413,7 +7905,7 @@
         <v>124</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7448,7 +7940,7 @@
         <v>124</v>
       </c>
       <c r="K10" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7483,7 +7975,7 @@
         <v>124</v>
       </c>
       <c r="K11" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
@@ -8404,7 +8896,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8413,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E33" t="s">
         <v>298</v>
@@ -8465,6 +8957,178 @@
       </c>
       <c r="U33" s="8" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B34" s="66">
+        <v>1</v>
+      </c>
+      <c r="C34" s="66">
+        <v>1</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
+      </c>
+      <c r="C35" s="66">
+        <v>2</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B36" s="66">
+        <v>1</v>
+      </c>
+      <c r="C36" s="66">
+        <v>3</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B37" s="66">
+        <v>1</v>
+      </c>
+      <c r="C37" s="66">
+        <v>4</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="K37" s="68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B38" s="27">
+        <v>1</v>
+      </c>
+      <c r="C38" s="27">
+        <v>5</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -8477,7 +9141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A6D6C4-93D0-45E1-B221-1EAED7219C95}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -8533,10 +9197,10 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -8564,7 +9228,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8619,10 +9283,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8675,13 +9339,13 @@
         <v>317</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8716,13 +9380,13 @@
         <v>123</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L2" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8757,7 +9421,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>123</v>
@@ -8795,7 +9459,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>123</v>
@@ -8833,7 +9497,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>123</v>
@@ -8871,13 +9535,13 @@
         <v>123</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L6" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8912,7 +9576,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>123</v>
@@ -8950,7 +9614,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L8" s="45" t="s">
         <v>123</v>
@@ -8988,7 +9652,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L9" s="45" t="s">
         <v>123</v>
@@ -9017,7 +9681,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>123</v>
@@ -9026,7 +9690,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L10" s="45" t="s">
         <v>123</v>
@@ -9056,7 +9720,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>123</v>
@@ -9065,7 +9729,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L11" s="45" t="s">
         <v>123</v>
@@ -9095,7 +9759,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>123</v>
@@ -9104,7 +9768,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L12" s="45" t="s">
         <v>123</v>
@@ -9134,7 +9798,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>123</v>
@@ -9143,7 +9807,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L13" s="45" t="s">
         <v>123</v>
@@ -9173,7 +9837,7 @@
         <v>74</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I14" s="56" t="s">
         <v>123</v>
@@ -9182,7 +9846,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L14" s="45" t="s">
         <v>123</v>
@@ -9221,7 +9885,7 @@
         <v>74</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>123</v>
@@ -9260,7 +9924,7 @@
         <v>74</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>123</v>
@@ -9301,7 +9965,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L17" s="27" t="s">
         <v>123</v>
@@ -9339,7 +10003,7 @@
         <v>123</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>123</v>
@@ -9377,7 +10041,7 @@
         <v>123</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>123</v>
@@ -9415,7 +10079,7 @@
         <v>123</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L20" s="27" t="s">
         <v>123</v>
@@ -9453,7 +10117,7 @@
         <v>74</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>123</v>
@@ -9491,7 +10155,7 @@
         <v>74</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L22" s="27" t="s">
         <v>123</v>
@@ -9515,10 +10179,10 @@
         <v>123</v>
       </c>
       <c r="G23" s="73" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I23" s="73" t="s">
         <v>123</v>
@@ -9527,7 +10191,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L23" s="73" t="s">
         <v>123</v>
@@ -9551,10 +10215,10 @@
         <v>123</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="H24" s="73" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="I24" s="73" t="s">
         <v>123</v>
@@ -9563,7 +10227,7 @@
         <v>123</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L24" s="73" t="s">
         <v>123</v>
@@ -9601,14 +10265,14 @@
         <v>123</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L25" s="45" t="s">
         <v>123</v>
       </c>
       <c r="M25" s="45"/>
       <c r="N25" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -9643,7 +10307,7 @@
         <v>123</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L26" s="45" t="s">
         <v>123</v>
@@ -9682,14 +10346,14 @@
         <v>123</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L27" s="45" t="s">
         <v>123</v>
       </c>
       <c r="M27" s="45"/>
       <c r="N27" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -9724,7 +10388,7 @@
         <v>123</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L28" s="45" t="s">
         <v>123</v>
@@ -9763,13 +10427,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L29" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -9804,7 +10468,7 @@
         <v>123</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>123</v>
@@ -9812,7 +10476,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -9842,10 +10506,162 @@
         <v>489</v>
       </c>
       <c r="K31" t="s">
+        <v>576</v>
+      </c>
+      <c r="L31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B32" s="29">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B33" s="29">
+        <v>1</v>
+      </c>
+      <c r="C33" s="29">
+        <v>2</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="L31" t="s">
-        <v>74</v>
+      <c r="L33" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B34" s="29">
+        <v>1</v>
+      </c>
+      <c r="C34" s="29">
+        <v>3</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B35" s="29">
+        <v>1</v>
+      </c>
+      <c r="C35" s="29">
+        <v>4</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -9857,10 +10673,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9894,7 +10710,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>324</v>
@@ -9906,7 +10722,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -10032,7 +10848,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F4" s="80" t="s">
         <v>68</v>
@@ -10045,6 +10861,9 @@
       </c>
       <c r="I4" s="73" t="s">
         <v>123</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>668</v>
       </c>
       <c r="K4" s="73" t="s">
         <v>123</v>
@@ -10062,7 +10881,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10165,7 +10984,7 @@
         <v>74</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -10230,7 +11049,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>74</v>
@@ -10245,7 +11064,7 @@
         <v>123</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>123</v>
@@ -10276,6 +11095,114 @@
         <v>275</v>
       </c>
     </row>
+    <row r="8" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="M8" s="29">
+        <v>97818</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AK8" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AK9" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10284,15 +11211,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
@@ -10320,7 +11247,7 @@
         <v>105</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>340</v>
@@ -10415,7 +11342,7 @@
         <v>360</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>279</v>
@@ -10490,95 +11417,95 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="45">
-        <v>1</v>
-      </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="45" t="s">
+    <row r="3" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" s="45" t="s">
+      <c r="I3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10587,7 +11514,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="45">
         <v>1</v>
@@ -10599,7 +11526,7 @@
         <v>360</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>279</v>
@@ -10671,6 +11598,98 @@
         <v>74</v>
       </c>
       <c r="AD4" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="45">
+        <v>2</v>
+      </c>
+      <c r="C5" s="45">
+        <v>1</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="45" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10681,10 +11700,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10811,38 +11830,73 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="73">
-        <v>1</v>
-      </c>
-      <c r="C4" s="73">
-        <v>1</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="73" t="s">
+      <c r="B5" s="73">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73">
+        <v>1</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F5" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G5" s="73" t="s">
         <v>479</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H5" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="I4" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="73" t="s">
+      <c r="I5" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="73" t="s">
         <v>299</v>
       </c>
     </row>
@@ -10853,15 +11907,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E73BAA-EFCF-4B3C-AD92-E36A2F3DC9FA}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -11009,91 +12063,129 @@
       </c>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
         <v>374</v>
       </c>
-      <c r="F5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="S5" t="s">
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="S6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="78" t="s">
+    <row r="7" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78">
-        <v>1</v>
-      </c>
-      <c r="C6" s="78">
-        <v>1</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="73" t="s">
+      <c r="B7" s="78">
+        <v>1</v>
+      </c>
+      <c r="C7" s="78">
+        <v>1</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="F6" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="73" t="s">
+      <c r="F7" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="T6" s="78"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H7" s="6"/>
+      <c r="T7" s="78"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H10" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H12" s="6"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H11" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11438,8 +12530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11795,7 +12887,7 @@
         <v>479</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L3" s="52" t="s">
         <v>74</v>
@@ -11819,7 +12911,7 @@
         <v>123</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T3" s="52"/>
       <c r="U3" s="52"/>
@@ -11904,10 +12996,10 @@
         <v>279</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>74</v>
@@ -11931,7 +13023,7 @@
         <v>123</v>
       </c>
       <c r="S4" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T4" s="52"/>
       <c r="U4" s="52"/>
@@ -12016,10 +13108,10 @@
         <v>279</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>74</v>
@@ -12043,7 +13135,7 @@
         <v>123</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
@@ -12128,10 +13220,10 @@
         <v>279</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>74</v>
@@ -12155,7 +13247,7 @@
         <v>123</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T6" s="52"/>
       <c r="U6" s="52"/>
@@ -12243,7 +13335,7 @@
         <v>479</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L7" s="43" t="s">
         <v>74</v>
@@ -12267,7 +13359,7 @@
         <v>123</v>
       </c>
       <c r="S7" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T7" s="43" t="s">
         <v>124</v>
@@ -12557,7 +13649,7 @@
         <v>102</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="M9" s="78" t="s">
         <v>480</v>
@@ -12578,7 +13670,7 @@
         <v>123</v>
       </c>
       <c r="S9" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T9" s="78" t="s">
         <v>124</v>
@@ -12668,7 +13760,7 @@
         <v>479</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L10" s="29" t="s">
         <v>74</v>
@@ -12692,7 +13784,7 @@
         <v>123</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T10" s="29" t="s">
         <v>124</v>
@@ -12837,7 +13929,7 @@
     </row>
     <row r="11" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -12855,7 +13947,7 @@
         <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>478</v>
@@ -12867,7 +13959,7 @@
         <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>121</v>
@@ -13040,7 +14132,7 @@
     </row>
     <row r="12" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -13058,7 +14150,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>478</v>
@@ -13070,13 +14162,13 @@
         <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>489</v>
@@ -13273,7 +14365,7 @@
         <v>479</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>74</v>
@@ -13297,7 +14389,7 @@
         <v>123</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
@@ -13382,10 +14474,10 @@
         <v>279</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L14" s="29" t="s">
         <v>74</v>
@@ -13409,7 +14501,7 @@
         <v>123</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
@@ -13465,129 +14557,232 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-    </row>
-    <row r="16" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
+    <row r="15" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX15" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA15" s="29"/>
+      <c r="BB15" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE15" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF15" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX16" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA16" s="29"/>
+      <c r="BB16" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC16" s="29"/>
+      <c r="BD16" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE16" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF16" s="29" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="17" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -14290,15 +15485,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
-  <dimension ref="A1:AX23"/>
+  <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -14356,7 +15551,7 @@
         <v>423</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>424</v>
@@ -14380,10 +15575,10 @@
         <v>26</v>
       </c>
       <c r="N1" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>609</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>610</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>431</v>
@@ -14392,13 +15587,13 @@
         <v>107</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>420</v>
@@ -14464,7 +15659,7 @@
         <v>337</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AQ1" s="8" t="s">
         <v>271</v>
@@ -14484,7 +15679,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>477</v>
@@ -14502,7 +15697,7 @@
         <v>489</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>279</v>
@@ -14524,10 +15719,10 @@
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U2" s="29" t="s">
         <v>123</v>
@@ -14599,132 +15794,132 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="43">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="43" t="s">
+    <row r="3" spans="1:50" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>477</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>478</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>489</v>
-      </c>
-      <c r="K3" s="43" t="s">
+      <c r="L3" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="T3" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="L3" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43" t="s">
-        <v>583</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="U3" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="V3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ3" s="46" t="s">
+      <c r="U3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14736,13 +15931,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>477</v>
@@ -14760,7 +15955,7 @@
         <v>489</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>279</v>
@@ -14781,8 +15976,12 @@
         <v>123</v>
       </c>
       <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
+      <c r="S4" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>615</v>
+      </c>
       <c r="U4" s="43" t="s">
         <v>123</v>
       </c>
@@ -14850,7 +16049,7 @@
         <v>124</v>
       </c>
       <c r="AQ4" s="46" t="s">
-        <v>575</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -14858,16 +16057,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="43">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
       <c r="D5" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>477</v>
@@ -14885,7 +16084,7 @@
         <v>489</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>279</v>
@@ -14975,7 +16174,7 @@
         <v>124</v>
       </c>
       <c r="AQ5" s="46" t="s">
-        <v>275</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -14986,13 +16185,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>477</v>
@@ -15010,7 +16209,7 @@
         <v>489</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>279</v>
@@ -15100,208 +16299,252 @@
         <v>124</v>
       </c>
       <c r="AQ6" s="46" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43">
+        <v>2</v>
+      </c>
+      <c r="C7" s="43">
+        <v>2</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ7" s="46" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="8" t="s">
+      <c r="N8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7" t="s">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="6" t="s">
+      <c r="V8" s="7"/>
+      <c r="W8" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AA7" s="7" t="s">
+      <c r="AA8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AB8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AE8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AJ8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AK7" s="7" t="s">
+      <c r="AK8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AM7" s="7" t="s">
+      <c r="AM8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AN8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AO7" s="7" t="s">
+      <c r="AO8" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="62">
-        <v>1</v>
-      </c>
-      <c r="C8" s="62">
-        <v>1</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="N8" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>490</v>
-      </c>
-      <c r="P8" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q8" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62" t="s">
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="8" t="s">
         <v>275</v>
       </c>
     </row>
@@ -15313,13 +16556,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="62" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>492</v>
+        <v>613</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>477</v>
@@ -15331,7 +16574,7 @@
         <v>78</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>639</v>
@@ -15385,533 +16628,572 @@
       <c r="AQ9" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="AR9" s="62" t="s">
+    </row>
+    <row r="10" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="62">
+        <v>1</v>
+      </c>
+      <c r="C10" s="62">
+        <v>2</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>490</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q10" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR10" s="62" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="79" t="s">
+    <row r="11" spans="1:50" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="79">
-        <v>1</v>
-      </c>
-      <c r="C10" s="79">
-        <v>1</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="78" t="s">
+      <c r="B11" s="79">
+        <v>1</v>
+      </c>
+      <c r="C11" s="79">
+        <v>1</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>613</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>478</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="N11" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="82"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="L12" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ12" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+    </row>
+    <row r="13" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G13" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H13" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I13" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J13" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="K10" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="78" t="s">
+      <c r="K13" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="L13" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M13" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="N10" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="79" t="s">
+      <c r="N13" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="P10" s="78" t="s">
+      <c r="P13" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="Q10" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="V10" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="82"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79" t="s">
+      <c r="Q13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="T13" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="U13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="V13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ13" s="46" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="G11" s="29" t="s">
+    <row r="14" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="J11" s="29" t="s">
+      <c r="I14" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="L11" s="29" t="s">
+      <c r="J14" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="N11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="28" t="s">
+      <c r="N14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P14" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="Q11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>616</v>
-      </c>
-      <c r="U11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ11" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-    </row>
-    <row r="12" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="43">
-        <v>1</v>
-      </c>
-      <c r="C12" s="43">
-        <v>1</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>614</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>477</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>478</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>489</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q12" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43" t="s">
-        <v>583</v>
-      </c>
-      <c r="T12" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="U12" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="V12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ12" s="46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR13" s="7"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
+      <c r="Q14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR14" s="7"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -15933,7 +17215,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="5"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
@@ -15975,7 +17257,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="6"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
@@ -16059,7 +17341,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="5"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -16101,7 +17383,7 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="6"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
@@ -16123,7 +17405,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16207,7 +17489,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -16291,6 +17573,48 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
     </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16299,15 +17623,15 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
@@ -16333,40 +17657,40 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" t="s">
         <v>493</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>494</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>495</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J1" t="s">
+        <v>662</v>
+      </c>
+      <c r="K1" t="s">
         <v>496</v>
-      </c>
-      <c r="H1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J1" t="s">
-        <v>663</v>
-      </c>
-      <c r="K1" t="s">
-        <v>497</v>
       </c>
       <c r="L1" t="s">
         <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -16386,7 +17710,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>74</v>
@@ -16433,7 +17757,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>74</v>
@@ -16480,7 +17804,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>74</v>
@@ -16527,7 +17851,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>74</v>
@@ -16571,7 +17895,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>74</v>
@@ -16610,10 +17934,10 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G7" t="s">
         <v>500</v>
-      </c>
-      <c r="G7" t="s">
-        <v>501</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>74</v>
@@ -16645,10 +17969,10 @@
         <v>123</v>
       </c>
       <c r="F8" s="73" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>500</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>501</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>74</v>
@@ -16689,10 +18013,10 @@
         <v>123</v>
       </c>
       <c r="F9" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" t="s">
         <v>500</v>
-      </c>
-      <c r="G9" t="s">
-        <v>501</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>121</v>
@@ -16710,50 +18034,88 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    <row r="10" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" t="s">
         <v>500</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="71" t="s">
+      <c r="L11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16767,11 +18129,12 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -16801,67 +18164,67 @@
         <v>10</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="K1" s="39" t="s">
-        <v>589</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>588</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>620</v>
-      </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="Q1" s="39" t="s">
-        <v>591</v>
-      </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="S1" s="39" t="s">
-        <v>513</v>
-      </c>
       <c r="T1" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V1" s="39" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -16916,7 +18279,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>123</v>
@@ -16943,16 +18306,16 @@
         <v>123</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P3" s="57" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q3" s="57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R3" s="57" t="s">
         <v>68</v>
@@ -16964,7 +18327,7 @@
         <v>124</v>
       </c>
       <c r="U3" s="57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V3" s="57" t="s">
         <v>124</v>
@@ -16988,7 +18351,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>123</v>
@@ -17015,16 +18378,16 @@
         <v>123</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>68</v>
@@ -17036,7 +18399,7 @@
         <v>124</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V4" s="27" t="s">
         <v>124</v>
@@ -17060,7 +18423,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -17093,7 +18456,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>123</v>
@@ -17120,16 +18483,16 @@
         <v>123</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R6" s="43" t="s">
         <v>68</v>
@@ -17141,7 +18504,7 @@
         <v>124</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V6" s="43" t="s">
         <v>124</v>
@@ -17150,7 +18513,7 @@
         <v>124</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -17167,7 +18530,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>123</v>
@@ -17194,16 +18557,16 @@
         <v>123</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R7" s="43" t="s">
         <v>68</v>
@@ -17215,7 +18578,7 @@
         <v>124</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V7" s="43" t="s">
         <v>124</v>
@@ -17224,7 +18587,7 @@
         <v>124</v>
       </c>
       <c r="X7" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -17241,7 +18604,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>123</v>
@@ -17268,16 +18631,16 @@
         <v>123</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O8" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P8" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R8" s="43" t="s">
         <v>68</v>
@@ -17289,7 +18652,7 @@
         <v>124</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V8" s="43" t="s">
         <v>124</v>
@@ -17298,7 +18661,7 @@
         <v>124</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -17315,7 +18678,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>123</v>
@@ -17342,16 +18705,16 @@
         <v>123</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O9" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P9" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R9" s="43" t="s">
         <v>68</v>
@@ -17363,7 +18726,7 @@
         <v>124</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V9" s="43" t="s">
         <v>124</v>
@@ -17372,7 +18735,7 @@
         <v>124</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -17389,7 +18752,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>123</v>
@@ -17416,16 +18779,16 @@
         <v>123</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>68</v>
@@ -17437,7 +18800,7 @@
         <v>124</v>
       </c>
       <c r="U10" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V10" s="29" t="s">
         <v>124</v>
@@ -17446,7 +18809,7 @@
         <v>124</v>
       </c>
       <c r="X10" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -17523,14 +18886,225 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X14" s="1"/>
+    <row r="12" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="78">
+        <v>1</v>
+      </c>
+      <c r="C12" s="78">
+        <v>1</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q12" s="78" t="s">
+        <v>589</v>
+      </c>
+      <c r="R12" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" s="78" t="s">
+        <v>623</v>
+      </c>
+      <c r="V12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="78"/>
+    </row>
+    <row r="13" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="U14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="W14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X14" s="33" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X15" s="1"/>
@@ -17604,58 +19178,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" t="s">
         <v>516</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>517</v>
-      </c>
-      <c r="H1" t="s">
-        <v>518</v>
       </c>
       <c r="I1" t="s">
         <v>343</v>
       </c>
       <c r="J1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K1" t="s">
         <v>519</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>520</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>521</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>522</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>523</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q1" t="s">
         <v>524</v>
       </c>
-      <c r="P1" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>525</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>526</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>527</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>528</v>
-      </c>
-      <c r="U1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -17703,15 +19277,15 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
@@ -17738,46 +19312,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" t="s">
         <v>532</v>
-      </c>
-      <c r="G1" t="s">
-        <v>533</v>
       </c>
       <c r="H1" t="s">
         <v>390</v>
       </c>
       <c r="I1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1" t="s">
         <v>534</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>535</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>536</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>537</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>538</v>
-      </c>
-      <c r="N1" t="s">
-        <v>539</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q1" s="36" t="s">
         <v>540</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17847,7 +19421,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -17897,7 +19471,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -17947,7 +19521,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>74</v>
@@ -17980,7 +19554,7 @@
         <v>121</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18000,7 +19574,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>74</v>
@@ -18033,7 +19607,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18097,7 +19671,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>74</v>
@@ -18130,7 +19704,7 @@
         <v>121</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18150,7 +19724,7 @@
         <v>123</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>74</v>
@@ -18183,7 +19757,60 @@
         <v>121</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -18195,8 +19822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18218,28 +19845,28 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1" t="s">
         <v>543</v>
       </c>
-      <c r="F1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>544</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>545</v>
-      </c>
-      <c r="I1" t="s">
-        <v>546</v>
       </c>
       <c r="J1" t="s">
         <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -18274,12 +19901,12 @@
         <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>5</v>
+        <v>670</v>
       </c>
       <c r="B3" s="27">
         <v>1</v>
@@ -18306,10 +19933,10 @@
         <v>123</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -18322,7 +19949,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18342,34 +19969,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" t="s">
         <v>548</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>549</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>550</v>
-      </c>
-      <c r="G1" t="s">
-        <v>551</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" t="s">
         <v>552</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>553</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>554</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>555</v>
-      </c>
-      <c r="M1" t="s">
-        <v>556</v>
       </c>
       <c r="N1" t="s">
         <v>361</v>
@@ -18378,19 +20005,19 @@
         <v>362</v>
       </c>
       <c r="P1" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q1" t="s">
         <v>557</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>558</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>559</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>560</v>
-      </c>
-      <c r="T1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -18407,7 +20034,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>121</v>
@@ -18469,7 +20096,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>121</v>
@@ -18524,10 +20151,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18550,10 +20177,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
@@ -18579,10 +20206,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18599,10 +20226,10 @@
         <v>123</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18619,10 +20246,10 @@
         <v>123</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18639,10 +20266,10 @@
         <v>123</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18659,10 +20286,10 @@
         <v>123</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18679,10 +20306,10 @@
         <v>123</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18699,10 +20326,10 @@
         <v>123</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18719,10 +20346,10 @@
         <v>123</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.35">
@@ -18739,10 +20366,10 @@
         <v>123</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F10" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18759,15 +20386,15 @@
         <v>123</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -18779,10 +20406,30 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -18792,10 +20439,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18823,19 +20470,19 @@
         <v>344</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -19017,7 +20664,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -19041,6 +20688,35 @@
         <v>123</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>124</v>
       </c>
     </row>
@@ -19051,10 +20727,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19083,16 +20759,16 @@
         <v>344</v>
       </c>
       <c r="E1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" t="s">
         <v>569</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>570</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>571</v>
-      </c>
-      <c r="H1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -19253,7 +20929,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -19326,6 +21002,32 @@
         <v>74</v>
       </c>
       <c r="H10" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -19607,7 +21309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC6D06-F121-4D11-ACA2-226F1B1BAB15}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -19774,15 +21476,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
@@ -19878,10 +21580,10 @@
         <v>139</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>140</v>
@@ -19893,7 +21595,7 @@
         <v>141</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>142</v>
@@ -20021,7 +21723,7 @@
         <v>124</v>
       </c>
       <c r="AP4" s="56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20052,7 +21754,7 @@
         <v>124</v>
       </c>
       <c r="AP5" s="56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20081,7 +21783,7 @@
         <v>123</v>
       </c>
       <c r="T6" s="56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y6" s="60"/>
       <c r="AF6" s="61"/>
@@ -20089,7 +21791,7 @@
         <v>124</v>
       </c>
       <c r="AP6" s="56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20168,40 +21870,40 @@
         <v>66</v>
       </c>
       <c r="Y9" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z9" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AC9" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AD9" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AE9" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG9" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="AF9" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AI9" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AI9" s="6" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="AK9" s="18" t="s">
         <v>66</v>
@@ -20210,10 +21912,10 @@
         <v>66</v>
       </c>
       <c r="AM9" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AN9" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20239,7 +21941,7 @@
         <v>123</v>
       </c>
       <c r="T10" s="73" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y10" s="74"/>
     </row>
@@ -20319,13 +22021,13 @@
         <v>123</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AD13" s="34"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -20347,6 +22049,36 @@
       </c>
       <c r="I14" s="7"/>
       <c r="V14" s="69"/>
+    </row>
+    <row r="15" spans="1:42" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="27">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="AD15" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20355,10 +22087,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20572,7 +22304,7 @@
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
       <c r="G3" s="57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21020,25 +22752,25 @@
     </row>
     <row r="9" spans="1:33" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>5</v>
+        <v>670</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
       </c>
       <c r="C9" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>627</v>
+        <v>187</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>121</v>
@@ -21047,7 +22779,7 @@
         <v>121</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>121</v>
@@ -21097,30 +22829,100 @@
         <v>124</v>
       </c>
     </row>
+    <row r="10" spans="1:33" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="T6" r:id="rId2" xr:uid="{D4040358-CAD9-46FD-9A0A-595D44CD46FF}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{3A66DA18-74D6-460E-8063-FE02D3C74FEC}"/>
     <hyperlink ref="T8" r:id="rId4" xr:uid="{BAB2A804-5664-4AA4-BDBC-7044F3D835A4}"/>
-    <hyperlink ref="T9" r:id="rId5" xr:uid="{E46E3DF7-4CA2-46D2-BC7A-794B9D7BFD2F}"/>
+    <hyperlink ref="T10" r:id="rId5" xr:uid="{E46E3DF7-4CA2-46D2-BC7A-794B9D7BFD2F}"/>
+    <hyperlink ref="T9" r:id="rId6" xr:uid="{51E0D210-7392-4033-8A33-2A2C81A1798E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -21129,7 +22931,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -21346,17 +23148,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -21364,7 +23166,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21381,4 +23183,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F95A6-87C1-4792-B0D8-58AC89F4AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96871398-A689-46A4-A44A-2C4DF553AA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -12528,10 +12528,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BO26"/>
+  <dimension ref="A1:BO25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14673,6 +14673,9 @@
       <c r="A16" s="29" t="s">
         <v>670</v>
       </c>
+      <c r="B16" s="27">
+        <v>1</v>
+      </c>
       <c r="C16" s="29">
         <v>2</v>
       </c>
@@ -14780,9 +14783,7 @@
     </row>
     <row r="17" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -14806,7 +14807,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="11"/>
+      <c r="Z17" s="10"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -14866,7 +14867,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="10"/>
+      <c r="Z18" s="11"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -14986,7 +14987,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="11"/>
+      <c r="Z20" s="10"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -15046,7 +15047,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="10"/>
+      <c r="Z21" s="11"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -15320,66 +15321,6 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
-    <row r="26" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15487,18 +15428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
@@ -17405,7 +17346,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21309,7 +21250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC6D06-F121-4D11-ACA2-226F1B1BAB15}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -22932,6 +22873,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -23148,16 +23099,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
@@ -23167,6 +23108,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23183,14 +23134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96871398-A689-46A4-A44A-2C4DF553AA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A23FADA-CD57-4A4A-AD51-8E7368B6A4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -12530,8 +12530,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15428,7 +15430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -17567,7 +17569,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19221,7 +19223,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19763,16 +19765,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -19865,16 +19874,16 @@
         <v>123</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>123</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>546</v>
+        <v>121</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>546</v>
@@ -19882,6 +19891,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A23FADA-CD57-4A4A-AD51-8E7368B6A4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD8CDA-4C7F-4088-BC62-3438BBDC9EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -19766,7 +19766,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19880,7 +19880,7 @@
         <v>121</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>121</v>
@@ -22883,16 +22883,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -23109,6 +23099,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
@@ -23118,16 +23118,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23144,4 +23134,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD8CDA-4C7F-4088-BC62-3438BBDC9EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBFBAD-C72A-4D09-86B9-BA8D4E056072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -3142,7 +3142,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18072,7 +18072,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18995,7 +18995,7 @@
         <v>123</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>121</v>
@@ -19004,7 +19004,7 @@
         <v>121</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>121</v>
@@ -19765,8 +19765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21429,8 +21429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBFBAD-C72A-4D09-86B9-BA8D4E056072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420E4B1-3C91-47F7-BEC9-19E6C464F462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="671">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3138,11 +3138,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DH17"/>
+  <dimension ref="A1:DH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5688,229 +5688,180 @@
       <c r="DG10" s="29"/>
       <c r="DH10" s="29"/>
     </row>
-    <row r="11" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="43">
-        <v>1</v>
-      </c>
-      <c r="C11" s="43">
-        <v>1</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="43" t="s">
+    <row r="11" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28">
+        <v>3</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="43" t="s">
+      <c r="H11" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="T11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="U11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF11" s="43" t="s">
+      <c r="P11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="AG11" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS11" s="43"/>
-      <c r="AT11" s="43"/>
-      <c r="AU11" s="43"/>
-      <c r="AV11" s="43"/>
-      <c r="AW11" s="43"/>
-      <c r="AX11" s="43"/>
-      <c r="AY11" s="43"/>
-      <c r="AZ11" s="43"/>
-      <c r="BA11" s="43"/>
-      <c r="BB11" s="43"/>
-      <c r="BC11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD11" s="43"/>
-      <c r="BE11" s="43"/>
-      <c r="BF11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG11" s="43"/>
-      <c r="BH11" s="43"/>
-      <c r="BI11" s="43"/>
-      <c r="BJ11" s="43"/>
-      <c r="BK11" s="43"/>
-      <c r="BL11" s="43"/>
-      <c r="BM11" s="43"/>
-      <c r="BN11" s="43"/>
-      <c r="BO11" s="43"/>
-      <c r="BP11" s="43"/>
-      <c r="BQ11" s="43"/>
-      <c r="BR11" s="43"/>
-      <c r="BS11" s="43"/>
-      <c r="BT11" s="43"/>
-      <c r="BU11" s="43"/>
-      <c r="BV11" s="43"/>
-      <c r="BW11" s="43"/>
-      <c r="BX11" s="43"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="43"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="43"/>
-      <c r="CD11" s="43"/>
-      <c r="CE11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CF11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CI11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ11" s="43"/>
-      <c r="CK11" s="43"/>
-      <c r="CL11" s="43"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CR11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CS11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CT11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CU11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CV11" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="CW11" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX11" s="43"/>
-      <c r="CY11" s="43"/>
-      <c r="CZ11" s="43"/>
-      <c r="DA11" s="43"/>
-      <c r="DB11" s="43"/>
-      <c r="DC11" s="43"/>
-      <c r="DD11" s="43"/>
-      <c r="DE11" s="43"/>
-      <c r="DF11" s="43"/>
-      <c r="DG11" s="43"/>
-      <c r="DH11" s="43"/>
+      <c r="AG11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="28"/>
+      <c r="BK11" s="28"/>
+      <c r="BL11" s="28"/>
+      <c r="BM11" s="28"/>
+      <c r="BN11" s="28"/>
+      <c r="BO11" s="28"/>
+      <c r="BP11" s="28"/>
+      <c r="BQ11" s="28"/>
+      <c r="BR11" s="28"/>
+      <c r="BS11" s="28"/>
+      <c r="BT11" s="28"/>
+      <c r="BU11" s="28"/>
+      <c r="BV11" s="28"/>
+      <c r="BW11" s="28"/>
+      <c r="BX11" s="28"/>
+      <c r="BY11" s="28"/>
+      <c r="BZ11" s="28"/>
+      <c r="CA11" s="28"/>
+      <c r="CB11" s="28"/>
+      <c r="CC11" s="28"/>
+      <c r="CD11" s="28"/>
+      <c r="CE11" s="28"/>
+      <c r="CF11" s="28"/>
+      <c r="CG11" s="28"/>
+      <c r="CH11" s="28"/>
+      <c r="CI11" s="28"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="28"/>
+      <c r="CM11" s="28"/>
+      <c r="CN11" s="28"/>
+      <c r="CO11" s="28"/>
+      <c r="CP11" s="28"/>
+      <c r="CQ11" s="28"/>
+      <c r="CR11" s="28"/>
+      <c r="CS11" s="28"/>
+      <c r="CT11" s="28"/>
+      <c r="CU11" s="28"/>
     </row>
     <row r="12" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
@@ -5920,28 +5871,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>121</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K12" s="43" t="s">
         <v>74</v>
@@ -6004,7 +5955,7 @@
         <v>121</v>
       </c>
       <c r="AE12" s="43" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AF12" s="43" t="s">
         <v>274</v>
@@ -6018,9 +5969,7 @@
       <c r="AI12" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AJ12" s="43" t="s">
-        <v>123</v>
-      </c>
+      <c r="AJ12" s="43"/>
       <c r="AK12" s="14" t="s">
         <v>74</v>
       </c>
@@ -6028,7 +5977,7 @@
         <v>124</v>
       </c>
       <c r="AM12" s="43" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AN12" s="43" t="s">
         <v>124</v>
@@ -6036,162 +5985,72 @@
       <c r="AO12" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AP12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ12" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
       <c r="AR12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB12" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
       <c r="BC12" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="BD12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE12" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="BD12" s="43"/>
+      <c r="BE12" s="43"/>
       <c r="BF12" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="BG12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD12" s="43" t="s">
-        <v>124</v>
-      </c>
+      <c r="BG12" s="43"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="43"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
+      <c r="BL12" s="43"/>
+      <c r="BM12" s="43"/>
+      <c r="BN12" s="43"/>
+      <c r="BO12" s="43"/>
+      <c r="BP12" s="43"/>
+      <c r="BQ12" s="43"/>
+      <c r="BR12" s="43"/>
+      <c r="BS12" s="43"/>
+      <c r="BT12" s="43"/>
+      <c r="BU12" s="43"/>
+      <c r="BV12" s="43"/>
+      <c r="BW12" s="43"/>
+      <c r="BX12" s="43"/>
+      <c r="BY12" s="43"/>
+      <c r="BZ12" s="43"/>
+      <c r="CA12" s="43"/>
+      <c r="CB12" s="43"/>
+      <c r="CC12" s="43"/>
+      <c r="CD12" s="43"/>
       <c r="CE12" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CF12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG12" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CG12" s="43"/>
       <c r="CH12" s="43" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="CI12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO12" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CJ12" s="43"/>
+      <c r="CK12" s="43"/>
+      <c r="CL12" s="43"/>
+      <c r="CM12" s="43"/>
+      <c r="CN12" s="43"/>
+      <c r="CO12" s="43"/>
       <c r="CP12" s="43" t="s">
         <v>124</v>
       </c>
@@ -6233,31 +6092,31 @@
         <v>7</v>
       </c>
       <c r="B13" s="43">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43">
         <v>2</v>
       </c>
-      <c r="C13" s="43">
-        <v>1</v>
-      </c>
       <c r="D13" s="43" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>121</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K13" s="43" t="s">
         <v>74</v>
@@ -6320,7 +6179,7 @@
         <v>121</v>
       </c>
       <c r="AE13" s="43" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AF13" s="43" t="s">
         <v>274</v>
@@ -6334,7 +6193,9 @@
       <c r="AI13" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AJ13" s="43"/>
+      <c r="AJ13" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="AK13" s="14" t="s">
         <v>74</v>
       </c>
@@ -6342,7 +6203,7 @@
         <v>124</v>
       </c>
       <c r="AM13" s="43" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AN13" s="43" t="s">
         <v>124</v>
@@ -6350,72 +6211,162 @@
       <c r="AO13" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
+      <c r="AP13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ13" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="AR13" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS13" s="43"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="43"/>
-      <c r="AV13" s="43"/>
-      <c r="AW13" s="43"/>
-      <c r="AX13" s="43"/>
-      <c r="AY13" s="43"/>
-      <c r="AZ13" s="43"/>
-      <c r="BA13" s="43"/>
-      <c r="BB13" s="43"/>
+        <v>121</v>
+      </c>
+      <c r="AS13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB13" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="BC13" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="BD13" s="43"/>
-      <c r="BE13" s="43"/>
+      <c r="BD13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE13" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="BF13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="BG13" s="43"/>
-      <c r="BH13" s="43"/>
-      <c r="BI13" s="43"/>
-      <c r="BJ13" s="43"/>
-      <c r="BK13" s="43"/>
-      <c r="BL13" s="43"/>
-      <c r="BM13" s="43"/>
-      <c r="BN13" s="43"/>
-      <c r="BO13" s="43"/>
-      <c r="BP13" s="43"/>
-      <c r="BQ13" s="43"/>
-      <c r="BR13" s="43"/>
-      <c r="BS13" s="43"/>
-      <c r="BT13" s="43"/>
-      <c r="BU13" s="43"/>
-      <c r="BV13" s="43"/>
-      <c r="BW13" s="43"/>
-      <c r="BX13" s="43"/>
-      <c r="BY13" s="43"/>
-      <c r="BZ13" s="43"/>
-      <c r="CA13" s="43"/>
-      <c r="CB13" s="43"/>
-      <c r="CC13" s="43"/>
-      <c r="CD13" s="43"/>
+      <c r="BG13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD13" s="43" t="s">
+        <v>124</v>
+      </c>
       <c r="CE13" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CF13" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG13" s="43"/>
+        <v>121</v>
+      </c>
+      <c r="CG13" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="CH13" s="43" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="CI13" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ13" s="43"/>
-      <c r="CK13" s="43"/>
-      <c r="CL13" s="43"/>
-      <c r="CM13" s="43"/>
-      <c r="CN13" s="43"/>
-      <c r="CO13" s="43"/>
+        <v>121</v>
+      </c>
+      <c r="CJ13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO13" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="CP13" s="43" t="s">
         <v>124</v>
       </c>
@@ -6460,28 +6411,28 @@
         <v>2</v>
       </c>
       <c r="C14" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>121</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>74</v>
@@ -6544,7 +6495,7 @@
         <v>121</v>
       </c>
       <c r="AE14" s="43" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AF14" s="43" t="s">
         <v>274</v>
@@ -6558,9 +6509,7 @@
       <c r="AI14" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AJ14" s="43" t="s">
-        <v>123</v>
-      </c>
+      <c r="AJ14" s="43"/>
       <c r="AK14" s="14" t="s">
         <v>74</v>
       </c>
@@ -6568,7 +6517,7 @@
         <v>124</v>
       </c>
       <c r="AM14" s="43" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AN14" s="43" t="s">
         <v>124</v>
@@ -6576,162 +6525,72 @@
       <c r="AO14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AP14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ14" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
       <c r="AR14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB14" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
       <c r="BC14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="BD14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE14" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
       <c r="BF14" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="BG14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ14" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD14" s="43" t="s">
-        <v>124</v>
-      </c>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="43"/>
+      <c r="BO14" s="43"/>
+      <c r="BP14" s="43"/>
+      <c r="BQ14" s="43"/>
+      <c r="BR14" s="43"/>
+      <c r="BS14" s="43"/>
+      <c r="BT14" s="43"/>
+      <c r="BU14" s="43"/>
+      <c r="BV14" s="43"/>
+      <c r="BW14" s="43"/>
+      <c r="BX14" s="43"/>
+      <c r="BY14" s="43"/>
+      <c r="BZ14" s="43"/>
+      <c r="CA14" s="43"/>
+      <c r="CB14" s="43"/>
+      <c r="CC14" s="43"/>
+      <c r="CD14" s="43"/>
       <c r="CE14" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CF14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG14" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CG14" s="43"/>
       <c r="CH14" s="43" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="CI14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO14" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CJ14" s="43"/>
+      <c r="CK14" s="43"/>
+      <c r="CL14" s="43"/>
+      <c r="CM14" s="43"/>
+      <c r="CN14" s="43"/>
+      <c r="CO14" s="43"/>
       <c r="CP14" s="43" t="s">
         <v>124</v>
       </c>
@@ -6769,302 +6628,302 @@
       <c r="DH14" s="43"/>
     </row>
     <row r="15" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="51">
-        <v>1</v>
-      </c>
-      <c r="C15" s="51">
-        <v>1</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="51" t="s">
+      <c r="A15" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="43">
+        <v>2</v>
+      </c>
+      <c r="C15" s="43">
+        <v>2</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="P15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="51" t="s">
-        <v>663</v>
-      </c>
-      <c r="U15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="V15" s="51" t="s">
+      <c r="P15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="43" t="s">
         <v>74</v>
       </c>
       <c r="W15" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y15" s="51">
-        <v>97818</v>
-      </c>
-      <c r="Z15" s="51" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC15" s="51">
-        <v>9808765674</v>
-      </c>
-      <c r="AD15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="AG15" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI15" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ15" s="51" t="s">
+      <c r="AG15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI15" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ15" s="43" t="s">
         <v>123</v>
       </c>
       <c r="AK15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AL15" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU15" s="51" t="s">
-        <v>74</v>
+      <c r="AL15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ15" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CR15" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS15" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CT15" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CU15" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="CV15" s="46" t="s">
         <v>275</v>
@@ -7072,472 +6931,788 @@
       <c r="CW15" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="CX15" s="51"/>
-      <c r="CY15" s="51"/>
-      <c r="CZ15" s="51"/>
-      <c r="DA15" s="51"/>
-      <c r="DB15" s="51"/>
-      <c r="DC15" s="51"/>
-      <c r="DD15" s="51"/>
-      <c r="DE15" s="51"/>
-      <c r="DF15" s="51"/>
-      <c r="DG15" s="51"/>
-      <c r="DH15" s="51"/>
-    </row>
-    <row r="16" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="CX15" s="43"/>
+      <c r="CY15" s="43"/>
+      <c r="CZ15" s="43"/>
+      <c r="DA15" s="43"/>
+      <c r="DB15" s="43"/>
+      <c r="DC15" s="43"/>
+      <c r="DD15" s="43"/>
+      <c r="DE15" s="43"/>
+      <c r="DF15" s="43"/>
+      <c r="DG15" s="43"/>
+      <c r="DH15" s="43"/>
+    </row>
+    <row r="16" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="51">
+        <v>1</v>
+      </c>
+      <c r="C16" s="51">
+        <v>1</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="51" t="s">
+        <v>663</v>
+      </c>
+      <c r="U16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="V16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="X16" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y16" s="51">
+        <v>97818</v>
+      </c>
+      <c r="Z16" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC16" s="51">
+        <v>9808765674</v>
+      </c>
+      <c r="AD16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG16" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI16" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ16" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL16" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV16" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="CW16" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX16" s="51"/>
+      <c r="CY16" s="51"/>
+      <c r="CZ16" s="51"/>
+      <c r="DA16" s="51"/>
+      <c r="DB16" s="51"/>
+      <c r="DC16" s="51"/>
+      <c r="DD16" s="51"/>
+      <c r="DE16" s="51"/>
+      <c r="DF16" s="51"/>
+      <c r="DG16" s="51"/>
+      <c r="DH16" s="51"/>
+    </row>
+    <row r="17" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="I17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="T16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="U16" s="70" t="s">
+      <c r="T17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="70" t="s">
         <v>664</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA16" s="7" t="s">
+      <c r="V17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA17" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="AB16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE16" s="8" t="s">
+      <c r="AB17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AF16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU16" s="8" t="s">
+      <c r="AF17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU17" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="CV16" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:72" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75" t="s">
+      <c r="CV17" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:100" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="75">
-        <v>1</v>
-      </c>
-      <c r="C17" s="75">
-        <v>1</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="76" t="s">
+      <c r="B18" s="75">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75">
+        <v>1</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="G18" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H18" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="I17" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="76" t="s">
+      <c r="I18" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="P17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="S17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="W17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA17" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB17" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC17" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF17" s="76" t="s">
+      <c r="P18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA18" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB18" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC18" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="AG17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI17" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ17" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="76"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="76"/>
-      <c r="AX17" s="76"/>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="76"/>
-      <c r="BA17" s="76"/>
-      <c r="BB17" s="76"/>
-      <c r="BC17" s="76"/>
-      <c r="BD17" s="76"/>
-      <c r="BE17" s="76"/>
-      <c r="BF17" s="76"/>
-      <c r="BG17" s="76"/>
-      <c r="BH17" s="76"/>
-      <c r="BI17" s="76"/>
-      <c r="BJ17" s="76"/>
-      <c r="BK17" s="76"/>
-      <c r="BL17" s="76"/>
-      <c r="BM17" s="76"/>
-      <c r="BN17" s="76"/>
-      <c r="BO17" s="76"/>
-      <c r="BP17" s="76"/>
-      <c r="BQ17" s="76"/>
-      <c r="BR17" s="76"/>
-      <c r="BS17" s="76"/>
-      <c r="BT17" s="76"/>
+      <c r="AG18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI18" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ18" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK18" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="76"/>
+      <c r="BB18" s="76"/>
+      <c r="BC18" s="76"/>
+      <c r="BD18" s="76"/>
+      <c r="BE18" s="76"/>
+      <c r="BF18" s="76"/>
+      <c r="BG18" s="76"/>
+      <c r="BH18" s="76"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="76"/>
+      <c r="BK18" s="76"/>
+      <c r="BL18" s="76"/>
+      <c r="BM18" s="76"/>
+      <c r="BN18" s="76"/>
+      <c r="BO18" s="76"/>
+      <c r="BP18" s="76"/>
+      <c r="BQ18" s="76"/>
+      <c r="BR18" s="76"/>
+      <c r="BS18" s="76"/>
+      <c r="BT18" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U16" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
+    <hyperlink ref="U17" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
     <hyperlink ref="U8" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
     <hyperlink ref="U10" r:id="rId3" xr:uid="{55DB2D90-B964-4ECD-AB26-EE4C08025079}"/>
   </hyperlinks>
@@ -18069,10 +18244,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19049,8 +19224,79 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X15" s="1"/>
+    <row r="15" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X16" s="1"/>
@@ -19081,9 +19327,6 @@
     </row>
     <row r="25" spans="24:24" x14ac:dyDescent="0.35">
       <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21429,8 +21672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420E4B1-3C91-47F7-BEC9-19E6C464F462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2281CCC7-1BB9-438A-A4B1-E072B01178CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="672">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2081,6 +2081,9 @@
   </si>
   <si>
     <t>Residential/Home</t>
+  </si>
+  <si>
+    <t>HLWorkerContraCosta</t>
   </si>
   <si>
     <t>testT2901_1</t>
@@ -2282,7 +2285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2374,6 +2377,21 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3141,8 +3159,8 @@
   <dimension ref="A1:DH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5199,7 +5217,7 @@
     </row>
     <row r="9" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B9" s="28">
         <v>1</v>
@@ -5374,7 +5392,7 @@
     </row>
     <row r="10" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -5690,7 +5708,7 @@
     </row>
     <row r="11" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B11" s="28">
         <v>1</v>
@@ -7714,7 +7732,7 @@
   <hyperlinks>
     <hyperlink ref="U17" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
     <hyperlink ref="U8" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
-    <hyperlink ref="U10" r:id="rId3" xr:uid="{55DB2D90-B964-4ECD-AB26-EE4C08025079}"/>
+    <hyperlink ref="U10" r:id="rId3" xr:uid="{7F9C818D-DC01-43C9-B7E0-E8DACDA00BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -7725,8 +7743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9136,7 +9154,7 @@
     </row>
     <row r="34" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="66" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B34" s="66">
         <v>1</v>
@@ -9171,7 +9189,7 @@
     </row>
     <row r="35" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="66" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B35" s="66">
         <v>1</v>
@@ -9206,7 +9224,7 @@
     </row>
     <row r="36" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="66" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B36" s="66">
         <v>1</v>
@@ -9241,7 +9259,7 @@
     </row>
     <row r="37" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="66" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B37" s="66">
         <v>1</v>
@@ -9276,7 +9294,7 @@
     </row>
     <row r="38" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="66" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B38" s="27">
         <v>1</v>
@@ -9460,8 +9478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD37"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10689,7 +10707,7 @@
     </row>
     <row r="32" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B32" s="29">
         <v>1</v>
@@ -10727,7 +10745,7 @@
     </row>
     <row r="33" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
@@ -10765,7 +10783,7 @@
     </row>
     <row r="34" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B34" s="29">
         <v>1</v>
@@ -10803,7 +10821,7 @@
     </row>
     <row r="35" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B35" s="29">
         <v>1</v>
@@ -10851,10 +10869,13 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="25.54296875" style="86"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -10893,7 +10914,7 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="85" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -11046,10 +11067,13 @@
       <c r="L4" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="87">
         <v>97818</v>
       </c>
       <c r="N4" s="80"/>
+      <c r="O4" s="73" t="s">
+        <v>123</v>
+      </c>
       <c r="AK4" s="81" t="s">
         <v>275</v>
       </c>
@@ -11088,7 +11112,7 @@
       <c r="L5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="88">
         <v>97818</v>
       </c>
       <c r="N5" s="7"/>
@@ -11189,7 +11213,7 @@
       <c r="L6" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="89">
         <v>97818</v>
       </c>
       <c r="N6" s="29"/>
@@ -11247,7 +11271,7 @@
       <c r="L7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="89" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="29" t="s">
@@ -11272,7 +11296,7 @@
     </row>
     <row r="8" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -11320,7 +11344,7 @@
     </row>
     <row r="9" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
@@ -11389,12 +11413,12 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
@@ -11594,7 +11618,7 @@
     </row>
     <row r="3" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B3" s="27">
         <v>1</v>
@@ -11878,7 +11902,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12007,7 +12031,7 @@
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
@@ -12085,12 +12109,12 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -12240,7 +12264,7 @@
     </row>
     <row r="5" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
@@ -12703,12 +12727,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BO25"/>
+  <dimension ref="A1:BO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13823,7 +13845,7 @@
         <v>479</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>102</v>
+        <v>614</v>
       </c>
       <c r="L9" s="78" t="s">
         <v>74</v>
@@ -14736,7 +14758,7 @@
     </row>
     <row r="15" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B15" s="29">
         <v>1</v>
@@ -14848,7 +14870,7 @@
     </row>
     <row r="16" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B16" s="27">
         <v>1</v>
@@ -14984,7 +15006,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="10"/>
+      <c r="Z17" s="11"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -15044,7 +15066,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="11"/>
+      <c r="Z18" s="10"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -15164,7 +15186,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="10"/>
+      <c r="Z20" s="11"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -15224,7 +15246,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="11"/>
+      <c r="Z21" s="10"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -15498,6 +15520,66 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
+    <row r="26" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15606,17 +15688,17 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
@@ -15914,7 +15996,7 @@
     </row>
     <row r="3" spans="1:50" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -17523,7 +17605,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -17741,10 +17823,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18102,7 +18184,7 @@
         <v>74</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>103</v>
+        <v>670</v>
       </c>
       <c r="L8" s="73" t="s">
         <v>123</v>
@@ -18114,47 +18196,53 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29" t="s">
+    <row r="9" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="73">
+        <v>1</v>
+      </c>
+      <c r="C9" s="73">
+        <v>2</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="32" t="s">
+      <c r="H9" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>670</v>
+      </c>
+      <c r="L9" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>670</v>
+        <v>5</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -18190,64 +18278,103 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11" t="s">
+        <v>500</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>645</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="71" t="s">
+      <c r="L12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19078,7 +19205,7 @@
     </row>
     <row r="13" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B13" s="29">
         <v>1</v>
@@ -19152,7 +19279,7 @@
     </row>
     <row r="14" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B14" s="29">
         <v>1</v>
@@ -19226,7 +19353,7 @@
     </row>
     <row r="15" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B15" s="29">
         <v>1</v>
@@ -19327,6 +19454,9 @@
     </row>
     <row r="25" spans="24:24" x14ac:dyDescent="0.35">
       <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19466,7 +19596,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19948,7 +20078,7 @@
     </row>
     <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
@@ -20009,22 +20139,16 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -20099,7 +20223,7 @@
     </row>
     <row r="3" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B3" s="27">
         <v>1</v>
@@ -20134,7 +20258,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20143,7 +20266,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20348,7 +20471,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20608,7 +20731,7 @@
     </row>
     <row r="13" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B13" s="29">
         <v>1</v>
@@ -20636,7 +20759,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20887,7 +21010,7 @@
     </row>
     <row r="9" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
@@ -20923,8 +21046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21201,7 +21324,7 @@
     </row>
     <row r="11" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B11" s="29">
         <v>1</v>
@@ -21673,7 +21796,7 @@
   <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21911,6 +22034,12 @@
       <c r="G4" s="56" t="s">
         <v>123</v>
       </c>
+      <c r="S4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>624</v>
+      </c>
       <c r="Y4" s="60"/>
       <c r="AF4" s="61"/>
       <c r="AO4" s="56" t="s">
@@ -22219,60 +22348,60 @@
       </c>
       <c r="AD13" s="34"/>
     </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:42" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="AD14" s="34"/>
+    </row>
+    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>645</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="V14" s="69"/>
-    </row>
-    <row r="15" spans="1:42" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="B15" s="27">
-        <v>1</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>624</v>
-      </c>
-      <c r="AD15" s="34"/>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="V15" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22284,7 +22413,7 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22946,7 +23075,7 @@
     </row>
     <row r="9" spans="1:33" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
@@ -23025,7 +23154,7 @@
     </row>
     <row r="10" spans="1:33" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -23108,8 +23237,8 @@
     <hyperlink ref="T6" r:id="rId2" xr:uid="{D4040358-CAD9-46FD-9A0A-595D44CD46FF}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{3A66DA18-74D6-460E-8063-FE02D3C74FEC}"/>
     <hyperlink ref="T8" r:id="rId4" xr:uid="{BAB2A804-5664-4AA4-BDBC-7044F3D835A4}"/>
-    <hyperlink ref="T10" r:id="rId5" xr:uid="{E46E3DF7-4CA2-46D2-BC7A-794B9D7BFD2F}"/>
-    <hyperlink ref="T9" r:id="rId6" xr:uid="{51E0D210-7392-4033-8A33-2A2C81A1798E}"/>
+    <hyperlink ref="T10" r:id="rId5" xr:uid="{29A0B2AA-9D8B-4A11-8945-D938C1270490}"/>
+    <hyperlink ref="T9" r:id="rId6" xr:uid="{230F75B9-8B8B-4100-A4D9-7CAE88E6C3B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\31Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2281CCC7-1BB9-438A-A4B1-E072B01178CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117759C-DC71-4F69-9648-C36D918950B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="673">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2087,6 +2087,9 @@
   </si>
   <si>
     <t>testT2901_1</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2392,6 +2395,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3156,11 +3160,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DH18"/>
+  <dimension ref="A1:DH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4724,1386 +4728,1478 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:112" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="52">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="90" t="s">
+        <v>666</v>
+      </c>
+      <c r="V7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI7" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ7" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL7" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ7" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX7" s="52"/>
+      <c r="CY7" s="52"/>
+      <c r="CZ7" s="52"/>
+      <c r="DA7" s="52"/>
+      <c r="DB7" s="52"/>
+      <c r="DC7" s="52"/>
+      <c r="DD7" s="52"/>
+      <c r="DE7" s="52"/>
+      <c r="DF7" s="52"/>
+      <c r="DG7" s="52"/>
+      <c r="DH7" s="52"/>
+    </row>
+    <row r="8" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28">
-        <v>1</v>
-      </c>
-      <c r="C7" s="28">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G8" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H8" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="28" t="s">
+      <c r="I8" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF7" s="28" t="s">
+      <c r="P8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="AG7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ7" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="28"/>
-      <c r="BB7" s="28"/>
-      <c r="BC7" s="28"/>
-      <c r="BD7" s="28"/>
-      <c r="BE7" s="28"/>
-      <c r="BF7" s="28"/>
-      <c r="BG7" s="28"/>
-      <c r="BH7" s="28"/>
-      <c r="BI7" s="28"/>
-      <c r="BJ7" s="28"/>
-      <c r="BK7" s="28"/>
-      <c r="BL7" s="28"/>
-      <c r="BM7" s="28"/>
-      <c r="BN7" s="28"/>
-      <c r="BO7" s="28"/>
-      <c r="BP7" s="28"/>
-      <c r="BQ7" s="28"/>
-      <c r="BR7" s="28"/>
-      <c r="BS7" s="28"/>
-      <c r="BT7" s="28"/>
-      <c r="BU7" s="28"/>
-      <c r="BV7" s="28"/>
-      <c r="BW7" s="28"/>
-      <c r="BX7" s="28"/>
-      <c r="BY7" s="28"/>
-      <c r="BZ7" s="28"/>
-      <c r="CA7" s="28"/>
-      <c r="CB7" s="28"/>
-      <c r="CC7" s="28"/>
-      <c r="CD7" s="28"/>
-      <c r="CE7" s="28"/>
-      <c r="CF7" s="28"/>
-      <c r="CG7" s="28"/>
-      <c r="CH7" s="28"/>
-      <c r="CI7" s="28"/>
-      <c r="CJ7" s="28"/>
-      <c r="CK7" s="28"/>
-      <c r="CL7" s="28"/>
-      <c r="CM7" s="28"/>
-      <c r="CN7" s="28"/>
-      <c r="CO7" s="28"/>
-      <c r="CP7" s="28"/>
-      <c r="CQ7" s="28"/>
-      <c r="CR7" s="28"/>
-      <c r="CS7" s="28"/>
-      <c r="CT7" s="28"/>
-      <c r="CU7" s="28"/>
-    </row>
-    <row r="8" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="AG8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="28"/>
+      <c r="BN8" s="28"/>
+      <c r="BO8" s="28"/>
+      <c r="BP8" s="28"/>
+      <c r="BQ8" s="28"/>
+      <c r="BR8" s="28"/>
+      <c r="BS8" s="28"/>
+      <c r="BT8" s="28"/>
+      <c r="BU8" s="28"/>
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="28"/>
+      <c r="CB8" s="28"/>
+      <c r="CC8" s="28"/>
+      <c r="CD8" s="28"/>
+      <c r="CE8" s="28"/>
+      <c r="CF8" s="28"/>
+      <c r="CG8" s="28"/>
+      <c r="CH8" s="28"/>
+      <c r="CI8" s="28"/>
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="28"/>
+      <c r="CP8" s="28"/>
+      <c r="CQ8" s="28"/>
+      <c r="CR8" s="28"/>
+      <c r="CS8" s="28"/>
+      <c r="CT8" s="28"/>
+      <c r="CU8" s="28"/>
+    </row>
+    <row r="9" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U8" s="72" t="s">
+      <c r="D9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="72" t="s">
         <v>666</v>
       </c>
-      <c r="V8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF8" s="29" t="s">
+      <c r="V9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AG8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL8" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ8" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CP8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CV8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="CW8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX8" s="29"/>
-      <c r="CY8" s="29"/>
-      <c r="CZ8" s="29"/>
-      <c r="DA8" s="29"/>
-      <c r="DB8" s="29"/>
-      <c r="DC8" s="29"/>
-      <c r="DD8" s="29"/>
-      <c r="DE8" s="29"/>
-      <c r="DF8" s="29"/>
-      <c r="DG8" s="29"/>
-      <c r="DH8" s="29"/>
-    </row>
-    <row r="9" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="AG9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL9" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ9" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX9" s="29"/>
+      <c r="CY9" s="29"/>
+      <c r="CZ9" s="29"/>
+      <c r="DA9" s="29"/>
+      <c r="DB9" s="29"/>
+      <c r="DC9" s="29"/>
+      <c r="DD9" s="29"/>
+      <c r="DE9" s="29"/>
+      <c r="DF9" s="29"/>
+      <c r="DG9" s="29"/>
+      <c r="DH9" s="29"/>
+    </row>
+    <row r="10" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G10" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="28" t="s">
+      <c r="I10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF9" s="28" t="s">
+      <c r="P10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="AG9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28"/>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28"/>
-      <c r="BG9" s="28"/>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="28"/>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="28"/>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="28"/>
-      <c r="BO9" s="28"/>
-      <c r="BP9" s="28"/>
-      <c r="BQ9" s="28"/>
-      <c r="BR9" s="28"/>
-      <c r="BS9" s="28"/>
-      <c r="BT9" s="28"/>
-      <c r="BU9" s="28"/>
-      <c r="BV9" s="28"/>
-      <c r="BW9" s="28"/>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="28"/>
-      <c r="CA9" s="28"/>
-      <c r="CB9" s="28"/>
-      <c r="CC9" s="28"/>
-      <c r="CD9" s="28"/>
-      <c r="CE9" s="28"/>
-      <c r="CF9" s="28"/>
-      <c r="CG9" s="28"/>
-      <c r="CH9" s="28"/>
-      <c r="CI9" s="28"/>
-      <c r="CJ9" s="28"/>
-      <c r="CK9" s="28"/>
-      <c r="CL9" s="28"/>
-      <c r="CM9" s="28"/>
-      <c r="CN9" s="28"/>
-      <c r="CO9" s="28"/>
-      <c r="CP9" s="28"/>
-      <c r="CQ9" s="28"/>
-      <c r="CR9" s="28"/>
-      <c r="CS9" s="28"/>
-      <c r="CT9" s="28"/>
-      <c r="CU9" s="28"/>
-    </row>
-    <row r="10" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="AG10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="28"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="28"/>
+      <c r="BL10" s="28"/>
+      <c r="BM10" s="28"/>
+      <c r="BN10" s="28"/>
+      <c r="BO10" s="28"/>
+      <c r="BP10" s="28"/>
+      <c r="BQ10" s="28"/>
+      <c r="BR10" s="28"/>
+      <c r="BS10" s="28"/>
+      <c r="BT10" s="28"/>
+      <c r="BU10" s="28"/>
+      <c r="BV10" s="28"/>
+      <c r="BW10" s="28"/>
+      <c r="BX10" s="28"/>
+      <c r="BY10" s="28"/>
+      <c r="BZ10" s="28"/>
+      <c r="CA10" s="28"/>
+      <c r="CB10" s="28"/>
+      <c r="CC10" s="28"/>
+      <c r="CD10" s="28"/>
+      <c r="CE10" s="28"/>
+      <c r="CF10" s="28"/>
+      <c r="CG10" s="28"/>
+      <c r="CH10" s="28"/>
+      <c r="CI10" s="28"/>
+      <c r="CJ10" s="28"/>
+      <c r="CK10" s="28"/>
+      <c r="CL10" s="28"/>
+      <c r="CM10" s="28"/>
+      <c r="CN10" s="28"/>
+      <c r="CO10" s="28"/>
+      <c r="CP10" s="28"/>
+      <c r="CQ10" s="28"/>
+      <c r="CR10" s="28"/>
+      <c r="CS10" s="28"/>
+      <c r="CT10" s="28"/>
+      <c r="CU10" s="28"/>
+    </row>
+    <row r="11" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="72" t="s">
+      <c r="D11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="72" t="s">
         <v>666</v>
       </c>
-      <c r="V10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF10" s="29" t="s">
+      <c r="V11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AG10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CP10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="CV10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="CW10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX10" s="29"/>
-      <c r="CY10" s="29"/>
-      <c r="CZ10" s="29"/>
-      <c r="DA10" s="29"/>
-      <c r="DB10" s="29"/>
-      <c r="DC10" s="29"/>
-      <c r="DD10" s="29"/>
-      <c r="DE10" s="29"/>
-      <c r="DF10" s="29"/>
-      <c r="DG10" s="29"/>
-      <c r="DH10" s="29"/>
-    </row>
-    <row r="11" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
+      <c r="AG11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL11" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ11" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX11" s="29"/>
+      <c r="CY11" s="29"/>
+      <c r="CZ11" s="29"/>
+      <c r="DA11" s="29"/>
+      <c r="DB11" s="29"/>
+      <c r="DC11" s="29"/>
+      <c r="DD11" s="29"/>
+      <c r="DE11" s="29"/>
+      <c r="DF11" s="29"/>
+      <c r="DG11" s="29"/>
+      <c r="DH11" s="29"/>
+    </row>
+    <row r="12" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="B11" s="28">
-        <v>1</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28">
         <v>3</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F12" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G12" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H12" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="28" t="s">
+      <c r="I12" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF11" s="28" t="s">
+      <c r="P12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="AG11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="28"/>
-      <c r="BE11" s="28"/>
-      <c r="BF11" s="28"/>
-      <c r="BG11" s="28"/>
-      <c r="BH11" s="28"/>
-      <c r="BI11" s="28"/>
-      <c r="BJ11" s="28"/>
-      <c r="BK11" s="28"/>
-      <c r="BL11" s="28"/>
-      <c r="BM11" s="28"/>
-      <c r="BN11" s="28"/>
-      <c r="BO11" s="28"/>
-      <c r="BP11" s="28"/>
-      <c r="BQ11" s="28"/>
-      <c r="BR11" s="28"/>
-      <c r="BS11" s="28"/>
-      <c r="BT11" s="28"/>
-      <c r="BU11" s="28"/>
-      <c r="BV11" s="28"/>
-      <c r="BW11" s="28"/>
-      <c r="BX11" s="28"/>
-      <c r="BY11" s="28"/>
-      <c r="BZ11" s="28"/>
-      <c r="CA11" s="28"/>
-      <c r="CB11" s="28"/>
-      <c r="CC11" s="28"/>
-      <c r="CD11" s="28"/>
-      <c r="CE11" s="28"/>
-      <c r="CF11" s="28"/>
-      <c r="CG11" s="28"/>
-      <c r="CH11" s="28"/>
-      <c r="CI11" s="28"/>
-      <c r="CJ11" s="28"/>
-      <c r="CK11" s="28"/>
-      <c r="CL11" s="28"/>
-      <c r="CM11" s="28"/>
-      <c r="CN11" s="28"/>
-      <c r="CO11" s="28"/>
-      <c r="CP11" s="28"/>
-      <c r="CQ11" s="28"/>
-      <c r="CR11" s="28"/>
-      <c r="CS11" s="28"/>
-      <c r="CT11" s="28"/>
-      <c r="CU11" s="28"/>
-    </row>
-    <row r="12" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="43">
-        <v>1</v>
-      </c>
-      <c r="C12" s="43">
-        <v>1</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF12" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI12" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="43"/>
-      <c r="AX12" s="43"/>
-      <c r="AY12" s="43"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="43"/>
-      <c r="BB12" s="43"/>
-      <c r="BC12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD12" s="43"/>
-      <c r="BE12" s="43"/>
-      <c r="BF12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG12" s="43"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="43"/>
-      <c r="BJ12" s="43"/>
-      <c r="BK12" s="43"/>
-      <c r="BL12" s="43"/>
-      <c r="BM12" s="43"/>
-      <c r="BN12" s="43"/>
-      <c r="BO12" s="43"/>
-      <c r="BP12" s="43"/>
-      <c r="BQ12" s="43"/>
-      <c r="BR12" s="43"/>
-      <c r="BS12" s="43"/>
-      <c r="BT12" s="43"/>
-      <c r="BU12" s="43"/>
-      <c r="BV12" s="43"/>
-      <c r="BW12" s="43"/>
-      <c r="BX12" s="43"/>
-      <c r="BY12" s="43"/>
-      <c r="BZ12" s="43"/>
-      <c r="CA12" s="43"/>
-      <c r="CB12" s="43"/>
-      <c r="CC12" s="43"/>
-      <c r="CD12" s="43"/>
-      <c r="CE12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CF12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG12" s="43"/>
-      <c r="CH12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CI12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ12" s="43"/>
-      <c r="CK12" s="43"/>
-      <c r="CL12" s="43"/>
-      <c r="CM12" s="43"/>
-      <c r="CN12" s="43"/>
-      <c r="CO12" s="43"/>
-      <c r="CP12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CR12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CS12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CT12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CU12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CV12" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="CW12" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX12" s="43"/>
-      <c r="CY12" s="43"/>
-      <c r="CZ12" s="43"/>
-      <c r="DA12" s="43"/>
-      <c r="DB12" s="43"/>
-      <c r="DC12" s="43"/>
-      <c r="DD12" s="43"/>
-      <c r="DE12" s="43"/>
-      <c r="DF12" s="43"/>
-      <c r="DG12" s="43"/>
-      <c r="DH12" s="43"/>
+      <c r="AG12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="28"/>
+      <c r="BL12" s="28"/>
+      <c r="BM12" s="28"/>
+      <c r="BN12" s="28"/>
+      <c r="BO12" s="28"/>
+      <c r="BP12" s="28"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="28"/>
+      <c r="BS12" s="28"/>
+      <c r="BT12" s="28"/>
+      <c r="BU12" s="28"/>
+      <c r="BV12" s="28"/>
+      <c r="BW12" s="28"/>
+      <c r="BX12" s="28"/>
+      <c r="BY12" s="28"/>
+      <c r="BZ12" s="28"/>
+      <c r="CA12" s="28"/>
+      <c r="CB12" s="28"/>
+      <c r="CC12" s="28"/>
+      <c r="CD12" s="28"/>
+      <c r="CE12" s="28"/>
+      <c r="CF12" s="28"/>
+      <c r="CG12" s="28"/>
+      <c r="CH12" s="28"/>
+      <c r="CI12" s="28"/>
+      <c r="CJ12" s="28"/>
+      <c r="CK12" s="28"/>
+      <c r="CL12" s="28"/>
+      <c r="CM12" s="28"/>
+      <c r="CN12" s="28"/>
+      <c r="CO12" s="28"/>
+      <c r="CP12" s="28"/>
+      <c r="CQ12" s="28"/>
+      <c r="CR12" s="28"/>
+      <c r="CS12" s="28"/>
+      <c r="CT12" s="28"/>
+      <c r="CU12" s="28"/>
     </row>
     <row r="13" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
@@ -6113,28 +6209,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>121</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K13" s="43" t="s">
         <v>74</v>
@@ -6197,7 +6293,7 @@
         <v>121</v>
       </c>
       <c r="AE13" s="43" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AF13" s="43" t="s">
         <v>274</v>
@@ -6211,9 +6307,7 @@
       <c r="AI13" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AJ13" s="43" t="s">
-        <v>123</v>
-      </c>
+      <c r="AJ13" s="43"/>
       <c r="AK13" s="14" t="s">
         <v>74</v>
       </c>
@@ -6221,7 +6315,7 @@
         <v>124</v>
       </c>
       <c r="AM13" s="43" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AN13" s="43" t="s">
         <v>124</v>
@@ -6229,162 +6323,72 @@
       <c r="AO13" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AP13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ13" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
       <c r="AR13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB13" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="43"/>
       <c r="BC13" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="BD13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE13" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
       <c r="BF13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="BG13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ13" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD13" s="43" t="s">
-        <v>124</v>
-      </c>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="43"/>
+      <c r="BJ13" s="43"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="43"/>
+      <c r="BO13" s="43"/>
+      <c r="BP13" s="43"/>
+      <c r="BQ13" s="43"/>
+      <c r="BR13" s="43"/>
+      <c r="BS13" s="43"/>
+      <c r="BT13" s="43"/>
+      <c r="BU13" s="43"/>
+      <c r="BV13" s="43"/>
+      <c r="BW13" s="43"/>
+      <c r="BX13" s="43"/>
+      <c r="BY13" s="43"/>
+      <c r="BZ13" s="43"/>
+      <c r="CA13" s="43"/>
+      <c r="CB13" s="43"/>
+      <c r="CC13" s="43"/>
+      <c r="CD13" s="43"/>
       <c r="CE13" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CF13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG13" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CG13" s="43"/>
       <c r="CH13" s="43" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="CI13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO13" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CJ13" s="43"/>
+      <c r="CK13" s="43"/>
+      <c r="CL13" s="43"/>
+      <c r="CM13" s="43"/>
+      <c r="CN13" s="43"/>
+      <c r="CO13" s="43"/>
       <c r="CP13" s="43" t="s">
         <v>124</v>
       </c>
@@ -6426,31 +6430,31 @@
         <v>7</v>
       </c>
       <c r="B14" s="43">
+        <v>1</v>
+      </c>
+      <c r="C14" s="43">
         <v>2</v>
       </c>
-      <c r="C14" s="43">
-        <v>1</v>
-      </c>
       <c r="D14" s="43" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>121</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>74</v>
@@ -6513,7 +6517,7 @@
         <v>121</v>
       </c>
       <c r="AE14" s="43" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AF14" s="43" t="s">
         <v>274</v>
@@ -6527,7 +6531,9 @@
       <c r="AI14" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AJ14" s="43"/>
+      <c r="AJ14" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="AK14" s="14" t="s">
         <v>74</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>124</v>
       </c>
       <c r="AM14" s="43" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AN14" s="43" t="s">
         <v>124</v>
@@ -6543,72 +6549,162 @@
       <c r="AO14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
+      <c r="AP14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ14" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="AR14" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS14" s="43"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="43"/>
-      <c r="AX14" s="43"/>
-      <c r="AY14" s="43"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
-      <c r="BB14" s="43"/>
+        <v>121</v>
+      </c>
+      <c r="AS14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB14" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="BC14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="BD14" s="43"/>
-      <c r="BE14" s="43"/>
+      <c r="BD14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE14" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="BF14" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="BG14" s="43"/>
-      <c r="BH14" s="43"/>
-      <c r="BI14" s="43"/>
-      <c r="BJ14" s="43"/>
-      <c r="BK14" s="43"/>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="43"/>
-      <c r="BN14" s="43"/>
-      <c r="BO14" s="43"/>
-      <c r="BP14" s="43"/>
-      <c r="BQ14" s="43"/>
-      <c r="BR14" s="43"/>
-      <c r="BS14" s="43"/>
-      <c r="BT14" s="43"/>
-      <c r="BU14" s="43"/>
-      <c r="BV14" s="43"/>
-      <c r="BW14" s="43"/>
-      <c r="BX14" s="43"/>
-      <c r="BY14" s="43"/>
-      <c r="BZ14" s="43"/>
-      <c r="CA14" s="43"/>
-      <c r="CB14" s="43"/>
-      <c r="CC14" s="43"/>
-      <c r="CD14" s="43"/>
+      <c r="BG14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD14" s="43" t="s">
+        <v>124</v>
+      </c>
       <c r="CE14" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CF14" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG14" s="43"/>
+        <v>121</v>
+      </c>
+      <c r="CG14" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="CH14" s="43" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="CI14" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ14" s="43"/>
-      <c r="CK14" s="43"/>
-      <c r="CL14" s="43"/>
-      <c r="CM14" s="43"/>
-      <c r="CN14" s="43"/>
-      <c r="CO14" s="43"/>
+        <v>121</v>
+      </c>
+      <c r="CJ14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN14" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO14" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="CP14" s="43" t="s">
         <v>124</v>
       </c>
@@ -6653,28 +6749,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>121</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K15" s="43" t="s">
         <v>74</v>
@@ -6737,7 +6833,7 @@
         <v>121</v>
       </c>
       <c r="AE15" s="43" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AF15" s="43" t="s">
         <v>274</v>
@@ -6751,9 +6847,7 @@
       <c r="AI15" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AJ15" s="43" t="s">
-        <v>123</v>
-      </c>
+      <c r="AJ15" s="43"/>
       <c r="AK15" s="14" t="s">
         <v>74</v>
       </c>
@@ -6761,7 +6855,7 @@
         <v>124</v>
       </c>
       <c r="AM15" s="43" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AN15" s="43" t="s">
         <v>124</v>
@@ -6769,162 +6863,72 @@
       <c r="AO15" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AP15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ15" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
       <c r="AR15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB15" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
       <c r="BC15" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="BD15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE15" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
       <c r="BF15" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="BG15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ15" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD15" s="43" t="s">
-        <v>124</v>
-      </c>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="43"/>
+      <c r="BO15" s="43"/>
+      <c r="BP15" s="43"/>
+      <c r="BQ15" s="43"/>
+      <c r="BR15" s="43"/>
+      <c r="BS15" s="43"/>
+      <c r="BT15" s="43"/>
+      <c r="BU15" s="43"/>
+      <c r="BV15" s="43"/>
+      <c r="BW15" s="43"/>
+      <c r="BX15" s="43"/>
+      <c r="BY15" s="43"/>
+      <c r="BZ15" s="43"/>
+      <c r="CA15" s="43"/>
+      <c r="CB15" s="43"/>
+      <c r="CC15" s="43"/>
+      <c r="CD15" s="43"/>
       <c r="CE15" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CF15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG15" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CG15" s="43"/>
       <c r="CH15" s="43" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="CI15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO15" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="CJ15" s="43"/>
+      <c r="CK15" s="43"/>
+      <c r="CL15" s="43"/>
+      <c r="CM15" s="43"/>
+      <c r="CN15" s="43"/>
+      <c r="CO15" s="43"/>
       <c r="CP15" s="43" t="s">
         <v>124</v>
       </c>
@@ -6962,302 +6966,302 @@
       <c r="DH15" s="43"/>
     </row>
     <row r="16" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="51">
-        <v>1</v>
-      </c>
-      <c r="C16" s="51">
-        <v>1</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="51" t="s">
+      <c r="A16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="43">
+        <v>2</v>
+      </c>
+      <c r="C16" s="43">
+        <v>2</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="P16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" s="51" t="s">
-        <v>663</v>
-      </c>
-      <c r="U16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="51" t="s">
+      <c r="P16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="V16" s="43" t="s">
         <v>74</v>
       </c>
       <c r="W16" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="X16" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y16" s="51">
-        <v>97818</v>
-      </c>
-      <c r="Z16" s="51" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC16" s="51">
-        <v>9808765674</v>
-      </c>
-      <c r="AD16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="AG16" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI16" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ16" s="51" t="s">
+      <c r="AG16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI16" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ16" s="43" t="s">
         <v>123</v>
       </c>
       <c r="AK16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AL16" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU16" s="51" t="s">
-        <v>74</v>
+      <c r="AL16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ16" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CR16" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS16" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CT16" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="CU16" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="CV16" s="46" t="s">
         <v>275</v>
@@ -7265,477 +7269,794 @@
       <c r="CW16" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="CX16" s="51"/>
-      <c r="CY16" s="51"/>
-      <c r="CZ16" s="51"/>
-      <c r="DA16" s="51"/>
-      <c r="DB16" s="51"/>
-      <c r="DC16" s="51"/>
-      <c r="DD16" s="51"/>
-      <c r="DE16" s="51"/>
-      <c r="DF16" s="51"/>
-      <c r="DG16" s="51"/>
-      <c r="DH16" s="51"/>
-    </row>
-    <row r="17" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="CX16" s="43"/>
+      <c r="CY16" s="43"/>
+      <c r="CZ16" s="43"/>
+      <c r="DA16" s="43"/>
+      <c r="DB16" s="43"/>
+      <c r="DC16" s="43"/>
+      <c r="DD16" s="43"/>
+      <c r="DE16" s="43"/>
+      <c r="DF16" s="43"/>
+      <c r="DG16" s="43"/>
+      <c r="DH16" s="43"/>
+    </row>
+    <row r="17" spans="1:112" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="51">
+        <v>1</v>
+      </c>
+      <c r="C17" s="51">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>663</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y17" s="51">
+        <v>97818</v>
+      </c>
+      <c r="Z17" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC17" s="51">
+        <v>9808765674</v>
+      </c>
+      <c r="AD17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG17" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI17" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ17" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL17" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU17" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV17" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="CW17" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX17" s="51"/>
+      <c r="CY17" s="51"/>
+      <c r="CZ17" s="51"/>
+      <c r="DA17" s="51"/>
+      <c r="DB17" s="51"/>
+      <c r="DC17" s="51"/>
+      <c r="DD17" s="51"/>
+      <c r="DE17" s="51"/>
+      <c r="DF17" s="51"/>
+      <c r="DG17" s="51"/>
+      <c r="DH17" s="51"/>
+    </row>
+    <row r="18" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="I18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="T17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="70" t="s">
+      <c r="T18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="70" t="s">
         <v>664</v>
       </c>
-      <c r="V17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA17" s="7" t="s">
+      <c r="V18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA18" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="AB17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE17" s="8" t="s">
+      <c r="AB18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AF17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU17" s="8" t="s">
+      <c r="AF18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU18" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="CV17" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:100" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75" t="s">
+      <c r="CV18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:112" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="75">
-        <v>1</v>
-      </c>
-      <c r="C18" s="75">
-        <v>1</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="76" t="s">
+      <c r="B19" s="75">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75">
+        <v>1</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F19" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G19" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H19" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="I18" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="76" t="s">
+      <c r="I19" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="P18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="U18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="W18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="X18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA18" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB18" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC18" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF18" s="76" t="s">
+      <c r="P19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA19" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB19" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC19" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="AG18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI18" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ18" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="76"/>
-      <c r="BB18" s="76"/>
-      <c r="BC18" s="76"/>
-      <c r="BD18" s="76"/>
-      <c r="BE18" s="76"/>
-      <c r="BF18" s="76"/>
-      <c r="BG18" s="76"/>
-      <c r="BH18" s="76"/>
-      <c r="BI18" s="76"/>
-      <c r="BJ18" s="76"/>
-      <c r="BK18" s="76"/>
-      <c r="BL18" s="76"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="76"/>
-      <c r="BO18" s="76"/>
-      <c r="BP18" s="76"/>
-      <c r="BQ18" s="76"/>
-      <c r="BR18" s="76"/>
-      <c r="BS18" s="76"/>
-      <c r="BT18" s="76"/>
+      <c r="AG19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI19" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ19" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
+      <c r="AZ19" s="76"/>
+      <c r="BA19" s="76"/>
+      <c r="BB19" s="76"/>
+      <c r="BC19" s="76"/>
+      <c r="BD19" s="76"/>
+      <c r="BE19" s="76"/>
+      <c r="BF19" s="76"/>
+      <c r="BG19" s="76"/>
+      <c r="BH19" s="76"/>
+      <c r="BI19" s="76"/>
+      <c r="BJ19" s="76"/>
+      <c r="BK19" s="76"/>
+      <c r="BL19" s="76"/>
+      <c r="BM19" s="76"/>
+      <c r="BN19" s="76"/>
+      <c r="BO19" s="76"/>
+      <c r="BP19" s="76"/>
+      <c r="BQ19" s="76"/>
+      <c r="BR19" s="76"/>
+      <c r="BS19" s="76"/>
+      <c r="BT19" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U17" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
-    <hyperlink ref="U8" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
-    <hyperlink ref="U10" r:id="rId3" xr:uid="{7F9C818D-DC01-43C9-B7E0-E8DACDA00BF4}"/>
+    <hyperlink ref="U18" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
+    <hyperlink ref="U9" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
+    <hyperlink ref="U11" r:id="rId3" xr:uid="{7F9C818D-DC01-43C9-B7E0-E8DACDA00BF4}"/>
+    <hyperlink ref="U7" r:id="rId4" xr:uid="{9E569743-73DA-48A0-8EAD-437F898DC7D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9478,8 +9799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12730,7 +13051,7 @@
   <dimension ref="A1:BO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17605,7 +17926,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21046,20 +21367,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -23246,15 +23567,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -23471,6 +23783,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -23482,14 +23803,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23508,6 +23821,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\31Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117759C-DC71-4F69-9648-C36D918950B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B3DDE-76FD-43A3-AC81-770BDC2711E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="679">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2005,9 +2005,6 @@
     <t>SEARCH</t>
   </si>
   <si>
-    <t>SCR_ID</t>
-  </si>
-  <si>
     <t>testT4250</t>
   </si>
   <si>
@@ -2083,13 +2080,34 @@
     <t>Residential/Home</t>
   </si>
   <si>
-    <t>HLWorkerContraCosta</t>
-  </si>
-  <si>
     <t>testT2901_1</t>
   </si>
   <si>
-    <t>s</t>
+    <t>FOLIO_ID1</t>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+  </si>
+  <si>
+    <t>testT4244</t>
+  </si>
+  <si>
+    <t>Auto_Hotline Supervisor1 Contra Costa</t>
+  </si>
+  <si>
+    <t>County Specific</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral Information.pdf</t>
+  </si>
+  <si>
+    <t>PROVIDERSEARCH</t>
+  </si>
+  <si>
+    <t>testT2926_COPY</t>
   </si>
 </sst>
 </file>
@@ -2204,7 +2222,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2259,6 +2277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2288,7 +2312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2396,6 +2420,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3160,11 +3192,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DH19"/>
+  <dimension ref="A1:DH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3204,7 +3236,7 @@
     <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.26953125" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
     <col min="38" max="38" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="25.81640625" bestFit="1" customWidth="1"/>
@@ -4790,7 +4822,7 @@
         <v>74</v>
       </c>
       <c r="U7" s="90" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V7" s="52" t="s">
         <v>74</v>
@@ -5051,8 +5083,8 @@
       <c r="B8" s="28">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>672</v>
+      <c r="C8" s="28">
+        <v>1</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>123</v>
@@ -5281,7 +5313,7 @@
         <v>74</v>
       </c>
       <c r="U9" s="72" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V9" s="29" t="s">
         <v>74</v>
@@ -5537,7 +5569,7 @@
     </row>
     <row r="10" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B10" s="28">
         <v>1</v>
@@ -5712,7 +5744,7 @@
     </row>
     <row r="11" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B11" s="29">
         <v>1</v>
@@ -5772,7 +5804,7 @@
         <v>74</v>
       </c>
       <c r="U11" s="72" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V11" s="29" t="s">
         <v>74</v>
@@ -6028,7 +6060,7 @@
     </row>
     <row r="12" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B12" s="28">
         <v>1</v>
@@ -7340,7 +7372,7 @@
         <v>74</v>
       </c>
       <c r="T17" s="51" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="U17" s="51" t="s">
         <v>74</v>
@@ -7358,7 +7390,7 @@
         <v>97818</v>
       </c>
       <c r="Z17" s="51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AA17" s="51" t="s">
         <v>74</v>
@@ -7599,7 +7631,7 @@
     </row>
     <row r="18" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -7620,34 +7652,34 @@
         <v>78</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>298</v>
@@ -7659,7 +7691,7 @@
         <v>74</v>
       </c>
       <c r="U18" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>74</v>
@@ -7677,7 +7709,7 @@
         <v>74</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AB18" s="8" t="s">
         <v>121</v>
@@ -8047,6 +8079,638 @@
       <c r="BS19" s="76"/>
       <c r="BT19" s="76"/>
     </row>
+    <row r="20" spans="1:112" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B20" s="91">
+        <v>1</v>
+      </c>
+      <c r="C20" s="91">
+        <v>1</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG20" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI20" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ20" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK20" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL20" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU20" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV20" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW20" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX20" s="91"/>
+      <c r="CY20" s="91"/>
+      <c r="CZ20" s="91"/>
+      <c r="DA20" s="91"/>
+      <c r="DB20" s="91"/>
+      <c r="DC20" s="91"/>
+      <c r="DD20" s="91"/>
+      <c r="DE20" s="91"/>
+      <c r="DF20" s="91"/>
+      <c r="DG20" s="91"/>
+      <c r="DH20" s="91"/>
+    </row>
+    <row r="21" spans="1:112" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B21" s="91">
+        <v>2</v>
+      </c>
+      <c r="C21" s="91">
+        <v>1</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="P21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="S21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="V21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG21" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI21" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ21" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK21" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL21" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV21" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW21" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX21" s="91"/>
+      <c r="CY21" s="91"/>
+      <c r="CZ21" s="91"/>
+      <c r="DA21" s="91"/>
+      <c r="DB21" s="91"/>
+      <c r="DC21" s="91"/>
+      <c r="DD21" s="91"/>
+      <c r="DE21" s="91"/>
+      <c r="DF21" s="91"/>
+      <c r="DG21" s="91"/>
+      <c r="DH21" s="91"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8062,10 +8726,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="F26" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8081,12 +8745,12 @@
     <col min="11" max="11" width="20.453125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" customWidth="1"/>
     <col min="15" max="15" width="24.81640625" customWidth="1"/>
-    <col min="16" max="16" width="24.26953125" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="18" width="19.453125" customWidth="1"/>
-    <col min="19" max="19" width="21.7265625" customWidth="1"/>
+    <col min="19" max="19" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -8109,7 +8773,7 @@
         <v>286</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>107</v>
@@ -9410,7 +10074,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -9419,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E33" t="s">
         <v>298</v>
@@ -9475,7 +10139,7 @@
     </row>
     <row r="34" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B34" s="66">
         <v>1</v>
@@ -9510,7 +10174,7 @@
     </row>
     <row r="35" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B35" s="66">
         <v>1</v>
@@ -9545,7 +10209,7 @@
     </row>
     <row r="36" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B36" s="66">
         <v>1</v>
@@ -9580,7 +10244,7 @@
     </row>
     <row r="37" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B37" s="66">
         <v>1</v>
@@ -9615,7 +10279,7 @@
     </row>
     <row r="38" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B38" s="27">
         <v>1</v>
@@ -9643,6 +10307,266 @@
       </c>
       <c r="J38" s="28" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="92" t="s">
+        <v>672</v>
+      </c>
+      <c r="B39" s="92">
+        <v>1</v>
+      </c>
+      <c r="C39" s="92">
+        <v>1</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="N39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="O39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="R39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="S39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="T39" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="U39" s="92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="92" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40" s="92">
+        <v>1</v>
+      </c>
+      <c r="C40" s="92">
+        <v>2</v>
+      </c>
+      <c r="D40" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="R40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="S40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="T40" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="U40" s="92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="92" t="s">
+        <v>672</v>
+      </c>
+      <c r="B41" s="92">
+        <v>2</v>
+      </c>
+      <c r="C41" s="92">
+        <v>1</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="L41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="R41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="S41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="T41" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="U41" s="92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="92" t="s">
+        <v>672</v>
+      </c>
+      <c r="B42" s="92">
+        <v>2</v>
+      </c>
+      <c r="C42" s="92">
+        <v>2</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="R42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="S42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="T42" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="U42" s="92" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -9711,7 +10635,7 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P1" t="s">
         <v>549</v>
@@ -9742,7 +10666,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9797,10 +10721,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10990,7 +11916,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -11028,7 +11954,7 @@
     </row>
     <row r="32" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B32" s="29">
         <v>1</v>
@@ -11066,7 +11992,7 @@
     </row>
     <row r="33" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
@@ -11104,7 +12030,7 @@
     </row>
     <row r="34" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B34" s="29">
         <v>1</v>
@@ -11142,7 +12068,7 @@
     </row>
     <row r="35" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B35" s="29">
         <v>1</v>
@@ -11175,6 +12101,158 @@
         <v>579</v>
       </c>
       <c r="L35" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B36" s="91">
+        <v>1</v>
+      </c>
+      <c r="C36" s="91">
+        <v>1</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="93" t="s">
+        <v>318</v>
+      </c>
+      <c r="H36" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="93" t="s">
+        <v>576</v>
+      </c>
+      <c r="L36" s="93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B37" s="91">
+        <v>1</v>
+      </c>
+      <c r="C37" s="91">
+        <v>2</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="93" t="s">
+        <v>577</v>
+      </c>
+      <c r="L37" s="93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B38" s="91">
+        <v>2</v>
+      </c>
+      <c r="C38" s="91">
+        <v>1</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="93" t="s">
+        <v>318</v>
+      </c>
+      <c r="H38" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="93" t="s">
+        <v>576</v>
+      </c>
+      <c r="L38" s="93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B39" s="91">
+        <v>2</v>
+      </c>
+      <c r="C39" s="91">
+        <v>2</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="H39" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="93" t="s">
+        <v>577</v>
+      </c>
+      <c r="L39" s="93" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11187,10 +12265,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11227,7 +12305,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>324</v>
@@ -11365,7 +12443,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F4" s="80" t="s">
         <v>68</v>
@@ -11380,7 +12458,7 @@
         <v>123</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K4" s="73" t="s">
         <v>123</v>
@@ -11401,7 +12479,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11504,7 +12582,7 @@
         <v>74</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -11569,7 +12647,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>74</v>
@@ -11584,7 +12662,7 @@
         <v>123</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>123</v>
@@ -11617,7 +12695,7 @@
     </row>
     <row r="8" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -11665,7 +12743,7 @@
     </row>
     <row r="9" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
@@ -11677,7 +12755,7 @@
         <v>74</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>74</v>
@@ -11692,7 +12770,7 @@
         <v>123</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>123</v>
@@ -11723,6 +12801,232 @@
         <v>275</v>
       </c>
     </row>
+    <row r="10" spans="1:37" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B10" s="93">
+        <v>1</v>
+      </c>
+      <c r="C10" s="93">
+        <v>1</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="M10" s="93">
+        <v>97818</v>
+      </c>
+      <c r="N10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B11" s="93">
+        <v>2</v>
+      </c>
+      <c r="C11" s="93">
+        <v>1</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="M11" s="93">
+        <v>97818</v>
+      </c>
+      <c r="N11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK11" s="93" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11731,10 +13035,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11939,7 +13243,7 @@
     </row>
     <row r="3" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B3" s="27">
         <v>1</v>
@@ -12210,6 +13514,190 @@
         <v>74</v>
       </c>
       <c r="AD5" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" s="93">
+        <v>1</v>
+      </c>
+      <c r="C6" s="93">
+        <v>1</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>673</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>478</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD6" s="93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" s="93">
+        <v>2</v>
+      </c>
+      <c r="C7" s="93">
+        <v>1</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>673</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>478</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD7" s="93" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12220,10 +13708,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12238,7 +13726,7 @@
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12352,7 +13840,7 @@
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
@@ -12418,6 +13906,82 @@
       </c>
       <c r="K5" s="73" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" s="93">
+        <v>1</v>
+      </c>
+      <c r="C6" s="93">
+        <v>1</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>479</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>489</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" s="93">
+        <v>2</v>
+      </c>
+      <c r="C7" s="93">
+        <v>1</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>479</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>489</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -12430,7 +13994,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12453,7 +14017,7 @@
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -12585,7 +14149,7 @@
     </row>
     <row r="5" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
@@ -12686,11 +14250,123 @@
       </c>
       <c r="T7" s="78"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H9" s="5"/>
+    <row r="8" spans="1:20" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B8" s="93">
+        <v>1</v>
+      </c>
+      <c r="C8" s="93">
+        <v>1</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B9" s="93">
+        <v>2</v>
+      </c>
+      <c r="C9" s="93">
+        <v>1</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="94" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H10" s="6"/>
@@ -13050,8 +14726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13059,9 +14735,9 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="17" max="17" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" customWidth="1"/>
-    <col min="20" max="20" width="10.26953125" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" customWidth="1"/>
     <col min="21" max="21" width="38.81640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14449,7 +16125,7 @@
     </row>
     <row r="11" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -14467,7 +16143,7 @@
         <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>478</v>
@@ -14479,7 +16155,7 @@
         <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>121</v>
@@ -14652,7 +16328,7 @@
     </row>
     <row r="12" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -14670,7 +16346,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>478</v>
@@ -14682,13 +16358,13 @@
         <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>489</v>
@@ -15079,7 +16755,7 @@
     </row>
     <row r="15" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B15" s="29">
         <v>1</v>
@@ -15191,7 +16867,7 @@
     </row>
     <row r="16" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B16" s="27">
         <v>1</v>
@@ -15301,187 +16977,616 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-    </row>
-    <row r="18" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-    </row>
-    <row r="19" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-    </row>
-    <row r="20" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" s="93" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" s="91">
+        <v>1</v>
+      </c>
+      <c r="C17" s="91">
+        <v>1</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>653</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="J17" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="K17" s="91" t="s">
+        <v>654</v>
+      </c>
+      <c r="L17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="91" t="s">
+        <v>480</v>
+      </c>
+      <c r="N17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="P17" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q17" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO17" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" s="93" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B18" s="91">
+        <v>2</v>
+      </c>
+      <c r="C18" s="91">
+        <v>1</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>653</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="J18" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="K18" s="91" t="s">
+        <v>654</v>
+      </c>
+      <c r="L18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="91" t="s">
+        <v>480</v>
+      </c>
+      <c r="N18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="P18" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q18" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="R18" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO18" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K19" s="91" t="s">
+        <v>654</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -15541,7 +17646,7 @@
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
-    <row r="21" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -15601,7 +17706,7 @@
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
-    <row r="22" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -15661,7 +17766,7 @@
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
-    <row r="23" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -15721,7 +17826,7 @@
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
     </row>
-    <row r="24" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -15781,7 +17886,7 @@
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
     </row>
-    <row r="25" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -15841,7 +17946,7 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
-    <row r="26" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -16008,8 +18113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16018,7 +18123,7 @@
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
@@ -16055,7 +18160,7 @@
     <col min="40" max="40" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -16317,7 +18422,7 @@
     </row>
     <row r="3" spans="1:50" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -17069,7 +19174,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" s="56" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
@@ -17150,7 +19255,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" s="56" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="62" t="s">
         <v>6</v>
       </c>
@@ -17234,7 +19339,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" s="73" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
@@ -17319,7 +19424,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
@@ -17586,7 +19691,7 @@
     </row>
     <row r="14" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -17598,10 +19703,10 @@
         <v>123</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>658</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>478</v>
@@ -17716,91 +19821,271 @@
       </c>
       <c r="AR14" s="7"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" s="93" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B15" s="91">
+        <v>1</v>
+      </c>
+      <c r="C15" s="91">
+        <v>1</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>613</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>477</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="J15" s="91" t="s">
+        <v>489</v>
+      </c>
+      <c r="K15" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="L15" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="N15" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="P15" s="91" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q15" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="R15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR15" s="91"/>
+    </row>
+    <row r="16" spans="1:50" s="93" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B16" s="91">
+        <v>2</v>
+      </c>
+      <c r="C16" s="91">
+        <v>1</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>613</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>477</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="H16" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="J16" s="91" t="s">
+        <v>489</v>
+      </c>
+      <c r="K16" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="L16" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="M16" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="N16" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="P16" s="91" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR16" s="91"/>
+    </row>
+    <row r="17" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -17842,7 +20127,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -17884,7 +20169,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -18144,10 +20429,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18193,10 +20478,10 @@
         <v>549</v>
       </c>
       <c r="I1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J1" t="s">
         <v>661</v>
-      </c>
-      <c r="J1" t="s">
-        <v>662</v>
       </c>
       <c r="K1" t="s">
         <v>496</v>
@@ -18495,17 +20780,17 @@
       <c r="G8" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="H8" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="73" t="s">
-        <v>74</v>
+      <c r="H8" s="78" t="s">
+        <v>618</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>658</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>659</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>670</v>
+        <v>103</v>
       </c>
       <c r="L8" s="73" t="s">
         <v>123</v>
@@ -18517,53 +20802,49 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="73">
-        <v>1</v>
-      </c>
-      <c r="C9" s="73">
-        <v>2</v>
-      </c>
-      <c r="D9" s="78" t="s">
+    <row r="9" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" t="s">
         <v>500</v>
       </c>
-      <c r="H9" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="78" t="s">
-        <v>670</v>
-      </c>
-      <c r="L9" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" s="83" t="s">
-        <v>299</v>
-      </c>
+      <c r="H9" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>5</v>
+        <v>669</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -18599,88 +20880,144 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="32" t="s">
+      <c r="H11" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>645</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B12" s="93">
+        <v>1</v>
+      </c>
+      <c r="C12" s="93">
+        <v>1</v>
+      </c>
+      <c r="D12" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="93" t="s">
         <v>499</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="93" t="s">
         <v>500</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="91" t="s">
         <v>618</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="91" t="s">
+        <v>658</v>
+      </c>
+      <c r="J12" s="91" t="s">
         <v>659</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="L12" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="93">
+        <v>2</v>
+      </c>
+      <c r="C13" s="93">
+        <v>1</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>500</v>
+      </c>
+      <c r="H13" s="91" t="s">
+        <v>618</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>658</v>
+      </c>
+      <c r="J13" s="91" t="s">
+        <v>659</v>
+      </c>
+      <c r="K13" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="91" t="s">
         <v>74</v>
       </c>
     </row>
@@ -18694,8 +21031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19318,7 +21655,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>513</v>
+        <v>676</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>123</v>
@@ -19526,7 +21863,7 @@
     </row>
     <row r="13" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B13" s="29">
         <v>1</v>
@@ -19600,7 +21937,7 @@
     </row>
     <row r="14" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B14" s="29">
         <v>1</v>
@@ -19674,7 +22011,7 @@
     </row>
     <row r="15" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B15" s="29">
         <v>1</v>
@@ -19746,37 +22083,179 @@
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B16" s="91">
+        <v>1</v>
+      </c>
+      <c r="C16" s="91">
+        <v>1</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="91" t="s">
+        <v>500</v>
+      </c>
+      <c r="O16" s="91" t="s">
+        <v>674</v>
+      </c>
+      <c r="P16" s="91" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="91" t="s">
+        <v>623</v>
+      </c>
+      <c r="V16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="W16" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" s="91">
+        <v>2</v>
+      </c>
+      <c r="C17" s="91">
+        <v>1</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="91" t="s">
+        <v>500</v>
+      </c>
+      <c r="O17" s="91" t="s">
+        <v>674</v>
+      </c>
+      <c r="P17" s="91" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="T17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="91" t="s">
+        <v>623</v>
+      </c>
+      <c r="V17" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="W17" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X26" s="1"/>
     </row>
   </sheetData>
@@ -19917,7 +22396,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20399,7 +22878,7 @@
     </row>
     <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
@@ -20460,7 +22939,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20544,7 +23023,7 @@
     </row>
     <row r="3" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B3" s="27">
         <v>1</v>
@@ -20579,6 +23058,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20789,10 +23269,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20800,7 +23280,7 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" customWidth="1"/>
+    <col min="5" max="5" width="36.1796875" customWidth="1"/>
     <col min="6" max="6" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21032,7 +23512,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -21052,7 +23532,7 @@
     </row>
     <row r="13" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B13" s="29">
         <v>1</v>
@@ -21067,6 +23547,46 @@
         <v>584</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B14" s="91">
+        <v>1</v>
+      </c>
+      <c r="C14" s="91">
+        <v>1</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>584</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B15" s="91">
+        <v>2</v>
+      </c>
+      <c r="C15" s="91">
+        <v>1</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>584</v>
+      </c>
+      <c r="F15" s="96" t="s">
         <v>586</v>
       </c>
     </row>
@@ -21077,10 +23597,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21090,6 +23610,7 @@
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -21228,7 +23749,7 @@
       <c r="E5" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="73" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="80" t="s">
@@ -21237,138 +23758,259 @@
       <c r="H5" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="73" t="s">
         <v>124</v>
       </c>
       <c r="J5" s="80"/>
     </row>
-    <row r="6" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="80">
+        <v>1</v>
+      </c>
+      <c r="C6" s="80">
+        <v>2</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="80">
+        <v>1</v>
+      </c>
+      <c r="C7" s="80">
+        <v>3</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="57">
-        <v>1</v>
-      </c>
-      <c r="C6" s="57">
-        <v>1</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="B8" s="57">
+        <v>1</v>
+      </c>
+      <c r="C8" s="57">
+        <v>1</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
+      <c r="E8" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57">
-        <v>1</v>
-      </c>
-      <c r="C7" s="57">
+      <c r="B9" s="57">
+        <v>1</v>
+      </c>
+      <c r="C9" s="57">
         <v>2</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D9" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E9" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>124</v>
-      </c>
+      <c r="E11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B12" s="91">
+        <v>1</v>
+      </c>
+      <c r="C12" s="91">
+        <v>1</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="91"/>
+    </row>
+    <row r="13" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="91">
+        <v>2</v>
+      </c>
+      <c r="C13" s="91">
+        <v>1</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21567,7 +24209,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -21645,7 +24287,7 @@
     </row>
     <row r="11" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B11" s="29">
         <v>1</v>
@@ -21666,6 +24308,32 @@
         <v>74</v>
       </c>
       <c r="H11" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="B12" s="91">
+        <v>1</v>
+      </c>
+      <c r="C12" s="91">
+        <v>1</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="93" t="s">
         <v>74</v>
       </c>
     </row>
@@ -21689,9 +24357,9 @@
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21789,7 +24457,7 @@
     <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22114,55 +24782,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" customWidth="1"/>
     <col min="20" max="20" width="14.6328125" customWidth="1"/>
     <col min="21" max="21" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.26953125" customWidth="1"/>
-    <col min="25" max="25" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.1796875" customWidth="1"/>
+    <col min="26" max="26" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22221,7 +24888,7 @@
         <v>643</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>140</v>
@@ -22235,56 +24902,59 @@
       <c r="X1" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>154</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>156</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -22306,9 +24976,9 @@
       <c r="G2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="41"/>
-    </row>
-    <row r="3" spans="1:42" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG2" s="41"/>
+    </row>
+    <row r="3" spans="1:43" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
@@ -22330,10 +25000,10 @@
       <c r="G3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" s="41"/>
-      <c r="AF3" s="42"/>
-    </row>
-    <row r="4" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z3" s="41"/>
+      <c r="AG3" s="42"/>
+    </row>
+    <row r="4" spans="1:43" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
         <v>6</v>
       </c>
@@ -22361,16 +25031,16 @@
       <c r="T4" s="56" t="s">
         <v>624</v>
       </c>
-      <c r="Y4" s="60"/>
-      <c r="AF4" s="61"/>
-      <c r="AO4" s="56" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z4" s="60"/>
+      <c r="AG4" s="61"/>
       <c r="AP4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ4" s="56" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
         <v>6</v>
       </c>
@@ -22392,16 +25062,16 @@
       <c r="G5" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="60"/>
-      <c r="AF5" s="61"/>
-      <c r="AO5" s="56" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z5" s="60"/>
+      <c r="AG5" s="61"/>
       <c r="AP5" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ5" s="56" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
         <v>6</v>
       </c>
@@ -22429,16 +25099,16 @@
       <c r="T6" s="56" t="s">
         <v>624</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="AF6" s="61"/>
-      <c r="AO6" s="56" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z6" s="60"/>
+      <c r="AG6" s="61"/>
       <c r="AP6" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ6" s="56" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -22460,10 +25130,10 @@
       <c r="G7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z7" s="6"/>
+      <c r="AG7" s="5"/>
+    </row>
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -22485,10 +25155,10 @@
       <c r="G8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Y8" s="6"/>
-      <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z8" s="6"/>
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -22510,59 +25180,59 @@
       <c r="W9" t="s">
         <v>66</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>66</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Z9" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AC9" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AD9" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AE9" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AI9" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AI9" s="6" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="AK9" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="AL9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AM9" s="6" t="s">
+      <c r="AM9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN9" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AN9" s="6" t="s">
+      <c r="AO9" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>9</v>
       </c>
@@ -22578,6 +25248,9 @@
       <c r="E10" s="73" t="s">
         <v>123</v>
       </c>
+      <c r="F10" s="73" t="s">
+        <v>123</v>
+      </c>
       <c r="G10" s="73" t="s">
         <v>123</v>
       </c>
@@ -22587,91 +25260,93 @@
       <c r="T10" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="Y10" s="74"/>
-    </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y11" s="19"/>
-      <c r="AF11" s="18"/>
-    </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10" s="74"/>
+    </row>
+    <row r="11" spans="1:43" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="73">
+        <v>1</v>
+      </c>
+      <c r="C11" s="73">
+        <v>2</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="73" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z11" s="74"/>
+    </row>
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z12" s="19"/>
+      <c r="AG12" s="18"/>
+    </row>
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y12" s="19"/>
-      <c r="AF12" s="18"/>
-    </row>
-    <row r="13" spans="1:42" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z13" s="19"/>
+      <c r="AG13" s="18"/>
+    </row>
+    <row r="14" spans="1:43" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>5</v>
-      </c>
-      <c r="B13" s="27">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27">
-        <v>1</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>624</v>
-      </c>
-      <c r="AD13" s="34"/>
-    </row>
-    <row r="14" spans="1:42" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>671</v>
       </c>
       <c r="B14" s="27">
         <v>1</v>
@@ -22697,32 +25372,108 @@
       <c r="T14" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="AD14" s="34"/>
-    </row>
-    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>645</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="V15" s="69"/>
+      <c r="AE14" s="34"/>
+    </row>
+    <row r="15" spans="1:43" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="B15" s="27">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE15" s="34"/>
+    </row>
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>644</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="V16" s="69"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17" t="s">
+        <v>123</v>
+      </c>
+      <c r="T17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>675</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23396,7 +26147,7 @@
     </row>
     <row r="9" spans="1:33" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
@@ -23475,7 +26226,7 @@
     </row>
     <row r="10" spans="1:33" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A26EA-C969-440C-84D2-D7F4666CB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA996A95-90B5-4CFE-A0BB-4539CC991270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6731" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6731" uniqueCount="674">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2088,6 +2088,9 @@
   </si>
   <si>
     <t>TOASTMSG_VERIFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This record is locked while pending approval. Please recall your submission if modifications are needed. </t>
   </si>
 </sst>
 </file>
@@ -4957,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BQ27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14020,7 +14023,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26022,7 +26025,7 @@
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26674,7 +26677,7 @@
         <v>96</v>
       </c>
       <c r="O15" s="99" t="s">
-        <v>250</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA996A95-90B5-4CFE-A0BB-4539CC991270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B384C1-F94C-458B-B4B0-B8A8487C897E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -11586,7 +11586,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15826,8 +15826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16099,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>94</v>
@@ -16892,9 +16892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DP24"/>
   <sheetViews>
-    <sheetView topLeftCell="CZ1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DE3" sqref="DE3"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -26022,10 +26022,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28565,15 +28565,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -28581,6 +28572,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28801,19 +28801,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B384C1-F94C-458B-B4B0-B8A8487C897E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53B440-6D5E-48DE-8673-A38CA13C7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6731" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="674">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -11583,10 +11583,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11810,209 +11810,207 @@
       </c>
       <c r="Z3" s="51"/>
     </row>
-    <row r="4" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:26" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="51">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51">
+        <v>2</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" s="51"/>
+    </row>
+    <row r="5" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="21" t="s">
+      <c r="F5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="12" t="s">
+      <c r="T5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="W4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y4" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="W5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y5" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="37">
-        <v>1</v>
-      </c>
-      <c r="C6" s="37">
-        <v>1</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="P6" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>562</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="W6" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="X6" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y6" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z6" s="41" t="s">
-        <v>594</v>
-      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -12087,83 +12085,83 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="46">
-        <v>1</v>
-      </c>
-      <c r="C8" s="46">
-        <v>1</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="46" t="s">
+    <row r="8" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="F8" s="46">
-        <v>10</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="F8" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="S8" s="46" t="s">
+      <c r="S8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="V8" s="46" t="s">
+      <c r="T8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="W8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" s="95" t="s">
+      <c r="W8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="41" t="s">
         <v>594</v>
       </c>
     </row>
@@ -12175,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>96</v>
@@ -12199,7 +12197,7 @@
         <v>97</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>97</v>
@@ -12207,124 +12205,124 @@
       <c r="M9" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="47" t="s">
-        <v>74</v>
+      <c r="N9" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>74</v>
+        <v>558</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>74</v>
+        <v>558</v>
       </c>
       <c r="Q9" s="46" t="s">
-        <v>74</v>
+        <v>564</v>
       </c>
       <c r="R9" s="46" t="s">
-        <v>74</v>
+        <v>562</v>
       </c>
       <c r="S9" s="46" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T9" s="46" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="U9" s="46" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="V9" s="46" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
       <c r="W9" s="46" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="X9" s="46" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="Z9" s="46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="V10" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="W10" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="X10" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y10" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="27" t="s">
+      <c r="Z9" s="95" t="s">
         <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="46">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46">
+        <v>2</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="F10" s="46">
+        <v>10</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="46" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -12335,235 +12333,235 @@
         <v>1</v>
       </c>
       <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="V11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y11" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="69" t="s">
+      <c r="D12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="68">
-        <v>1</v>
-      </c>
-      <c r="C12" s="68">
-        <v>1</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="68" t="s">
+      <c r="B13" s="68">
+        <v>1</v>
+      </c>
+      <c r="C13" s="68">
+        <v>1</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="F12" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="68" t="s">
+      <c r="F13" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="68" t="s">
         <v>558</v>
       </c>
-      <c r="P12" s="68" t="s">
+      <c r="P13" s="68" t="s">
         <v>558</v>
       </c>
-      <c r="Q12" s="68" t="s">
+      <c r="Q13" s="68" t="s">
         <v>564</v>
       </c>
-      <c r="R12" s="68" t="s">
+      <c r="R13" s="68" t="s">
         <v>562</v>
       </c>
-      <c r="S12" s="68" t="s">
+      <c r="S13" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="T12" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="U12" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="V12" s="68" t="s">
+      <c r="T13" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="V13" s="68" t="s">
         <v>596</v>
       </c>
-      <c r="W12" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y12" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="68"/>
-    </row>
-    <row r="13" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="B13" s="23">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="U13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="W13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="X13" s="23" t="s">
+      <c r="W13" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" s="68" t="s">
         <v>97</v>
       </c>
       <c r="Y13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="Z13" s="27" t="s">
-        <v>594</v>
-      </c>
+      <c r="Z13" s="68"/>
     </row>
     <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
@@ -12573,13 +12571,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>94</v>
+        <v>486</v>
       </c>
       <c r="F14" s="92" t="s">
         <v>74</v>
@@ -12587,62 +12585,62 @@
       <c r="G14" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>94</v>
+      <c r="H14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="U14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="V14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="X14" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="Y14" s="51" t="s">
         <v>74</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>94</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -12653,156 +12651,156 @@
         <v>1</v>
       </c>
       <c r="C15" s="23">
+        <v>2</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23">
         <v>3</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="D16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="F15" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="23" t="s">
+      <c r="F16" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P16" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q16" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R16" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="S16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="U15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" s="23" t="s">
+      <c r="T16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="V16" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="W15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="X15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="27" t="s">
+      <c r="W16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="27" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="83" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="81" t="s">
-        <v>637</v>
-      </c>
-      <c r="B16" s="81">
-        <v>1</v>
-      </c>
-      <c r="C16" s="81">
-        <v>1</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="81" t="s">
-        <v>473</v>
-      </c>
-      <c r="P16" s="81" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q16" s="81" t="s">
-        <v>562</v>
-      </c>
-      <c r="R16" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="T16" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="U16" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="81" t="s">
-        <v>596</v>
-      </c>
-      <c r="W16" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="X16" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="85" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="83" customFormat="1" x14ac:dyDescent="0.35">
@@ -12810,7 +12808,7 @@
         <v>637</v>
       </c>
       <c r="B17" s="81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="81">
         <v>1</v>
@@ -12885,8 +12883,85 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z18" s="1"/>
+    <row r="18" spans="1:26" s="83" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="B18" s="81">
+        <v>2</v>
+      </c>
+      <c r="C18" s="81">
+        <v>1</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="P18" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q18" s="81" t="s">
+        <v>562</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="U18" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="81" t="s">
+        <v>596</v>
+      </c>
+      <c r="W18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="X18" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="85" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Z19" s="1"/>
@@ -12911,6 +12986,9 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15826,7 +15904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\16Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53B440-6D5E-48DE-8673-A38CA13C7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1DCB4-9AF4-4333-A636-6A9FBE875182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6720" uniqueCount="675">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2087,7 +2087,10 @@
     <t>Resubmitted</t>
   </si>
   <si>
-    <t>TOASTMSG_VERIFY</t>
+    <t>ASSESSMENT_ID</t>
+  </si>
+  <si>
+    <t>SUPERVISOR_DECISION_COMMENTS</t>
   </si>
   <si>
     <t xml:space="preserve">This record is locked while pending approval. Please recall your submission if modifications are needed. </t>
@@ -2289,7 +2292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2417,6 +2420,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4139,8 +4148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E73BAA-EFCF-4B3C-AD92-E36A2F3DC9FA}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4380,6 +4389,9 @@
         <v>272</v>
       </c>
       <c r="T6" s="92"/>
+      <c r="U6" s="91" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="7" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
@@ -4624,10 +4636,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAC83E-D157-4050-A417-F8E4073D5915}">
-  <dimension ref="A1:BJ27"/>
+  <dimension ref="A1:BL27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4649,7 +4661,7 @@
     <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4833,8 +4845,14 @@
       <c r="BJ1" s="6" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="BK1" s="87" t="s">
+        <v>672</v>
+      </c>
+      <c r="BL1" s="87" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4847,67 +4865,73 @@
       <c r="D2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="BK2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="I3" s="6"/>
       <c r="P3" s="6"/>
       <c r="AL3" s="6"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="I4" s="5"/>
       <c r="P4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="I5" s="6"/>
       <c r="P5" s="6"/>
       <c r="AL5" s="6"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="I6" s="6"/>
       <c r="P6" s="6"/>
       <c r="AL6" s="6"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="I7" s="6"/>
       <c r="P7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="I8" s="6"/>
       <c r="P8" s="6"/>
       <c r="AL8" s="6"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="I9" s="6"/>
       <c r="P9" s="6"/>
       <c r="AL9" s="6"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="P10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="P11" s="6"/>
       <c r="AL11" s="6"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="P12" s="6"/>
       <c r="AL12" s="6"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="P13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="P14" s="6"/>
       <c r="AL14" s="6"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="P15" s="6"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="P16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
@@ -4960,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BQ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8461,7 +8485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
+    <sheetView topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
@@ -10931,8 +10955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="M1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11586,7 +11610,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11810,83 +11834,83 @@
       </c>
       <c r="Z3" s="51"/>
     </row>
-    <row r="4" spans="1:26" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:26" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51">
-        <v>1</v>
-      </c>
-      <c r="C4" s="51">
+      <c r="B4" s="110">
+        <v>1</v>
+      </c>
+      <c r="C4" s="110">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="51" t="s">
+      <c r="D4" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="110" t="s">
         <v>558</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="110" t="s">
         <v>558</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="110" t="s">
         <v>564</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="110" t="s">
         <v>562</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="U4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="51" t="s">
+      <c r="T4" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="110" t="s">
         <v>596</v>
       </c>
-      <c r="W4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y4" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" s="51"/>
+      <c r="W4" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" s="110"/>
     </row>
     <row r="5" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
@@ -14101,7 +14125,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15905,7 +15929,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16177,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>94</v>
@@ -16970,9 +16994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DP24"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20013,7 +20037,7 @@
         <v>74</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AG11" s="12" t="s">
         <v>94</v>
@@ -24050,8 +24074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26101,9 +26125,9 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26118,7 +26142,7 @@
     <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="23.90625" customWidth="1"/>
-    <col min="14" max="14" width="59.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -26164,9 +26188,6 @@
       <c r="N1" t="s">
         <v>553</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>672</v>
-      </c>
     </row>
     <row r="2" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -26208,9 +26229,6 @@
       <c r="N2" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="O2" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="3" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
@@ -26249,9 +26267,6 @@
       <c r="L3" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="4" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
@@ -26290,9 +26305,6 @@
       <c r="L4" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="O4" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="5" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
@@ -26331,9 +26343,6 @@
       <c r="L5" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="6" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
@@ -26375,9 +26384,6 @@
       <c r="N6" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
@@ -26416,9 +26422,6 @@
       <c r="L7" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="O7" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="8" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
@@ -26457,9 +26460,6 @@
       <c r="L8" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="9" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
@@ -26498,9 +26498,6 @@
       <c r="L9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="10" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
@@ -26540,9 +26537,6 @@
         <v>96</v>
       </c>
       <c r="M10" s="39"/>
-      <c r="O10" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="11" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
@@ -26582,9 +26576,6 @@
         <v>96</v>
       </c>
       <c r="M11" s="39"/>
-      <c r="O11" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="12" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
@@ -26624,9 +26615,6 @@
         <v>96</v>
       </c>
       <c r="M12" s="39"/>
-      <c r="O12" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="13" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
@@ -26666,9 +26654,6 @@
         <v>96</v>
       </c>
       <c r="M13" s="39"/>
-      <c r="O13" s="39" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="14" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="50" t="s">
@@ -26707,55 +26692,51 @@
       <c r="L14" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="99" t="s">
-        <v>74</v>
-      </c>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="50">
-        <v>1</v>
-      </c>
-      <c r="C15" s="51">
+      <c r="B15" s="106">
+        <v>1</v>
+      </c>
+      <c r="C15" s="107">
         <v>6</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="50" t="s">
+      <c r="D15" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="H15" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="50" t="s">
+      <c r="H15" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="106" t="s">
         <v>551</v>
       </c>
-      <c r="L15" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="99" t="s">
-        <v>673</v>
+      <c r="L15" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="106"/>
+      <c r="O15" s="108" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -26795,11 +26776,8 @@
       <c r="L16" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O16" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>5</v>
       </c>
@@ -26836,11 +26814,8 @@
       <c r="L17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>5</v>
       </c>
@@ -26877,11 +26852,8 @@
       <c r="L18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
@@ -26918,11 +26890,8 @@
       <c r="L19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>5</v>
       </c>
@@ -26959,11 +26928,8 @@
       <c r="L20" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>5</v>
       </c>
@@ -27000,11 +26966,8 @@
       <c r="L21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O21" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="91" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:14" s="91" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="91" t="s">
         <v>5</v>
       </c>
@@ -27041,11 +27004,8 @@
       <c r="L22" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="66" t="s">
         <v>9</v>
       </c>
@@ -27080,11 +27040,8 @@
       <c r="L23" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="O23" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="66" t="s">
         <v>9</v>
       </c>
@@ -27119,11 +27076,8 @@
       <c r="L24" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
         <v>4</v>
       </c>
@@ -27164,11 +27118,8 @@
       <c r="N25" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="O25" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>4</v>
       </c>
@@ -27206,11 +27157,8 @@
         <v>96</v>
       </c>
       <c r="M26" s="39"/>
-      <c r="O26" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>4</v>
       </c>
@@ -27251,11 +27199,8 @@
       <c r="N27" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="O27" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>4</v>
       </c>
@@ -27293,11 +27238,8 @@
         <v>96</v>
       </c>
       <c r="M28" s="39"/>
-      <c r="O28" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
         <v>91</v>
       </c>
@@ -27337,11 +27279,8 @@
       <c r="N29" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="O29" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
         <v>91</v>
       </c>
@@ -27378,11 +27317,8 @@
       <c r="L30" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="O30" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>611</v>
       </c>
@@ -27419,11 +27355,8 @@
       <c r="L31" t="s">
         <v>74</v>
       </c>
-      <c r="O31" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>634</v>
       </c>
@@ -27460,11 +27393,8 @@
       <c r="L32" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O32" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>634</v>
       </c>
@@ -27501,11 +27431,8 @@
       <c r="L33" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>634</v>
       </c>
@@ -27542,11 +27469,8 @@
       <c r="L34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O34" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>634</v>
       </c>
@@ -27583,11 +27507,8 @@
       <c r="L35" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O35" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81" t="s">
         <v>637</v>
       </c>
@@ -27624,11 +27545,8 @@
       <c r="L36" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="O36" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="81" t="s">
         <v>637</v>
       </c>
@@ -27665,11 +27583,8 @@
       <c r="L37" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="O37" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="81" t="s">
         <v>637</v>
       </c>
@@ -27706,11 +27621,8 @@
       <c r="L38" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="O38" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="81" t="s">
         <v>637</v>
       </c>
@@ -27746,9 +27658,6 @@
       </c>
       <c r="L39" s="83" t="s">
         <v>96</v>
-      </c>
-      <c r="O39" s="39" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -28653,15 +28562,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -28878,6 +28778,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
@@ -28889,14 +28798,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28913,4 +28814,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\March\03March\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\March\03March\Latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09519F-A1B9-4C26-8D21-B9DF64490B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA94A5B-351B-4C45-BEDA-117B7D73FA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="856" firstSheet="2" activeTab="6" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="585">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -854,9 +854,6 @@
   </si>
   <si>
     <t>personName7</t>
-  </si>
-  <si>
-    <t>Emotional Abuse</t>
   </si>
   <si>
     <t>SAFETY_ALERT</t>
@@ -1824,9 +1821,6 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
-  </si>
-  <si>
-    <t>Ritual Abuse</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2001,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2038,12 +2032,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2058,7 +2046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2137,9 +2125,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2458,7 +2443,7 @@
   <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4987,136 +4972,136 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>336</v>
       </c>
       <c r="R1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="AA1" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AB1" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AC1" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AD1" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AE1" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AF1" s="35" t="s">
         <v>348</v>
-      </c>
-      <c r="AF1" s="35" t="s">
-        <v>349</v>
       </c>
       <c r="AG1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="AH1" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI1" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AK1" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AL1" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AM1" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AN1" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AO1" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AP1" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="AP1" s="35" t="s">
+      <c r="AQ1" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="AQ1" s="35" t="s">
+      <c r="AR1" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="AR1" s="35" t="s">
+      <c r="AS1" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="AS1" s="35" t="s">
+      <c r="AT1" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="AT1" s="35" t="s">
+      <c r="AU1" s="35" t="s">
         <v>362</v>
-      </c>
-      <c r="AU1" s="35" t="s">
-        <v>363</v>
       </c>
       <c r="AV1" s="35" t="s">
         <v>241</v>
@@ -5125,67 +5110,67 @@
         <v>243</v>
       </c>
       <c r="AX1" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="AY1" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BD1" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BE1" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BF1" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BG1" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="BG1" s="21" t="s">
+      <c r="BH1" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BI1" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="BI1" s="21" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="BJ1" s="21" t="s">
+      <c r="BK1" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="BK1" s="21" t="s">
+      <c r="BL1" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="BL1" s="21" t="s">
+      <c r="BM1" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="BM1" s="21" t="s">
+      <c r="BN1" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="BN1" s="21" t="s">
+      <c r="BO1" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="BO1" s="21" t="s">
+      <c r="BP1" s="21" t="s">
         <v>381</v>
-      </c>
-      <c r="BP1" s="21" t="s">
-        <v>382</v>
       </c>
       <c r="BQ1" s="21" t="s">
         <v>199</v>
       </c>
       <c r="BR1" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5208,7 +5193,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>246</v>
@@ -5220,31 +5205,31 @@
         <v>257</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>155</v>
@@ -5300,7 +5285,7 @@
         <v>154</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:70" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5323,7 +5308,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>246</v>
@@ -5335,31 +5320,31 @@
         <v>259</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>155</v>
@@ -5415,7 +5400,7 @@
         <v>154</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:70" s="5" customFormat="1" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5438,7 +5423,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>22</v>
@@ -5530,13 +5515,13 @@
         <v>33</v>
       </c>
       <c r="BP4" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BQ4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5559,7 +5544,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>246</v>
@@ -5571,31 +5556,31 @@
         <v>264</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>155</v>
@@ -5651,7 +5636,7 @@
         <v>154</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:70" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5674,7 +5659,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>246</v>
@@ -5686,31 +5671,31 @@
         <v>257</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>155</v>
@@ -5853,7 +5838,7 @@
         <v>34</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:70" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5876,7 +5861,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>246</v>
@@ -5888,31 +5873,31 @@
         <v>257</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>155</v>
@@ -6055,7 +6040,7 @@
         <v>34</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:70" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6078,7 +6063,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>246</v>
@@ -6090,31 +6075,31 @@
         <v>257</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>155</v>
@@ -6257,7 +6242,7 @@
         <v>34</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6280,7 +6265,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>246</v>
@@ -6292,31 +6277,31 @@
         <v>257</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>155</v>
@@ -6372,7 +6357,7 @@
         <v>154</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:70" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6395,7 +6380,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>246</v>
@@ -6407,31 +6392,31 @@
         <v>259</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>155</v>
@@ -6487,7 +6472,7 @@
         <v>154</v>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6510,7 +6495,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>246</v>
@@ -6522,31 +6507,31 @@
         <v>257</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>389</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>155</v>
@@ -6602,10 +6587,10 @@
         <v>154</v>
       </c>
       <c r="BP11" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:70" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6628,7 +6613,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>246</v>
@@ -6640,22 +6625,22 @@
         <v>258</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>22</v>
@@ -6811,7 +6796,7 @@
         <v>22</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6834,7 +6819,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>246</v>
@@ -6846,22 +6831,22 @@
         <v>257</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>22</v>
@@ -6926,7 +6911,7 @@
         <v>154</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6949,7 +6934,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>246</v>
@@ -6961,22 +6946,22 @@
         <v>259</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>22</v>
@@ -7041,7 +7026,7 @@
         <v>154</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7064,7 +7049,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>246</v>
@@ -7076,22 +7061,22 @@
         <v>257</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>22</v>
@@ -7156,7 +7141,7 @@
         <v>154</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7179,7 +7164,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>246</v>
@@ -7191,22 +7176,22 @@
         <v>259</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>22</v>
@@ -7271,7 +7256,7 @@
         <v>154</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7294,7 +7279,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>246</v>
@@ -7306,22 +7291,22 @@
         <v>261</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>22</v>
@@ -7386,7 +7371,7 @@
         <v>154</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7409,7 +7394,7 @@
         <v>26</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>246</v>
@@ -7421,22 +7406,22 @@
         <v>263</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>22</v>
@@ -7501,7 +7486,7 @@
         <v>154</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7524,7 +7509,7 @@
         <v>26</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>246</v>
@@ -7536,22 +7521,22 @@
         <v>257</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>22</v>
@@ -7616,7 +7601,7 @@
         <v>154</v>
       </c>
       <c r="BR19" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7639,7 +7624,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>246</v>
@@ -7651,22 +7636,22 @@
         <v>259</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>22</v>
@@ -7731,7 +7716,7 @@
         <v>154</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7754,7 +7739,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>246</v>
@@ -7766,22 +7751,22 @@
         <v>257</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>22</v>
@@ -7846,7 +7831,7 @@
         <v>154</v>
       </c>
       <c r="BR21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7869,7 +7854,7 @@
         <v>26</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>246</v>
@@ -7881,22 +7866,22 @@
         <v>259</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M22" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>22</v>
@@ -7961,7 +7946,7 @@
         <v>154</v>
       </c>
       <c r="BR22" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7984,7 +7969,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>246</v>
@@ -7996,22 +7981,22 @@
         <v>261</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M23" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>22</v>
@@ -8076,7 +8061,7 @@
         <v>154</v>
       </c>
       <c r="BR23" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:70" s="5" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8099,7 +8084,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>246</v>
@@ -8111,22 +8096,22 @@
         <v>263</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M24" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>22</v>
@@ -8191,7 +8176,7 @@
         <v>154</v>
       </c>
       <c r="BR24" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:70" ht="14.5" x14ac:dyDescent="0.35">
@@ -8751,70 +8736,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>414</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>415</v>
       </c>
       <c r="Z1" s="15" t="s">
         <v>232</v>
@@ -8823,22 +8808,22 @@
         <v>91</v>
       </c>
       <c r="AB1" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC1" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>147</v>
       </c>
       <c r="AE1" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>132</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>146</v>
@@ -8867,46 +8852,46 @@
         <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="46" t="s">
         <v>420</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="46" t="s">
-        <v>421</v>
       </c>
       <c r="V2" s="46"/>
     </row>
@@ -8933,7 +8918,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>22</v>
@@ -8999,7 +8984,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>22</v>
@@ -9269,46 +9254,46 @@
         <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -9351,46 +9336,46 @@
         <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -9433,46 +9418,46 @@
         <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -9515,46 +9500,46 @@
         <v>22</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -9597,7 +9582,7 @@
         <v>22</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>22</v>
@@ -9679,7 +9664,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>22</v>
@@ -9732,7 +9717,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>22</v>
@@ -9785,7 +9770,7 @@
         <v>22</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9836,7 +9821,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>22</v>
@@ -9902,7 +9887,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>22</v>
@@ -9968,46 +9953,46 @@
         <v>22</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -10050,46 +10035,46 @@
         <v>22</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -10132,46 +10117,46 @@
         <v>22</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -10214,46 +10199,46 @@
         <v>22</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="47" t="s">
         <v>420</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="47" t="s">
-        <v>421</v>
       </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -10632,94 +10617,94 @@
         <v>47</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>427</v>
-      </c>
       <c r="I1" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>222</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>429</v>
-      </c>
       <c r="P1" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="U1" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>433</v>
-      </c>
       <c r="W1" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y1" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="Z1" s="35" t="s">
-        <v>341</v>
-      </c>
       <c r="AA1" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AE1" s="35" t="s">
         <v>231</v>
       </c>
       <c r="AF1" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG1" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AH1" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AI1" s="35" t="s">
         <v>237</v>
@@ -10734,7 +10719,7 @@
         <v>239</v>
       </c>
       <c r="AM1" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AN1" s="35" t="s">
         <v>241</v>
@@ -10743,22 +10728,22 @@
         <v>243</v>
       </c>
       <c r="AP1" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="AR1" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="AS1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="AT1" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AU1" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -10775,10 +10760,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>246</v>
@@ -10793,13 +10778,13 @@
         <v>258</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L2" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>32</v>
@@ -10815,10 +10800,10 @@
       </c>
       <c r="R2" s="56"/>
       <c r="S2" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T2" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T2" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U2" s="56" t="s">
         <v>32</v>
@@ -10890,7 +10875,7 @@
         <v>155</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -10907,133 +10892,133 @@
         <v>33</v>
       </c>
       <c r="E3" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS3" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="F3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS3" s="58" t="s">
-        <v>444</v>
-      </c>
       <c r="AT3" s="58" t="s">
         <v>32</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11050,10 +11035,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G4" s="56" t="s">
         <v>246</v>
@@ -11068,13 +11053,13 @@
         <v>258</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L4" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N4" s="57" t="s">
         <v>32</v>
@@ -11090,10 +11075,10 @@
       </c>
       <c r="R4" s="56"/>
       <c r="S4" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T4" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U4" s="56" t="s">
         <v>32</v>
@@ -11165,7 +11150,7 @@
         <v>155</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11182,10 +11167,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>246</v>
@@ -11200,13 +11185,13 @@
         <v>258</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M5" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N5" s="57" t="s">
         <v>32</v>
@@ -11290,10 +11275,10 @@
         <v>34</v>
       </c>
       <c r="AQ5" s="57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11310,10 +11295,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>246</v>
@@ -11328,13 +11313,13 @@
         <v>258</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N6" s="57" t="s">
         <v>32</v>
@@ -11421,7 +11406,7 @@
         <v>155</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11438,10 +11423,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G7" s="56" t="s">
         <v>246</v>
@@ -11456,13 +11441,13 @@
         <v>258</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L7" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N7" s="57" t="s">
         <v>32</v>
@@ -11546,10 +11531,10 @@
         <v>34</v>
       </c>
       <c r="AQ7" s="57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11566,10 +11551,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G8" s="56" t="s">
         <v>246</v>
@@ -11584,13 +11569,13 @@
         <v>258</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L8" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N8" s="57" t="s">
         <v>32</v>
@@ -11602,78 +11587,78 @@
         <v>152</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
       <c r="U8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="V8" s="56"/>
       <c r="W8" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="X8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AC8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AD8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AE8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AI8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AJ8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AK8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AN8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO8" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AP8" s="56"/>
       <c r="AQ8" s="57" t="s">
         <v>155</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11690,10 +11675,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>246</v>
@@ -11708,13 +11693,13 @@
         <v>260</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L9" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N9" s="57" t="s">
         <v>32</v>
@@ -11757,7 +11742,7 @@
         <v>155</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11774,7 +11759,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>22</v>
@@ -11844,13 +11829,13 @@
         <v>157</v>
       </c>
       <c r="AS10" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AT10" s="58" t="s">
         <v>32</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11867,10 +11852,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>246</v>
@@ -11885,13 +11870,13 @@
         <v>258</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N11" s="57" t="s">
         <v>32</v>
@@ -11907,10 +11892,10 @@
       </c>
       <c r="R11" s="56"/>
       <c r="S11" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T11" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T11" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U11" s="56" t="s">
         <v>32</v>
@@ -11982,7 +11967,7 @@
         <v>155</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -11999,10 +11984,10 @@
         <v>32</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>246</v>
@@ -12017,13 +12002,13 @@
         <v>258</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L12" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M12" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N12" s="57" t="s">
         <v>32</v>
@@ -12039,10 +12024,10 @@
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T12" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U12" s="56" t="s">
         <v>32</v>
@@ -12114,7 +12099,7 @@
         <v>155</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12131,10 +12116,10 @@
         <v>32</v>
       </c>
       <c r="E13" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="57" t="s">
         <v>448</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>449</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>246</v>
@@ -12155,7 +12140,7 @@
         <v>159</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N13" s="56" t="s">
         <v>32</v>
@@ -12249,7 +12234,7 @@
       </c>
       <c r="AR13" s="56"/>
       <c r="AU13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12266,10 +12251,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G14" s="56" t="s">
         <v>246</v>
@@ -12284,13 +12269,13 @@
         <v>258</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M14" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N14" s="57" t="s">
         <v>32</v>
@@ -12306,10 +12291,10 @@
       </c>
       <c r="R14" s="56"/>
       <c r="S14" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T14" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T14" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U14" s="56" t="s">
         <v>32</v>
@@ -12381,7 +12366,7 @@
         <v>155</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12398,10 +12383,10 @@
         <v>32</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="56" t="s">
         <v>246</v>
@@ -12416,13 +12401,13 @@
         <v>258</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M15" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N15" s="57" t="s">
         <v>32</v>
@@ -12438,10 +12423,10 @@
       </c>
       <c r="R15" s="56"/>
       <c r="S15" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T15" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T15" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U15" s="56" t="s">
         <v>32</v>
@@ -12513,7 +12498,7 @@
         <v>155</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12530,10 +12515,10 @@
         <v>32</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G16" s="56" t="s">
         <v>246</v>
@@ -12548,13 +12533,13 @@
         <v>260</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L16" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M16" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N16" s="57" t="s">
         <v>32</v>
@@ -12570,10 +12555,10 @@
       </c>
       <c r="R16" s="56"/>
       <c r="S16" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T16" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T16" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U16" s="56" t="s">
         <v>32</v>
@@ -12645,7 +12630,7 @@
         <v>155</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12662,10 +12647,10 @@
         <v>32</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G17" s="56" t="s">
         <v>246</v>
@@ -12680,13 +12665,13 @@
         <v>258</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L17" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M17" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N17" s="57" t="s">
         <v>32</v>
@@ -12702,10 +12687,10 @@
       </c>
       <c r="R17" s="56"/>
       <c r="S17" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T17" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T17" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U17" s="56" t="s">
         <v>32</v>
@@ -12777,7 +12762,7 @@
         <v>155</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12794,10 +12779,10 @@
         <v>32</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G18" s="56" t="s">
         <v>246</v>
@@ -12812,13 +12797,13 @@
         <v>258</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L18" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N18" s="57" t="s">
         <v>32</v>
@@ -12834,10 +12819,10 @@
       </c>
       <c r="R18" s="56"/>
       <c r="S18" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T18" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T18" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U18" s="56" t="s">
         <v>32</v>
@@ -12909,7 +12894,7 @@
         <v>155</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:47" s="58" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12926,10 +12911,10 @@
         <v>32</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>246</v>
@@ -12944,13 +12929,13 @@
         <v>260</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L19" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N19" s="57" t="s">
         <v>32</v>
@@ -12966,10 +12951,10 @@
       </c>
       <c r="R19" s="56"/>
       <c r="S19" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="T19" s="56" t="s">
         <v>441</v>
-      </c>
-      <c r="T19" s="56" t="s">
-        <v>442</v>
       </c>
       <c r="U19" s="56" t="s">
         <v>32</v>
@@ -13041,7 +13026,7 @@
         <v>155</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="14.5" x14ac:dyDescent="0.35">
@@ -13133,43 +13118,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>453</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>190</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>455</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>456</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>458</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -13183,13 +13168,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>33</v>
@@ -13230,13 +13215,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>33</v>
@@ -13277,13 +13262,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>33</v>
@@ -13324,13 +13309,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>33</v>
@@ -13368,13 +13353,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>33</v>
@@ -13412,28 +13397,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="39" t="s">
         <v>465</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>466</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>32</v>
@@ -13448,7 +13433,7 @@
         <v>34</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -13462,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>32</v>
@@ -13498,7 +13483,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -13512,28 +13497,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>32</v>
@@ -13559,28 +13544,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="39" t="s">
         <v>465</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>466</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>32</v>
@@ -13595,7 +13580,7 @@
         <v>34</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -13609,28 +13594,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K11" s="39" t="s">
         <v>467</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>468</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>32</v>
@@ -13645,7 +13630,7 @@
         <v>34</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -13659,28 +13644,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="39" t="s">
         <v>465</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>466</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>32</v>
@@ -13695,7 +13680,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -13709,28 +13694,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K13" s="39" t="s">
         <v>467</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>468</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>32</v>
@@ -13745,7 +13730,7 @@
         <v>34</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.35">
@@ -13759,28 +13744,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E14" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H14" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" s="60" t="s">
         <v>463</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="J14" s="60" t="s">
         <v>464</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="K14" s="60" t="s">
         <v>465</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>466</v>
       </c>
       <c r="L14" s="61" t="s">
         <v>32</v>
@@ -13906,97 +13891,97 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="V1" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="U1" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="Y1" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Z1" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA1" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="Z1" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AF1" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AG1" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AH1" s="41" t="s">
         <v>497</v>
-      </c>
-      <c r="AH1" s="41" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
@@ -14095,16 +14080,16 @@
         <v>32</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>152</v>
@@ -14116,7 +14101,7 @@
         <v>34</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>34</v>
@@ -14143,7 +14128,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -14173,16 +14158,16 @@
         <v>32</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>500</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>152</v>
@@ -14194,7 +14179,7 @@
         <v>34</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>34</v>
@@ -14221,7 +14206,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -14260,7 +14245,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>33</v>
@@ -14290,16 +14275,16 @@
         <v>32</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="R6" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>152</v>
@@ -14311,7 +14296,7 @@
         <v>34</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>34</v>
@@ -14323,7 +14308,7 @@
         <v>32</v>
       </c>
       <c r="Z6" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -14340,7 +14325,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>33</v>
@@ -14370,16 +14355,16 @@
         <v>32</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="R7" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>152</v>
@@ -14391,7 +14376,7 @@
         <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>34</v>
@@ -14403,7 +14388,7 @@
         <v>32</v>
       </c>
       <c r="Z7" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -14420,7 +14405,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>
@@ -14450,16 +14435,16 @@
         <v>32</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="R8" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>152</v>
@@ -14471,7 +14456,7 @@
         <v>34</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>34</v>
@@ -14483,7 +14468,7 @@
         <v>33</v>
       </c>
       <c r="Z8" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -14500,7 +14485,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -14580,7 +14565,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>33</v>
@@ -14610,16 +14595,16 @@
         <v>32</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="R10" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>152</v>
@@ -14631,7 +14616,7 @@
         <v>33</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>34</v>
@@ -14643,7 +14628,7 @@
         <v>33</v>
       </c>
       <c r="Z10" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -14740,7 +14725,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>33</v>
@@ -14770,16 +14755,16 @@
         <v>32</v>
       </c>
       <c r="O12" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="R12" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>152</v>
@@ -14791,7 +14776,7 @@
         <v>34</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>34</v>
@@ -14806,55 +14791,55 @@
     </row>
     <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>506</v>
-      </c>
       <c r="Q13" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
   